--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -692,23 +692,17 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>What was administered　医薬品</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
-投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-【JP-CORE】
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。-また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
+    <t>CodeableConcept
+Reference</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>Codes identifying substance or product that can be administered.</t>
@@ -717,6 +711,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -729,14 +730,19 @@
     <t>RXA-5-Administered Code</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.medication[x].id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.
-リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない任意の文字列値にすることができる。</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -793,12 +799,6 @@
     <t>MedicationAdministration.medication[x].coding.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
     <t>MedicationAdministration.medication[x].coding.extension</t>
   </si>
   <si>
@@ -939,6 +939,13 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
+</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1114,8 +1121,8 @@
     <t>MedicationAdministration.effective[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Start and end time of administration　開始時間と終了時間</t>
@@ -1993,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2003,7 +2010,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4459,16 +4466,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4497,25 +4504,23 @@
         <v>201</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>213</v>
@@ -4533,16 +4538,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4550,9 +4555,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4570,18 +4577,20 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4606,13 +4615,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4630,10 +4639,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4642,19 +4651,19 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4666,14 +4675,14 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4685,7 +4694,7 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>229</v>
@@ -4693,9 +4702,7 @@
       <c r="L24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4732,37 +4739,37 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4780,11 +4787,11 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>79</v>
@@ -4796,23 +4803,21 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4848,19 +4853,19 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4872,19 +4877,19 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4892,7 +4897,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4900,10 +4905,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4912,19 +4917,23 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4972,31 +4981,31 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5004,18 +5013,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -5027,7 +5036,7 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>229</v>
@@ -5035,9 +5044,7 @@
       <c r="L27" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5074,37 +5081,37 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5118,18 +5125,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5138,23 +5145,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5190,43 +5195,43 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5234,7 +5239,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5242,7 +5247,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5257,18 +5262,20 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5316,7 +5323,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5334,13 +5341,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5348,7 +5355,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5356,7 +5363,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -5371,18 +5378,18 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5430,7 +5437,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5448,13 +5455,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5462,7 +5469,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5485,17 +5492,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5544,7 +5551,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5562,13 +5569,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5576,7 +5583,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5584,7 +5591,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5599,19 +5606,17 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5660,7 +5665,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5678,13 +5683,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5692,7 +5697,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5715,19 +5720,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5776,7 +5781,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5794,13 +5799,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5808,7 +5813,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5816,7 +5821,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
@@ -5831,18 +5836,20 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5893,7 +5900,7 @@
         <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5905,16 +5912,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5922,9 +5929,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5942,18 +5951,20 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -6002,10 +6013,10 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -6014,19 +6025,19 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6034,18 +6045,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6054,19 +6065,19 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6104,43 +6115,43 @@
         <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6148,7 +6159,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6168,20 +6179,18 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6230,7 +6239,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6239,16 +6248,16 @@
         <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6262,18 +6271,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6282,19 +6291,19 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6320,49 +6329,49 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6376,7 +6385,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6399,16 +6408,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6458,7 +6467,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6467,7 +6476,7 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6476,7 +6485,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6490,7 +6499,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6513,16 +6522,16 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6548,13 +6557,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6572,7 +6581,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6604,7 +6613,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6624,19 +6633,19 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6686,7 +6695,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6701,16 +6710,16 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6718,7 +6727,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6729,7 +6738,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6738,19 +6747,19 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>337</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6800,13 +6809,13 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
@@ -6818,10 +6827,10 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6832,7 +6841,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6840,7 +6849,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6852,19 +6861,19 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6914,10 +6923,10 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6929,16 +6938,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6946,7 +6955,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6966,18 +6975,20 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7026,7 +7037,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7041,16 +7052,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7058,7 +7069,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7066,7 +7077,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
@@ -7078,18 +7089,20 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>347</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7138,10 +7151,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -7150,19 +7163,19 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>227</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7170,11 +7183,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7190,20 +7203,18 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7252,7 +7263,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7264,19 +7275,19 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7284,43 +7295,39 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7368,25 +7375,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7400,18 +7407,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7423,15 +7430,17 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7456,13 +7465,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7480,25 +7489,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>371</v>
+        <v>232</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7512,39 +7521,43 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7592,25 +7605,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>377</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7624,7 +7637,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7635,7 +7648,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7650,10 +7663,10 @@
         <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7683,10 +7696,10 @@
         <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7704,13 +7717,13 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
@@ -7719,16 +7732,16 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7736,7 +7749,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7744,10 +7757,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7756,20 +7769,18 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7818,13 +7829,13 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
@@ -7833,24 +7844,24 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7861,7 +7872,7 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7873,20 +7884,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>396</v>
+        <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7910,13 +7917,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7934,13 +7941,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -7949,16 +7956,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7966,7 +7973,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7989,16 +7996,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>296</v>
+        <v>395</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8048,7 +8055,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8063,24 +8070,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8091,7 +8098,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8103,18 +8110,20 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8162,13 +8171,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8177,16 +8186,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8194,7 +8203,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8205,7 +8214,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8217,15 +8226,17 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8274,31 +8285,31 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>420</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8306,7 +8317,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8317,7 +8328,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8329,15 +8340,17 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>416</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>243</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8386,25 +8399,25 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>226</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>227</v>
+        <v>421</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8418,7 +8431,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8429,7 +8442,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8441,13 +8454,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8486,35 +8499,37 @@
         <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>232</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>425</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8528,11 +8543,9 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8541,7 +8554,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8553,13 +8566,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>425</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>427</v>
+        <v>230</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8610,25 +8623,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8642,11 +8655,9 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B59" t="s" s="2">
         <v>428</v>
       </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8667,13 +8678,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>429</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>430</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>133</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8712,19 +8723,17 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8733,7 +8742,7 @@
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>137</v>
@@ -8756,10 +8765,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -8781,13 +8790,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8838,7 +8847,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8870,11 +8879,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="C61" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8887,26 +8898,22 @@
         <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8954,7 +8961,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>364</v>
+        <v>237</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8963,7 +8970,7 @@
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>137</v>
@@ -8972,7 +8979,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8986,9 +8993,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8997,7 +9006,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -9009,13 +9018,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>438</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9066,25 +9075,25 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>437</v>
+        <v>237</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9102,37 +9111,39 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>368</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9156,13 +9167,13 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9180,31 +9191,31 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>447</v>
+        <v>129</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9212,7 +9223,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9238,10 +9249,10 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>243</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9292,7 +9303,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>226</v>
+        <v>442</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9304,13 +9315,13 @@
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>227</v>
+        <v>445</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9324,18 +9335,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9347,16 +9358,16 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>229</v>
+        <v>447</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>230</v>
+        <v>448</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9382,55 +9393,55 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>232</v>
+        <v>446</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>227</v>
+        <v>452</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9438,11 +9449,9 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9451,7 +9460,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9463,13 +9472,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>452</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>453</v>
+        <v>229</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>454</v>
+        <v>230</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9520,25 +9529,25 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9556,7 +9565,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9572,23 +9581,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K67" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9624,19 +9631,19 @@
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9648,19 +9655,19 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9668,9 +9675,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9679,7 +9688,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9688,23 +9697,19 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>457</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>285</v>
+        <v>458</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9752,31 +9757,31 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9795,7 +9800,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9804,10 +9809,10 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>461</v>
@@ -9816,9 +9821,11 @@
         <v>462</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9842,13 +9849,13 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9866,13 +9873,13 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>460</v>
+        <v>244</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
@@ -9884,13 +9891,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>465</v>
+        <v>245</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>466</v>
+        <v>246</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9898,7 +9905,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9918,19 +9925,23 @@
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9978,7 +9989,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9990,19 +10001,19 @@
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10010,18 +10021,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10033,16 +10044,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>229</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>230</v>
+        <v>467</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10068,55 +10079,55 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>232</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10124,11 +10135,9 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10137,7 +10146,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10149,13 +10158,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>470</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>471</v>
+        <v>229</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>472</v>
+        <v>230</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10206,25 +10215,25 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10242,7 +10251,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10258,23 +10267,21 @@
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K73" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="L73" t="s" s="2">
-        <v>457</v>
+        <v>235</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10310,19 +10317,19 @@
         <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10334,19 +10341,19 @@
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10354,9 +10361,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10365,7 +10374,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10374,23 +10383,19 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>475</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>285</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10438,31 +10443,31 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10470,7 +10475,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10481,7 +10486,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10490,21 +10495,23 @@
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10528,13 +10535,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10552,13 +10559,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>244</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -10570,13 +10577,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>481</v>
+        <v>245</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>482</v>
+        <v>246</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10584,7 +10591,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10604,19 +10611,23 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10664,7 +10675,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10676,19 +10687,19 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10696,18 +10707,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10719,16 +10730,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>229</v>
+        <v>481</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>230</v>
+        <v>482</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>163</v>
+        <v>483</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10754,55 +10765,55 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>232</v>
+        <v>480</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>227</v>
+        <v>486</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10810,11 +10821,9 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10823,7 +10832,7 @@
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10835,13 +10844,13 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>486</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>487</v>
+        <v>229</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>488</v>
+        <v>230</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10892,25 +10901,25 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10928,7 +10937,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10944,23 +10953,21 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K79" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="L79" t="s" s="2">
-        <v>457</v>
+        <v>235</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10996,19 +11003,19 @@
         <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11020,19 +11027,19 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11040,9 +11047,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11051,7 +11060,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -11060,23 +11069,19 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>491</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>285</v>
+        <v>492</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11124,31 +11129,31 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11156,7 +11161,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11167,7 +11172,7 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
@@ -11176,21 +11181,23 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>492</v>
+        <v>239</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11238,13 +11245,13 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>491</v>
+        <v>244</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
@@ -11256,13 +11263,13 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>496</v>
+        <v>245</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>497</v>
+        <v>246</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11270,7 +11277,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11290,21 +11297,23 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>499</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>500</v>
+        <v>288</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>501</v>
+        <v>289</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11352,7 +11361,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>498</v>
+        <v>292</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11370,13 +11379,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>503</v>
+        <v>293</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>504</v>
+        <v>294</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11384,7 +11393,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11407,15 +11416,17 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>88</v>
+        <v>497</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>243</v>
+        <v>498</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11464,7 +11475,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>226</v>
+        <v>496</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11476,19 +11487,19 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>227</v>
+        <v>501</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11496,18 +11507,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11519,16 +11530,16 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>131</v>
+        <v>504</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>229</v>
+        <v>505</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>230</v>
+        <v>506</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>163</v>
+        <v>507</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11566,43 +11577,43 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>232</v>
+        <v>503</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>227</v>
+        <v>508</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11610,11 +11621,9 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11623,7 +11632,7 @@
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11635,13 +11644,13 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>508</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>509</v>
+        <v>229</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>510</v>
+        <v>230</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11692,25 +11701,25 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11728,7 +11737,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11747,16 +11756,16 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>512</v>
+        <v>131</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>513</v>
+        <v>234</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>514</v>
+        <v>235</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>515</v>
+        <v>163</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11794,19 +11803,19 @@
         <v>77</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>511</v>
+        <v>237</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11818,21 +11827,249 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -2012,37 +2012,37 @@
     <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.07421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -1634,7 +1634,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity {SimpleQuantity}</t>
+Quantity</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1655,6 +1655,13 @@
     <t>RXA-12-Administered Per (Time Unit)</t>
   </si>
   <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.rate[x].id</t>
   </si>
   <si>
@@ -1672,6 +1679,62 @@
   </si>
   <si>
     <t>投与速度コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Numerator value</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>.numerator</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator</t>
+  </si>
+  <si>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
+  </si>
+  <si>
+    <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>.denominator</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t>JP-Coreでは未使用</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -2000,7 +2063,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11577,16 +11640,14 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>503</v>
@@ -11621,9 +11682,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11644,15 +11707,17 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>511</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>229</v>
+        <v>505</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11701,7 +11766,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>231</v>
+        <v>503</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11713,19 +11778,19 @@
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>232</v>
+        <v>508</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11733,18 +11798,18 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
@@ -11756,17 +11821,15 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11803,31 +11866,31 @@
         <v>77</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
@@ -11847,13 +11910,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11872,15 +11933,17 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>513</v>
+        <v>131</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>514</v>
+        <v>234</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -11917,16 +11980,16 @@
         <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE87" t="s" s="2">
         <v>237</v>
@@ -11947,7 +12010,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11961,9 +12024,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11984,17 +12049,15 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="K88" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12043,7 +12106,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>516</v>
+        <v>237</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12055,21 +12118,475 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1132,7 +1132,7 @@
 投与が行われた（または「notGiven」属性がtrueの場合は行われなかった）特定の日時または時間間隔。錠剤を飲み込むなど、多くの管理では、dateTimeの使用がより適切である。</t>
   </si>
   <si>
-    <t>【JP-CORE】
+    <t xml:space="preserve">
 投与実施日時であり、JP Coreでは必須である。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -500,7 +500,7 @@
 依頼医を記述した Practitioner  リソースへの参照。</t>
   </si>
   <si>
-    <t>UncategorizedComment</t>
+    <t>uncategorizedComment</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_UncategorizedComment}
@@ -1391,7 +1391,7 @@
     <t>MedicationAdministration.dosage.extension</t>
   </si>
   <si>
-    <t>Line</t>
+    <t>line</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
@@ -1404,7 +1404,7 @@
     <t>指示ラインを格納する拡張</t>
   </si>
   <si>
-    <t>LineComment</t>
+    <t>lineComment</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_Dosage_LineComment}
@@ -1417,7 +1417,7 @@
     <t>ラインコメントを格納するための拡張</t>
   </si>
   <si>
-    <t>DosageComment</t>
+    <t>dosageComment</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_Dosage_DosageComment}
@@ -1481,7 +1481,7 @@
     <t>MedicationAdministration.dosage.site.extension</t>
   </si>
   <si>
-    <t>SiteComment</t>
+    <t>siteComment</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageSite_SiteComment}
@@ -1537,7 +1537,7 @@
     <t>MedicationAdministration.dosage.route.extension</t>
   </si>
   <si>
-    <t>RouteComment</t>
+    <t>routeComment</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRoute_RouteComment}
@@ -1588,7 +1588,7 @@
     <t>MedicationAdministration.dosage.method.extension</t>
   </si>
   <si>
-    <t>MethodComment</t>
+    <t>methodComment</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageMethod_MethodComment}
@@ -1668,7 +1668,7 @@
     <t>MedicationAdministration.dosage.rate[x].extension</t>
   </si>
   <si>
-    <t>RateComment</t>
+    <t>rateComment</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRate_RateComment}
@@ -1718,7 +1718,7 @@
     <t>rateQuantity</t>
   </si>
   <si>
-    <t>JP-Coreでは未使用</t>
+    <t>JP Coreでは未使用</t>
   </si>
   <si>
     <t>The comparator is not used on a SimpleQuantity</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -442,7 +442,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>RequestDepartment</t>
+    <t>requestDepartment</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_RequestDepartment}
@@ -459,7 +459,7 @@
 </t>
   </si>
   <si>
-    <t>RequestAuthoredOn</t>
+    <t>requestAuthoredOn</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_RequestAuthoredOn}
@@ -472,7 +472,7 @@
     <t>依頼日時を格納するための拡張</t>
   </si>
   <si>
-    <t>Location</t>
+    <t>location</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_Location}
@@ -486,7 +486,7 @@
 実施場所を記述した  Locationリソースへの参照。</t>
   </si>
   <si>
-    <t>Requester</t>
+    <t>requester</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_Requester}
@@ -780,8 +780,8 @@
 コード集で定義された医薬品コードへの情報</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-【JP-CORE】</t>
+    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
+</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1013,7 +1013,7 @@
     <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
 The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).
 参照のターゲットの予想されるタイプ。 Reference.typeとReference.referenceの両方が入力され、Reference.referenceがFHIR URLである場合、両方が一貫している必要がある。
-タイプは、この参照が参照するタイプであるリソース定義の正規URLです。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可されます（また、論理モデルの参照でのみ使用でき、リソースでは使用できません）。</t>
+タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
   </si>
   <si>
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
@@ -1068,7 +1068,7 @@
   </si>
   <si>
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.
-これは通常、参照されるリソースのResource.textと同じではありません。目的は、参照されているものを特定することであり、完全に説明することではありません。</t>
+これは通常、参照されるリソースのResource.textと同じではない。目的は、参照されているものを特定することであり、完全に説明することではない。</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1307,7 +1307,7 @@
   </si>
   <si>
     <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.
-これは、orderまたはinstance-orderのいずれかであるMedicationRequestへの参照。インテントが他の値である場合は、MedicationRequestsを参照しないでください。</t>
+これは、orderまたはinstance-orderのいずれかであるMedicationRequestへの参照。インテントが他の値である場合は、MedicationRequestsを参照しないこと。</t>
   </si>
   <si>
     <t>これは、インテント（意図）がorderまたはinstance-orderのいずれかであるMedicationRequestへの参照である。
@@ -1443,7 +1443,7 @@
  The dosage instructions should reflect the dosage of the medication that was administered.
 フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。
-投与量や用法のこの指示は、実際に投与される薬の投与量や用法を反映する必要があります。</t>
+投与量や用法のこの指示は、実際に投与される薬の投与量や用法を反映する必要がある。</t>
   </si>
   <si>
     <t>.text</t>
@@ -1567,7 +1567,7 @@
   </si>
   <si>
     <t>One of the reasons this attribute is not used often, is that the method is often pre-coordinated with the route and/or form of administration.  This means the codes used in route or form may pre-coordinate the method in the route code or the form code.  The implementation decision about what coding system to use for route or form code will determine how frequently the method code will be populated e.g. if route or form code pre-coordinate method code, then this attribute will not be populated often; if there is no pre-coordination then method code may  be used frequently.
-この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まります。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性があります。</t>
+この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
   </si>
   <si>
     <t>A coded concept describing the technique by which the medicine is administered.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -1996,9 +1996,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -258,11 +258,11 @@
     <t>患者への注射薬剤投与記録</t>
   </si>
   <si>
-    <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>患者が薬を消費したり、投与されたりするイベントについて説明します。これは、タブレットを飲み込むのと同じくらい簡単かもしれませんし、長期にわたる注入かもしれません。関連リソースは、このイベントを認可された処方箋と、患者と医療実務家の特定のEncounterに結び付けます。 / Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -284,13 +284,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -303,16 +303,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -323,13 +323,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -342,19 +342,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -374,13 +374,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -400,13 +400,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -438,8 +438,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>requestDepartment</t>
@@ -520,17 +520,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -550,7 +551,7 @@
 ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバーからサーバーに伝播される間、一定のままである。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -609,7 +610,7 @@
 【JP-CORE】　completed or stopped に限定される。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
@@ -653,7 +654,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+    <t>薬剤管理が否定される理由を示す一連のコード。 / A set of codes indicating the reason why the MedicationAdministration is negated.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
@@ -680,7 +681,7 @@
  (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
   </si>
   <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
+    <t>投与された場所が発生すると予想されるコード化された概念。 / A coded concept describing where the medication administered is expected to occur.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
@@ -696,16 +697,16 @@
 Reference</t>
   </si>
   <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
+    <t>管理されたもの / What was administered</t>
+  </si>
+  <si>
+    <t>投与された薬を特定します。これは、薬物の詳細を表すリソースへのリンクか、既知の薬物のリストから薬を識別するコードを運ぶ単純な属性です。 / Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合は、投薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>管理できる物質または製品を識別するコード。 / Codes identifying substance or product that can be administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -739,10 +740,10 @@
     <t>MedicationAdministration.medication[x].id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -754,10 +755,10 @@
     <t>MedicationAdministration.medication[x].extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -784,7 +785,7 @@
 </t>
   </si>
   <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -805,16 +806,16 @@
     <t>MedicationAdministration.medication[x].coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -829,13 +830,13 @@
     <t>MedicationAdministration.medication[x].coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -850,13 +851,13 @@
     <t>MedicationAdministration.medication[x].coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -871,13 +872,13 @@
     <t>MedicationAdministration.medication[x].coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -896,16 +897,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -920,16 +921,16 @@
     <t>MedicationAdministration.medication[x].text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -994,7 +995,7 @@
 他のリソースが見つかった場合そのいリソース箇所への参照。参照は相対参照である場合がある。その場合、参照はサービスベースURLに相対的であるか、リソースが見つかった場所を解決する絶対URL。参照はバージョン固有である場合とそうでない場合がある。参照がFHIR　RESTfulサーバーを参照していない場合は、バージョン固有であると見なす必要がある。内部フラグメント参照（「＃」で始まる）は、含まれているリソースを参照する。</t>
   </si>
   <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+    <t>絶対URLを使用すると、クラウド/Webコンテキストに適した安定したスケーラブルなアプローチが提供されますが、相対的/論理的な参照を使用すると、閉じたエコシステムの境界を横切る際に使用するのに適した柔軟なアプローチが提供されます。絶対URLは、FHIR Restfulサーバーを指す必要はありませんが、これは好ましいアプローチです。URLが構造 "/[type]/[id]"に適合している場合、参照がFHIR Restfulサーバーへの参照であると想定する必要があります。 / Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
   </si>
   <si>
     <t>Reference.reference</t>
@@ -1016,13 +1017,13 @@
 タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
   </si>
   <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+    <t>この要素は、参照のターゲットのタイプを示すために使用されます。これは、他の要素の中で存在する（またはそうでない）使用される場合があります。場合によっては、ターゲットのタイプは、参照の検査（例：RESTFUL URL）または参照のターゲットを解決することによって決定される場合があります。タイプと参照の両方が提供されている場合、参照は指定したものと同じタイプのリソースに解決するものとします。 / This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+    <t>AAリソース（または、論理モデルの場合、論理モデルのURI）。 / Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1187,10 +1188,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1200,13 +1202,13 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>Type of performance</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in administering the medication.</t>
+    <t>パフォーマンスの種類 / Type of performance</t>
+  </si>
+  <si>
+    <t>投薬投与におけるパフォーマーの関与の種類を区別します。 / Distinguishes the type of involvement of the performer in the medication administration.</t>
+  </si>
+  <si>
+    <t>個人が薬を投与する際に果たした役割を説明するコード。 / A code describing the role an individual played in administering the medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1225,10 +1227,10 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration.</t>
+    <t>投薬を行った人 / Who performed the medication administration</t>
+  </si>
+  <si>
+    <t>投薬投与を誰または何が実行したかを示します。 / Indicates who or what performed the medication administration.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1247,7 +1249,7 @@
 投薬が実施された理由を示すコード</t>
   </si>
   <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
+    <t>薬剤管理が行われた理由を示す一連のコード。 / A set of codes indicating the reason why the MedicationAdministration was made.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1378,8 +1380,8 @@
 投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-mad-1:SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+mad-1:Dosage.DoseまたはDosage.Rate [x]の少なくとも1つがあります。 / SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
   </si>
   <si>
     <t>component-&gt;SubstanceAdministrationEvent</t>
@@ -1463,7 +1465,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -1497,13 +1499,13 @@
     <t>MedicationAdministration.dosage.site.coding</t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.site.text</t>
@@ -1519,7 +1521,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -1570,7 +1572,7 @@
 この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1621,7 +1623,7 @@
 1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
-    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
+    <t>政権が瞬間的でない場合（レートが存在します）、これは単一の管理の期間にわたって投与される総量を伝えるために指定できます。 / If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
   </si>
   <si>
     <t>.doseQuantity</t>
@@ -1688,10 +1690,10 @@
 </t>
   </si>
   <si>
-    <t>Numerator value</t>
-  </si>
-  <si>
-    <t>The value of the numerator.</t>
+    <t>分子値 / Numerator value</t>
+  </si>
+  <si>
+    <t>分子の値。 / The value of the numerator.</t>
   </si>
   <si>
     <t>Ratio.numerator</t>
@@ -1703,10 +1705,10 @@
     <t>MedicationAdministration.dosage.rate[x].denominator</t>
   </si>
   <si>
-    <t>Denominator value</t>
-  </si>
-  <si>
-    <t>The value of the denominator.</t>
+    <t>分母値 / Denominator value</t>
+  </si>
+  <si>
+    <t>分母の値。 / The value of the denominator.</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
@@ -1721,14 +1723,14 @@
     <t>JP Coreでは未使用</t>
   </si>
   <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1751,7 +1753,7 @@
 投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
   </si>
   <si>
-    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+    <t>これには、リクエストのすべてのバージョンの出所が含まれない場合があります。「関連性がある」または重要とみなされるもののみです。これには、この現在のバージョンのリソースに関連する出所を含めてはなりません。（その出所が「関連性のある」変更と見なされる場合、後の更新の一部として追加する必要があります。それまで、_revincludeを使用してこのバージョンを指す出所として直接照会することができます。この要求の歴史的バージョンは、彼らの主題として。 / This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -2093,7 +2095,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="179.01953125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -258,11 +258,11 @@
     <t>患者への注射薬剤投与記録</t>
   </si>
   <si>
-    <t>患者が薬を消費したり、投与されたりするイベントについて説明します。これは、タブレットを飲み込むのと同じくらい簡単かもしれませんし、長期にわたる注入かもしれません。関連リソースは、このイベントを認可された処方箋と、患者と医療実務家の特定のEncounterに結び付けます。 / Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -284,13 +284,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -303,16 +303,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -323,13 +323,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -342,19 +342,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -374,13 +374,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -400,13 +400,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -438,8 +438,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>requestDepartment</t>
@@ -520,18 +520,17 @@
 user content</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -551,7 +550,7 @@
 ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバーからサーバーに伝播される間、一定のままである。</t>
   </si>
   <si>
-    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
+    <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -610,7 +609,7 @@
 【JP-CORE】　completed or stopped に限定される。</t>
   </si>
   <si>
-    <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
@@ -654,7 +653,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>薬剤管理が否定される理由を示す一連のコード。 / A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
@@ -681,7 +680,7 @@
  (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
   </si>
   <si>
-    <t>投与された場所が発生すると予想されるコード化された概念。 / A coded concept describing where the medication administered is expected to occur.</t>
+    <t>A coded concept describing where the medication administered is expected to occur.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
@@ -697,16 +696,16 @@
 Reference</t>
   </si>
   <si>
-    <t>管理されたもの / What was administered</t>
-  </si>
-  <si>
-    <t>投与された薬を特定します。これは、薬物の詳細を表すリソースへのリンクか、既知の薬物のリストから薬を識別するコードを運ぶ単純な属性です。 / Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合は、投薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>管理できる物質または製品を識別するコード。 / Codes identifying substance or product that can be administered.</t>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Codes identifying substance or product that can be administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -740,10 +739,10 @@
     <t>MedicationAdministration.medication[x].id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -755,10 +754,10 @@
     <t>MedicationAdministration.medication[x].extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -785,7 +784,7 @@
 </t>
   </si>
   <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -806,16 +805,16 @@
     <t>MedicationAdministration.medication[x].coding.system</t>
   </si>
   <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -830,13 +829,13 @@
     <t>MedicationAdministration.medication[x].coding.version</t>
   </si>
   <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -851,13 +850,13 @@
     <t>MedicationAdministration.medication[x].coding.code</t>
   </si>
   <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -872,13 +871,13 @@
     <t>MedicationAdministration.medication[x].coding.display</t>
   </si>
   <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -897,16 +896,16 @@
 </t>
   </si>
   <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -921,16 +920,16 @@
     <t>MedicationAdministration.medication[x].text</t>
   </si>
   <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -995,7 +994,7 @@
 他のリソースが見つかった場合そのいリソース箇所への参照。参照は相対参照である場合がある。その場合、参照はサービスベースURLに相対的であるか、リソースが見つかった場所を解決する絶対URL。参照はバージョン固有である場合とそうでない場合がある。参照がFHIR　RESTfulサーバーを参照していない場合は、バージョン固有であると見なす必要がある。内部フラグメント参照（「＃」で始まる）は、含まれているリソースを参照する。</t>
   </si>
   <si>
-    <t>絶対URLを使用すると、クラウド/Webコンテキストに適した安定したスケーラブルなアプローチが提供されますが、相対的/論理的な参照を使用すると、閉じたエコシステムの境界を横切る際に使用するのに適した柔軟なアプローチが提供されます。絶対URLは、FHIR Restfulサーバーを指す必要はありませんが、これは好ましいアプローチです。URLが構造 "/[type]/[id]"に適合している場合、参照がFHIR Restfulサーバーへの参照であると想定する必要があります。 / Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
   </si>
   <si>
     <t>Reference.reference</t>
@@ -1017,13 +1016,13 @@
 タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
   </si>
   <si>
-    <t>この要素は、参照のターゲットのタイプを示すために使用されます。これは、他の要素の中で存在する（またはそうでない）使用される場合があります。場合によっては、ターゲットのタイプは、参照の検査（例：RESTFUL URL）または参照のターゲットを解決することによって決定される場合があります。タイプと参照の両方が提供されている場合、参照は指定したものと同じタイプのリソースに解決するものとします。 / This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>AAリソース（または、論理モデルの場合、論理モデルのURI）。 / Aa resource (or, for logical models, the URI of the logical model).</t>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1188,11 +1187,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1202,13 +1200,13 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>パフォーマンスの種類 / Type of performance</t>
-  </si>
-  <si>
-    <t>投薬投与におけるパフォーマーの関与の種類を区別します。 / Distinguishes the type of involvement of the performer in the medication administration.</t>
-  </si>
-  <si>
-    <t>個人が薬を投与する際に果たした役割を説明するコード。 / A code describing the role an individual played in administering the medication.</t>
+    <t>Type of performance</t>
+  </si>
+  <si>
+    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
+  </si>
+  <si>
+    <t>A code describing the role an individual played in administering the medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1227,10 +1225,10 @@
 </t>
   </si>
   <si>
-    <t>投薬を行った人 / Who performed the medication administration</t>
-  </si>
-  <si>
-    <t>投薬投与を誰または何が実行したかを示します。 / Indicates who or what performed the medication administration.</t>
+    <t>Who performed the medication administration</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the medication administration.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1249,7 +1247,7 @@
 投薬が実施された理由を示すコード</t>
   </si>
   <si>
-    <t>薬剤管理が行われた理由を示す一連のコード。 / A set of codes indicating the reason why the MedicationAdministration was made.</t>
+    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1380,8 +1378,8 @@
 投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-mad-1:Dosage.DoseまたはDosage.Rate [x]の少なくとも1つがあります。 / SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+mad-1:SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
   </si>
   <si>
     <t>component-&gt;SubstanceAdministrationEvent</t>
@@ -1465,7 +1463,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -1499,13 +1497,13 @@
     <t>MedicationAdministration.dosage.site.coding</t>
   </si>
   <si>
-    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.site.text</t>
@@ -1521,7 +1519,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -1572,7 +1570,7 @@
 この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
   </si>
   <si>
-    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1623,7 +1621,7 @@
 1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
-    <t>政権が瞬間的でない場合（レートが存在します）、これは単一の管理の期間にわたって投与される総量を伝えるために指定できます。 / If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
+    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
   </si>
   <si>
     <t>.doseQuantity</t>
@@ -1690,10 +1688,10 @@
 </t>
   </si>
   <si>
-    <t>分子値 / Numerator value</t>
-  </si>
-  <si>
-    <t>分子の値。 / The value of the numerator.</t>
+    <t>Numerator value</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
   </si>
   <si>
     <t>Ratio.numerator</t>
@@ -1705,10 +1703,10 @@
     <t>MedicationAdministration.dosage.rate[x].denominator</t>
   </si>
   <si>
-    <t>分母値 / Denominator value</t>
-  </si>
-  <si>
-    <t>分母の値。 / The value of the denominator.</t>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
@@ -1723,14 +1721,14 @@
     <t>JP Coreでは未使用</t>
   </si>
   <si>
-    <t>コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1753,7 +1751,7 @@
 投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
   </si>
   <si>
-    <t>これには、リクエストのすべてのバージョンの出所が含まれない場合があります。「関連性がある」または重要とみなされるもののみです。これには、この現在のバージョンのリソースに関連する出所を含めてはなりません。（その出所が「関連性のある」変更と見なされる場合、後の更新の一部として追加する必要があります。それまで、_revincludeを使用してこのバージョンを指す出所として直接照会することができます。この要求の歴史的バージョンは、彼らの主題として。 / This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -2095,7 +2093,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="179.01953125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -606,7 +606,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-CORE】　completed or stopped に限定される。</t>
+【JP-Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -962,7 +962,7 @@
 投与を受ける患者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -618,7 +618,7 @@
     <t>患者への投与状況</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -606,7 +606,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-Core仕様】　completed or stopped に限定される。</t>
+【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -1628,6 +1628,137 @@
   </si>
   <si>
     <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -2061,7 +2192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2094,7 +2225,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -11591,17 +11722,15 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>504</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>505</v>
+        <v>229</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11638,17 +11767,19 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB84" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>503</v>
+        <v>231</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11660,19 +11791,19 @@
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>508</v>
+        <v>232</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11680,20 +11811,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11705,16 +11834,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>511</v>
+        <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>505</v>
+        <v>234</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>506</v>
+        <v>235</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>507</v>
+        <v>163</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11752,43 +11881,43 @@
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>503</v>
+        <v>237</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>508</v>
+        <v>232</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11796,7 +11925,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11816,19 +11945,23 @@
         <v>77</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>88</v>
+        <v>506</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>229</v>
+        <v>507</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11876,7 +12009,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>231</v>
+        <v>511</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11888,19 +12021,19 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>232</v>
+        <v>512</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11908,45 +12041,47 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>234</v>
+        <v>515</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11966,55 +12101,55 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>237</v>
+        <v>521</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>232</v>
+        <v>522</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12022,11 +12157,9 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12035,7 +12168,7 @@
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -12044,19 +12177,21 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>515</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12104,31 +12239,31 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>237</v>
+        <v>528</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12136,7 +12271,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12159,16 +12294,18 @@
         <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>519</v>
+        <v>100</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12216,7 +12353,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12225,7 +12362,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>77</v>
+        <v>536</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12234,13 +12371,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12248,7 +12385,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12271,16 +12408,20 @@
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>519</v>
+        <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12304,13 +12445,11 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>77</v>
+        <v>543</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12328,7 +12467,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12346,13 +12485,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12360,11 +12499,9 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
         <v>77</v>
       </c>
@@ -12385,16 +12522,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12432,19 +12569,17 @@
         <v>77</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB91" s="2"/>
       <c r="AC91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12453,22 +12588,22 @@
         <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>533</v>
+        <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12476,9 +12611,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B92" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="C92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12487,7 +12624,7 @@
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>77</v>
@@ -12499,16 +12636,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12558,13 +12695,13 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>77</v>
@@ -12576,15 +12713,809 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>77</v>
+        <v>552</v>
       </c>
       <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="586">
   <si>
     <t>Property</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
@@ -4813,7 +4816,7 @@
         <v>227</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4863,7 +4866,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4889,10 +4892,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4943,7 +4946,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4961,7 +4964,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4975,7 +4978,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5001,10 +5004,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>163</v>
@@ -5048,7 +5051,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5057,7 +5060,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5075,7 +5078,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5089,7 +5092,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5112,19 +5115,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5173,7 +5176,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5191,13 +5194,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5205,7 +5208,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5231,10 +5234,10 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5285,7 +5288,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5303,7 +5306,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5317,7 +5320,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5343,10 +5346,10 @@
         <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>163</v>
@@ -5390,7 +5393,7 @@
         <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
@@ -5399,7 +5402,7 @@
         <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5417,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5431,7 +5434,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5457,16 +5460,16 @@
         <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5515,7 +5518,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5533,13 +5536,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5547,7 +5550,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5573,13 +5576,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5629,7 +5632,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5647,13 +5650,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5661,7 +5664,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5687,14 +5690,14 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5743,7 +5746,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5761,13 +5764,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5801,14 +5804,14 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5857,7 +5860,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5875,13 +5878,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5889,7 +5892,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5912,19 +5915,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5973,7 +5976,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5991,13 +5994,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -6005,7 +6008,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6031,16 +6034,16 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6089,7 +6092,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6107,13 +6110,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6124,7 +6127,7 @@
         <v>213</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -6146,7 +6149,7 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>215</v>
@@ -6237,7 +6240,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6260,16 +6263,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6319,7 +6322,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>86</v>
@@ -6334,16 +6337,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6351,7 +6354,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6377,10 +6380,10 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6431,7 +6434,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6449,7 +6452,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6463,7 +6466,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6489,10 +6492,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>163</v>
@@ -6536,7 +6539,7 @@
         <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
@@ -6545,7 +6548,7 @@
         <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6563,7 +6566,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6603,13 +6606,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6659,7 +6662,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6668,7 +6671,7 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6691,7 +6694,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6717,13 +6720,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6749,13 +6752,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6773,7 +6776,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6805,7 +6808,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6831,13 +6834,13 @@
         <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6887,7 +6890,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6905,7 +6908,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6919,7 +6922,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6945,13 +6948,13 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7001,7 +7004,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7033,7 +7036,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7056,16 +7059,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7115,7 +7118,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7130,16 +7133,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7170,16 +7173,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7229,7 +7232,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7247,10 +7250,10 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7261,7 +7264,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7284,16 +7287,16 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7343,7 +7346,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>86</v>
@@ -7358,16 +7361,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7375,7 +7378,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7398,13 +7401,13 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7455,7 +7458,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7470,16 +7473,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7487,7 +7490,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7513,10 +7516,10 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7567,7 +7570,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7585,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7599,7 +7602,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7625,10 +7628,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>163</v>
@@ -7681,7 +7684,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7699,7 +7702,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7713,11 +7716,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7739,10 +7742,10 @@
         <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>163</v>
@@ -7797,7 +7800,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7829,7 +7832,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7855,10 +7858,10 @@
         <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7888,10 +7891,10 @@
         <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7909,7 +7912,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7924,10 +7927,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7941,7 +7944,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7964,13 +7967,13 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8021,7 +8024,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>86</v>
@@ -8036,10 +8039,10 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8053,7 +8056,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8079,10 +8082,10 @@
         <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8112,10 +8115,10 @@
         <v>201</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8133,7 +8136,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8148,16 +8151,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8165,7 +8168,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8188,16 +8191,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8247,7 +8250,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8262,24 +8265,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8302,19 +8305,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8363,7 +8366,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8378,16 +8381,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8395,7 +8398,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8418,16 +8421,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8477,7 +8480,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8495,13 +8498,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8509,7 +8512,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8532,16 +8535,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8591,7 +8594,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8606,10 +8609,10 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8623,7 +8626,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8646,13 +8649,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8703,7 +8706,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8715,13 +8718,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8735,7 +8738,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8761,10 +8764,10 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8815,7 +8818,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8833,7 +8836,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8847,7 +8850,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8925,7 +8928,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8957,10 +8960,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -8982,13 +8985,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9039,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9071,10 +9074,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9096,13 +9099,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9153,7 +9156,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9185,10 +9188,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9210,13 +9213,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9267,7 +9270,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9299,11 +9302,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9325,10 +9328,10 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>163</v>
@@ -9383,7 +9386,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9415,7 +9418,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9441,10 +9444,10 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9495,7 +9498,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9513,7 +9516,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9527,7 +9530,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9553,13 +9556,13 @@
         <v>197</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9588,10 +9591,10 @@
         <v>201</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9609,7 +9612,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9627,13 +9630,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9641,7 +9644,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9667,10 +9670,10 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9721,7 +9724,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9739,7 +9742,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9753,7 +9756,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9779,10 +9782,10 @@
         <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>163</v>
@@ -9826,7 +9829,7 @@
         <v>134</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
@@ -9835,7 +9838,7 @@
         <v>135</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9853,7 +9856,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9867,10 +9870,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -9892,13 +9895,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9949,7 +9952,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9981,7 +9984,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10004,19 +10007,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10065,7 +10068,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10083,13 +10086,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10097,7 +10100,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10123,16 +10126,16 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10181,7 +10184,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10199,13 +10202,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10213,7 +10216,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10239,10 +10242,10 @@
         <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>200</v>
@@ -10274,10 +10277,10 @@
         <v>201</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10295,7 +10298,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10313,13 +10316,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10327,7 +10330,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10353,10 +10356,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10407,7 +10410,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10425,7 +10428,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10439,7 +10442,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10465,10 +10468,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>163</v>
@@ -10512,7 +10515,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -10521,7 +10524,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10539,7 +10542,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10553,10 +10556,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>77</v>
@@ -10578,13 +10581,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10635,7 +10638,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10667,7 +10670,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10690,19 +10693,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10751,7 +10754,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10769,13 +10772,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10783,7 +10786,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10809,16 +10812,16 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10867,7 +10870,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10885,13 +10888,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10899,7 +10902,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10925,13 +10928,13 @@
         <v>197</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10960,10 +10963,10 @@
         <v>201</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10981,7 +10984,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10999,13 +11002,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11013,7 +11016,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11039,10 +11042,10 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11093,7 +11096,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11111,7 +11114,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11125,7 +11128,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11151,10 +11154,10 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>163</v>
@@ -11198,7 +11201,7 @@
         <v>134</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
@@ -11207,7 +11210,7 @@
         <v>135</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11225,7 +11228,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11239,10 +11242,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11264,13 +11267,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11321,7 +11324,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11353,7 +11356,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11376,19 +11379,19 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11437,7 +11440,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11455,13 +11458,13 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11469,7 +11472,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11495,16 +11498,16 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11553,7 +11556,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11571,13 +11574,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11585,7 +11588,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11608,16 +11611,16 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11667,7 +11670,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11685,13 +11688,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11699,7 +11702,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11725,10 +11728,10 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11779,7 +11782,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11797,7 +11800,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11811,7 +11814,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11837,10 +11840,10 @@
         <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>163</v>
@@ -11884,7 +11887,7 @@
         <v>134</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
@@ -11893,7 +11896,7 @@
         <v>135</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11911,7 +11914,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11925,7 +11928,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11948,19 +11951,19 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12009,7 +12012,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12027,13 +12030,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12041,7 +12044,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12067,20 +12070,20 @@
         <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
@@ -12104,10 +12107,10 @@
         <v>189</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12125,7 +12128,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12143,13 +12146,13 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12157,7 +12160,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12183,14 +12186,14 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12239,7 +12242,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12257,13 +12260,13 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12271,7 +12274,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12297,14 +12300,14 @@
         <v>100</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12353,7 +12356,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12362,7 +12365,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12371,13 +12374,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12385,7 +12388,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12411,16 +12414,16 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12449,7 +12452,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12467,7 +12470,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12485,13 +12488,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12499,7 +12502,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12522,16 +12525,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12579,7 +12582,7 @@
         <v>221</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12597,13 +12600,13 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12611,10 +12614,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>77</v>
@@ -12636,16 +12639,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12695,7 +12698,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12713,13 +12716,13 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12727,7 +12730,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12753,10 +12756,10 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12807,7 +12810,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12825,7 +12828,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12839,7 +12842,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12865,10 +12868,10 @@
         <v>131</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>163</v>
@@ -12912,7 +12915,7 @@
         <v>134</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>77</v>
@@ -12921,7 +12924,7 @@
         <v>135</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -12939,7 +12942,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12953,10 +12956,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>77</v>
@@ -12978,13 +12981,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13035,7 +13038,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13067,7 +13070,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13090,13 +13093,13 @@
         <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13147,7 +13150,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13165,7 +13168,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13179,7 +13182,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13202,13 +13205,13 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13259,7 +13262,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13277,7 +13280,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13291,10 +13294,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>77</v>
@@ -13316,16 +13319,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13375,7 +13378,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13387,19 +13390,19 @@
         <v>142</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>77</v>
@@ -13407,7 +13410,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13430,16 +13433,16 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13489,7 +13492,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13507,7 +13510,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="587">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -740,6 +740,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4889,13 +4893,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4946,7 +4950,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4964,7 +4968,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4978,7 +4982,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5004,10 +5008,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>163</v>
@@ -5051,7 +5055,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5060,7 +5064,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5078,7 +5082,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5092,7 +5096,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5115,19 +5119,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5176,7 +5180,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5194,13 +5198,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5208,7 +5212,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5231,13 +5235,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5288,7 +5292,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5306,7 +5310,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5320,7 +5324,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5346,10 +5350,10 @@
         <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>163</v>
@@ -5393,7 +5397,7 @@
         <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
@@ -5402,7 +5406,7 @@
         <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5420,7 +5424,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5434,7 +5438,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5460,16 +5464,16 @@
         <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5518,7 +5522,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5536,13 +5540,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5550,7 +5554,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5573,16 +5577,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5632,7 +5636,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5650,13 +5654,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5664,7 +5668,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5690,14 +5694,14 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5746,7 +5750,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5764,13 +5768,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5778,7 +5782,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5801,17 +5805,17 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5860,7 +5864,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5878,13 +5882,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5892,7 +5896,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5915,19 +5919,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5976,7 +5980,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5994,13 +5998,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -6008,7 +6012,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6031,19 +6035,19 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6092,7 +6096,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6110,13 +6114,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6127,7 +6131,7 @@
         <v>213</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -6149,7 +6153,7 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>215</v>
@@ -6240,7 +6244,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6263,16 +6267,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6322,7 +6326,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>86</v>
@@ -6337,16 +6341,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6354,7 +6358,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6377,13 +6381,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6434,7 +6438,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6452,7 +6456,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6466,7 +6470,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6492,10 +6496,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>163</v>
@@ -6539,7 +6543,7 @@
         <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
@@ -6548,7 +6552,7 @@
         <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6566,7 +6570,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6580,7 +6584,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6603,16 +6607,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6662,7 +6666,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6671,7 +6675,7 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6694,7 +6698,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6720,13 +6724,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6752,13 +6756,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6776,7 +6780,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6808,7 +6812,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6834,13 +6838,13 @@
         <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6890,7 +6894,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6908,7 +6912,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6922,7 +6926,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6945,16 +6949,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7004,7 +7008,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7036,7 +7040,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7059,16 +7063,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7118,7 +7122,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7133,16 +7137,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7150,7 +7154,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7173,16 +7177,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7232,7 +7236,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7250,10 +7254,10 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7264,7 +7268,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7287,16 +7291,16 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7346,7 +7350,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>86</v>
@@ -7361,16 +7365,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7378,7 +7382,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7401,13 +7405,13 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7458,7 +7462,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7473,16 +7477,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7490,7 +7494,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7513,13 +7517,13 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7570,7 +7574,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7588,7 +7592,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7602,7 +7606,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7628,10 +7632,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>163</v>
@@ -7684,7 +7688,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7702,7 +7706,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7716,11 +7720,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7742,10 +7746,10 @@
         <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>163</v>
@@ -7800,7 +7804,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7832,7 +7836,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7858,10 +7862,10 @@
         <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7891,10 +7895,10 @@
         <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7912,7 +7916,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7927,10 +7931,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7944,7 +7948,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7967,13 +7971,13 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8024,7 +8028,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>86</v>
@@ -8039,10 +8043,10 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8056,7 +8060,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8082,10 +8086,10 @@
         <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8115,10 +8119,10 @@
         <v>201</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8136,7 +8140,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8151,16 +8155,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8168,7 +8172,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8191,16 +8195,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8250,7 +8254,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8265,24 +8269,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8305,19 +8309,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8366,7 +8370,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8381,16 +8385,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8398,7 +8402,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8421,16 +8425,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8480,7 +8484,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8498,13 +8502,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8512,7 +8516,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8535,16 +8539,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8594,7 +8598,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8609,10 +8613,10 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8626,7 +8630,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8649,13 +8653,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8706,7 +8710,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8718,13 +8722,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8738,7 +8742,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8761,13 +8765,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8818,7 +8822,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8836,7 +8840,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8850,7 +8854,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8928,7 +8932,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8960,10 +8964,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -8985,13 +8989,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9042,7 +9046,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9074,10 +9078,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9099,13 +9103,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9156,7 +9160,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9188,10 +9192,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9213,13 +9217,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9270,7 +9274,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9302,11 +9306,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9328,10 +9332,10 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>163</v>
@@ -9386,7 +9390,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9418,7 +9422,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9441,13 +9445,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9498,7 +9502,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9516,7 +9520,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9530,7 +9534,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9556,13 +9560,13 @@
         <v>197</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9591,10 +9595,10 @@
         <v>201</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9612,7 +9616,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9630,13 +9634,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9644,7 +9648,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9667,13 +9671,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9724,7 +9728,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9742,7 +9746,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9756,7 +9760,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9782,10 +9786,10 @@
         <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>163</v>
@@ -9829,7 +9833,7 @@
         <v>134</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
@@ -9838,7 +9842,7 @@
         <v>135</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9856,7 +9860,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9870,10 +9874,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -9895,13 +9899,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9952,7 +9956,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9984,7 +9988,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10007,19 +10011,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10068,7 +10072,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10086,13 +10090,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10100,7 +10104,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10123,19 +10127,19 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10184,7 +10188,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10202,13 +10206,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10216,7 +10220,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10242,10 +10246,10 @@
         <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>200</v>
@@ -10277,10 +10281,10 @@
         <v>201</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10298,7 +10302,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10316,13 +10320,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10330,7 +10334,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10353,13 +10357,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10410,7 +10414,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10428,7 +10432,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10442,7 +10446,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10468,10 +10472,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>163</v>
@@ -10515,7 +10519,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -10524,7 +10528,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10542,7 +10546,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10556,10 +10560,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>77</v>
@@ -10581,13 +10585,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10638,7 +10642,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10670,7 +10674,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10693,19 +10697,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10754,7 +10758,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10772,13 +10776,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10786,7 +10790,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10809,19 +10813,19 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10870,7 +10874,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10888,13 +10892,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10902,7 +10906,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10928,13 +10932,13 @@
         <v>197</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10963,10 +10967,10 @@
         <v>201</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10984,7 +10988,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11002,13 +11006,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11016,7 +11020,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11039,13 +11043,13 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11096,7 +11100,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11114,7 +11118,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11128,7 +11132,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11154,10 +11158,10 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>163</v>
@@ -11201,7 +11205,7 @@
         <v>134</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
@@ -11210,7 +11214,7 @@
         <v>135</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11228,7 +11232,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11242,10 +11246,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11267,13 +11271,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11324,7 +11328,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11356,7 +11360,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11379,19 +11383,19 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11440,7 +11444,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11458,13 +11462,13 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11472,7 +11476,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11495,19 +11499,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11556,7 +11560,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11574,13 +11578,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11588,7 +11592,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11611,16 +11615,16 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11670,7 +11674,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11688,13 +11692,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11702,7 +11706,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11725,13 +11729,13 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11782,7 +11786,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11800,7 +11804,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11814,7 +11818,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11840,10 +11844,10 @@
         <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>163</v>
@@ -11887,7 +11891,7 @@
         <v>134</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
@@ -11896,7 +11900,7 @@
         <v>135</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11914,7 +11918,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11928,7 +11932,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11951,19 +11955,19 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12012,7 +12016,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12030,13 +12034,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12044,7 +12048,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12070,20 +12074,20 @@
         <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
@@ -12107,10 +12111,10 @@
         <v>189</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12128,7 +12132,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12146,13 +12150,13 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12160,7 +12164,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12183,17 +12187,17 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12242,7 +12246,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12260,13 +12264,13 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12274,7 +12278,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12300,14 +12304,14 @@
         <v>100</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12356,7 +12360,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12365,7 +12369,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12374,13 +12378,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12388,7 +12392,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12414,16 +12418,16 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12452,7 +12456,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12470,7 +12474,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12488,13 +12492,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12502,7 +12506,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12525,16 +12529,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12582,7 +12586,7 @@
         <v>221</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12600,13 +12604,13 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12614,10 +12618,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>77</v>
@@ -12639,16 +12643,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12698,7 +12702,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12716,13 +12720,13 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12730,7 +12734,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12753,13 +12757,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12810,7 +12814,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12828,7 +12832,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12842,7 +12846,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12868,10 +12872,10 @@
         <v>131</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>163</v>
@@ -12915,7 +12919,7 @@
         <v>134</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>77</v>
@@ -12924,7 +12928,7 @@
         <v>135</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -12942,7 +12946,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12956,10 +12960,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>77</v>
@@ -12981,13 +12985,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13038,7 +13042,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13070,7 +13074,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13093,13 +13097,13 @@
         <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13150,7 +13154,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13168,7 +13172,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13182,7 +13186,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13205,13 +13209,13 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13262,7 +13266,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13280,7 +13284,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13294,10 +13298,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>77</v>
@@ -13319,16 +13323,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13378,7 +13382,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13390,19 +13394,19 @@
         <v>142</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>77</v>
@@ -13410,7 +13414,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13433,16 +13437,16 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13492,7 +13496,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13510,7 +13514,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="591">
   <si>
     <t>Property</t>
   </si>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministrationBase</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -692,23 +692,26 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t xml:space="preserve">Reference(Medication)
+</t>
+  </si>
+  <si>
+    <t>What medication was supplied　医薬品</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
++なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
++ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -730,224 +733,6 @@
     <t>RXA-5-Administered Code</t>
   </si>
   <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
     <t>medicationReference</t>
   </si>
   <si>
@@ -958,7 +743,7 @@
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -985,106 +770,10 @@
     <t>PID-3-Patient ID List</t>
   </si>
   <si>
-    <t>MedicationAdministration.subject.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL　リテラル参照、相対、内部、または絶対URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.
-他のリソースが見つかった場合そのいリソース箇所への参照。参照は相対参照である場合がある。その場合、参照はサービスベースURLに相対的であるか、リソースが見つかった場所を解決する絶対URL。参照はバージョン固有である場合とそうでない場合がある。参照がFHIR　RESTfulサーバーを参照していない場合は、バージョン固有であると見なす必要がある。内部フラグメント参照（「＃」で始まる）は、含まれているリソースを参照する。</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")　参照リソースのタイプ</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).
-参照のターゲットの予想されるタイプ。 Reference.typeとReference.referenceの両方が入力され、Reference.referenceがFHIR URLである場合、両方が一貫している必要がある。
-タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known　リテラル参照（reference要素）で記述できない場合の論理ID参照</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.
-ターゲットリソースの識別子。これは、他のリソースを直接参照する方法がない場合に使用される。これは、リソースが表すエンティティがFHIRサーバーを介して利用できないため、またはリソースの作成者が既知の識別子を実際の場所に変換する方法がないためである 。 Reference.identifierが実際にFHIRインスタンスとして公開されているものを指している必要はないが、FHIRインスタンスとして公開されることが期待されるビジネス概念を指している必要があり、そのインスタンスは参照で許可されているFHIRリソースタイプとなる。</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).
-参照の代わりに識別子が提供される場合、参照を処理するシステムは、識別子が使用されるビジネスコンテキストを理解している場合にのみ、識別子を参照に解決できる。これはグローバルな場合もあるが（たとえば、国民ID）、そうでない場合もある。このため、参照を操作するために説明されている便利なメカニズム（チェーン、インクルードなど）はどれも不可能であり、サーバーが参照を解決できると期待されるべきではない。サーバーは、識別子ベースの参照をそのまま受け入れ、解決したり、拒否したりする場合がある。CapabilityStatement.rest.resource.referencePolicyを参照。
-識別子とリテラル参照の両方が提供されている場合は、リテラル参照が優先される。リソースを処理するアプリケーションは、識別子がリテラル参照と一致することを確認できるが、確認することは必須ではない。
-論理参照をリテラル参照に変換するアプリケーションは、論理参照を存在させたままにするか、削除するかを選択できる。
-参照は、FHIRリソースとして表現できる可能性のある構造を指すことを目的としているが、実際のFHIRリソースインスタンスとして存在する必要はない。ただし、アプリケーションが参照のターゲットを実際に見つけたい場合を除く。識別子と呼ばれるコンテンツは、参照に許可されるリソースタイプの制限によって暗示される論理的な制約を満たす必要がある。たとえば、タイプがReference（Observation | DiagnosticReport）の場合、薬の処方箋の識別子を送信することは正当ではない。 Reference.identifierのユースケースの1つは、FHIR表現が存在しない状況である（タイプはReference（Any）である）。</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource　リソースの代替テキスト</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.
-リソース参照に加えてリソースを識別するプレーンテキストの説明。</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.
-これは通常、参照されるリソースのResource.textと同じではない。目的は、参照されているものを特定することであり、完全に説明することではない。</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1184,7 +873,32 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1228,7 +942,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1272,7 +986,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common)
 </t>
   </si>
   <si>
@@ -1470,50 +1184,13 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
   </si>
   <si>
     <t>RXR-2 Administration Site / RXR-6 Administration Site Modifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.extension</t>
-  </si>
-  <si>
-    <t>siteComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageSite_SiteComment}
-</t>
-  </si>
-  <si>
-    <t>投与部位コメント</t>
-  </si>
-  <si>
-    <t>投与部位コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.site.text</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.route</t>
@@ -1526,10 +1203,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1542,6 +1216,9 @@
   </si>
   <si>
     <t>MedicationAdministration.dosage.route.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>routeComment</t>
@@ -1560,21 +1237,65 @@
     <t>MedicationAdministration.dosage.route.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route.text</t>
   </si>
   <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
-    <t>How drug was administered　投与方法</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is intended to be or was introduced into or on the body.  This attribute will most often NOT be populated.  It is most commonly used for injections.  For example, Slow Push, Deep IV.
-薬物が体内に導入されることを意図している、または体内に導入された方法を示すコード化された値。ほとんどの場合、この属性は入力されないが、注射では最も一般的に使用される。たとえば、スロープッシュ（ゆっくり注射）、ディープIV（深部静脈注射）。</t>
-  </si>
-  <si>
-    <t>One of the reasons this attribute is not used often, is that the method is often pre-coordinated with the route and/or form of administration.  This means the codes used in route or form may pre-coordinate the method in the route code or the form code.  The implementation decision about what coding system to use for route or form code will determine how frequently the method code will be populated e.g. if route or form code pre-coordinate method code, then this attribute will not be populated often; if there is no pre-coordination then method code may  be used frequently.
-この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
     <t>A coded concept describing the technique by which the medicine is administered.</t>
@@ -1611,13 +1332,186 @@
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>unitDigit1</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
+  </si>
+  <si>
+    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>unitDigit2</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.text</t>
   </si>
   <si>
+    <t>投与⽅法のテキスト表現</t>
+  </si>
+  <si>
+    <t>投与⽅法のテキスト表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
+  </si>
+  <si>
+    <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
+  </si>
+  <si>
+    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
@@ -1628,144 +1522,17 @@
 1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
-    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1796,8 +1563,21 @@
     <t>rateRatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
+  </si>
+  <si>
+    <t>単位時間内での薬剤の容量</t>
+  </si>
+  <si>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x].id</t>
@@ -1822,29 +1602,162 @@
     <t>MedicationAdministration.dosage.rate[x].numerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
+</t>
+  </si>
+  <si>
+    <t>投与量</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>暗示された精度については常に尊重すべきである。貨幣計算では制度に関する独自のルールがある（会計についての標準的な教科書を参照すること）。</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - 値の解釈法</t>
+  </si>
+  <si>
+    <t>実際の値が計測して示された値よりも大きいのか小さいのかなど、値がどのように解釈され、表現されるのかを示している。たとえば、もし、comparatorエレメントが"&lt;"であれば、実際の値は示された値よりも小さい(&lt;)。</t>
+  </si>
+  <si>
+    <t>FHIRの文字列は1MB以上の大きさとなってなはらない(SHALL NOT)。</t>
+  </si>
+  <si>
+    <t>計測法に制限があって値が&lt;5ug/L や &gt;400mg/L として示されるような場合でも値を扱えるようなフレームワークが必要である。</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>投与量の単位</t>
+  </si>
+  <si>
+    <t>投与量の単位。</t>
+  </si>
+  <si>
+    <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.system</t>
+  </si>
+  <si>
+    <t>コード化された単位表現を規定するシステム</t>
+  </si>
+  <si>
+    <t>単位をコード化して表現するシステムについてのID。</t>
+  </si>
+  <si>
+    <t>以下参照。 http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
+    <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].numerator.code</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)されるが、ローカルコード等を利用することも可能とする</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>Numerator value</t>
-  </si>
-  <si>
-    <t>The value of the numerator.</t>
-  </si>
-  <si>
-    <t>Ratio.numerator</t>
-  </si>
-  <si>
-    <t>.numerator</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator</t>
-  </si>
-  <si>
-    <t>Denominator value</t>
-  </si>
-  <si>
-    <t>The value of the denominator.</t>
+    <t>単位時間</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
@@ -1853,10 +1766,77 @@
     <t>.denominator</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.value</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>単位時間の単位</t>
+  </si>
+  <si>
+    <t>単位時間の単位。UCUMを使用する。</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.system</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。固定値。</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].denominator.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
     <t>rateQuantity</t>
   </si>
   <si>
-    <t>JP Coreでは未使用</t>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
   </si>
   <si>
     <t>The comparator is not used on a SimpleQuantity</t>
@@ -1865,14 +1845,40 @@
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>MedicationAdministration.dosage.rate[x].value</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].comparator</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x].code</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -2199,7 +2205,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2208,8 +2214,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2231,8 +2237,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4700,26 +4706,26 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>213</v>
@@ -4737,16 +4743,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4757,14 +4763,14 @@
         <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
@@ -4779,7 +4785,7 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>215</v>
@@ -4814,13 +4820,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4853,16 +4859,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4870,7 +4876,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4878,7 +4884,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>86</v>
@@ -4890,18 +4896,20 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4950,31 +4958,31 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4986,14 +4994,14 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -5005,16 +5013,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5052,43 +5060,43 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -5096,7 +5104,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5104,7 +5112,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>79</v>
@@ -5116,23 +5124,21 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5201,10 +5207,10 @@
         <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5212,7 +5218,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5220,7 +5226,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -5232,18 +5238,20 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5292,10 +5300,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -5304,19 +5312,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5324,11 +5332,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5344,20 +5352,18 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5394,19 +5400,19 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5418,19 +5424,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5438,7 +5444,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5446,7 +5452,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5458,23 +5464,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5522,7 +5524,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5534,19 +5536,19 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5554,18 +5556,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -5574,19 +5576,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5636,31 +5638,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5668,40 +5670,42 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5750,31 +5754,31 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5782,7 +5786,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5790,7 +5794,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5802,21 +5806,19 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5840,13 +5842,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5864,7 +5866,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5879,16 +5881,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5896,7 +5898,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5904,7 +5906,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5919,20 +5921,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5980,10 +5978,10 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5995,16 +5993,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -6012,7 +6010,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6023,7 +6021,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -6032,23 +6030,19 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6072,13 +6066,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -6096,13 +6090,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -6111,16 +6105,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6128,11 +6122,9 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6141,7 +6133,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -6150,19 +6142,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6212,13 +6204,13 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
@@ -6227,24 +6219,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6252,7 +6244,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>86</v>
@@ -6264,21 +6256,23 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6326,10 +6320,10 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -6341,16 +6335,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6358,7 +6352,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6369,7 +6363,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6381,15 +6375,17 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6438,31 +6434,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6470,11 +6466,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6493,16 +6489,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6540,19 +6536,19 @@
         <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6564,13 +6560,13 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6584,7 +6580,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6604,20 +6600,18 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6666,7 +6660,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6675,16 +6669,16 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>335</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>336</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6698,7 +6692,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6718,20 +6712,18 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6756,13 +6748,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6780,7 +6772,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6792,13 +6784,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6812,7 +6804,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6823,7 +6815,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6832,20 +6824,18 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6882,37 +6872,35 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6926,9 +6914,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6937,7 +6927,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6946,20 +6936,18 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -7008,25 +6996,25 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7040,9 +7028,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7051,7 +7041,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -7063,17 +7053,15 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -7122,31 +7110,31 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7154,9 +7142,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7177,17 +7167,15 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7236,7 +7224,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7245,19 +7233,19 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7268,41 +7256,43 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7350,31 +7340,31 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7382,7 +7372,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7393,7 +7383,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7402,16 +7392,16 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7462,13 +7452,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -7477,16 +7467,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7494,7 +7484,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7517,15 +7507,17 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7550,13 +7542,11 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7574,7 +7564,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7586,19 +7576,19 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7606,18 +7596,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7629,16 +7619,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>237</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7664,13 +7654,11 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7688,31 +7676,31 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7720,43 +7708,39 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7804,25 +7788,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7836,18 +7820,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7859,15 +7843,17 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7892,49 +7878,49 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>378</v>
+        <v>270</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7948,18 +7934,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7968,16 +7956,16 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8028,25 +8016,25 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8060,7 +8048,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8080,19 +8068,23 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>197</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8116,13 +8108,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8140,7 +8132,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8155,16 +8147,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8172,7 +8164,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8183,7 +8175,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -8192,21 +8184,23 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8254,13 +8248,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -8269,24 +8263,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8309,19 +8303,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>403</v>
+        <v>197</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8346,13 +8340,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8370,7 +8364,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8385,16 +8379,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8402,7 +8396,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8413,7 +8407,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8425,17 +8419,15 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>412</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8484,31 +8476,31 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>269</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>270</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8516,11 +8508,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8539,16 +8531,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>418</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>272</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
+        <v>163</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8586,19 +8578,19 @@
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>417</v>
+        <v>274</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8610,13 +8602,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>270</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8630,9 +8622,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8641,7 +8635,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8653,13 +8647,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8710,25 +8704,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>424</v>
+        <v>274</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>427</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8742,7 +8736,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8753,7 +8747,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8762,19 +8756,23 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>230</v>
+        <v>377</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>231</v>
+        <v>378</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8810,43 +8808,41 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>233</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>234</v>
+        <v>383</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8854,9 +8850,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8865,7 +8863,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8874,19 +8872,23 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8910,29 +8912,29 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8944,19 +8946,19 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8964,11 +8966,9 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8989,13 +8989,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>432</v>
+        <v>266</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>267</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>268</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9046,25 +9046,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9078,13 +9078,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9103,15 +9101,17 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>436</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>272</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -9148,19 +9148,19 @@
         <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9169,7 +9169,7 @@
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>137</v>
@@ -9178,7 +9178,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9192,20 +9192,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -9214,25 +9212,29 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>440</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>77</v>
@@ -9274,31 +9276,31 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>239</v>
+        <v>423</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9306,43 +9308,41 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9390,31 +9390,31 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>129</v>
+        <v>431</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9442,19 +9442,21 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9502,7 +9504,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9520,13 +9522,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9534,7 +9536,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9554,21 +9556,21 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9592,13 +9594,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9616,7 +9618,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9634,13 +9636,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9648,7 +9650,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9668,19 +9670,23 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>230</v>
+        <v>448</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>231</v>
+        <v>449</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9728,7 +9734,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>233</v>
+        <v>453</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9740,19 +9746,19 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>234</v>
+        <v>454</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9760,18 +9766,20 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="C67" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9780,21 +9788,23 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>236</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>237</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9818,31 +9828,29 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9854,19 +9862,19 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>234</v>
+        <v>383</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9874,11 +9882,9 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9887,7 +9893,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9899,13 +9905,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>459</v>
+        <v>266</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>460</v>
+        <v>267</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>268</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9956,25 +9962,25 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9988,11 +9994,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10008,23 +10014,21 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>463</v>
+        <v>272</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>464</v>
+        <v>273</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10060,19 +10064,19 @@
         <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10084,19 +10088,19 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10104,7 +10108,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10112,7 +10116,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>86</v>
@@ -10127,26 +10131,26 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>290</v>
+        <v>418</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>291</v>
+        <v>419</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>292</v>
+        <v>420</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>293</v>
+        <v>421</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>77</v>
@@ -10188,7 +10192,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10206,13 +10210,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10220,7 +10224,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10240,19 +10244,19 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>200</v>
+        <v>429</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10278,13 +10282,13 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>470</v>
+        <v>77</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10302,7 +10306,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10320,13 +10324,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10334,7 +10338,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10354,19 +10358,21 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>231</v>
+        <v>434</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>232</v>
+        <v>435</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10414,7 +10420,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>233</v>
+        <v>437</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10426,19 +10432,19 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>234</v>
+        <v>438</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10446,18 +10452,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -10466,21 +10472,21 @@
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>236</v>
+        <v>441</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10516,43 +10522,43 @@
         <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>234</v>
+        <v>445</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10560,11 +10566,9 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10573,7 +10577,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10582,19 +10586,23 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10642,31 +10650,31 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>239</v>
+        <v>453</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10674,7 +10682,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10685,7 +10693,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10697,19 +10705,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10758,13 +10766,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>246</v>
+        <v>390</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -10776,13 +10784,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>247</v>
+        <v>391</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>248</v>
+        <v>392</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10790,7 +10798,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10810,23 +10818,21 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>230</v>
+        <v>467</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>290</v>
+        <v>468</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>291</v>
+        <v>469</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10874,7 +10880,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>294</v>
+        <v>466</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10883,22 +10889,22 @@
         <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>471</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>295</v>
+        <v>472</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>296</v>
+        <v>473</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10906,7 +10912,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10929,16 +10935,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>197</v>
+        <v>475</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10964,31 +10970,29 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11006,13 +11010,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11020,9 +11024,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11043,15 +11049,17 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>230</v>
+        <v>482</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>231</v>
+        <v>483</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -11100,7 +11108,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>233</v>
+        <v>474</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11109,22 +11117,22 @@
         <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -11132,18 +11140,18 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -11155,17 +11163,15 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11202,37 +11208,37 @@
         <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11246,13 +11252,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11271,15 +11275,17 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>493</v>
+        <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>494</v>
+        <v>272</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11316,19 +11322,19 @@
         <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11346,7 +11352,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11360,9 +11366,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11380,23 +11388,19 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>241</v>
+        <v>490</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11444,7 +11448,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11456,19 +11460,19 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11476,7 +11480,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11496,23 +11500,21 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>230</v>
+        <v>494</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>290</v>
+        <v>495</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>291</v>
+        <v>495</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11560,7 +11562,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>294</v>
+        <v>497</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11569,22 +11571,22 @@
         <v>86</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>498</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>295</v>
+        <v>472</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>296</v>
+        <v>473</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11592,7 +11594,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11615,17 +11617,15 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>499</v>
+        <v>266</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11674,7 +11674,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>498</v>
+        <v>269</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11686,19 +11686,19 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>503</v>
+        <v>270</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11706,18 +11706,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11729,15 +11729,17 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11774,37 +11776,37 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11818,18 +11820,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11838,21 +11840,23 @@
         <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>131</v>
+        <v>502</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>236</v>
+        <v>495</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>237</v>
+        <v>495</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11888,43 +11892,43 @@
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>239</v>
+        <v>505</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>234</v>
+        <v>506</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11932,7 +11936,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11949,13 +11953,13 @@
         <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>508</v>
+        <v>106</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>509</v>
@@ -11972,7 +11976,9 @@
       <c r="O86" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="Q86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11992,13 +11998,13 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -12016,7 +12022,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12034,13 +12040,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12048,7 +12054,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12059,36 +12065,36 @@
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="N87" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P87" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12108,13 +12114,13 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>522</v>
+        <v>77</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12187,7 +12193,7 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>527</v>
@@ -12195,9 +12201,11 @@
       <c r="L88" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M88" s="2"/>
+      <c r="M88" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="N88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12222,13 +12230,11 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -12246,7 +12252,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12255,7 +12261,7 @@
         <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>98</v>
@@ -12264,13 +12270,13 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12278,7 +12284,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12286,7 +12292,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>86</v>
@@ -12301,17 +12307,19 @@
         <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="N89" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12336,13 +12344,11 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12360,7 +12366,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12369,7 +12375,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>538</v>
+        <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12378,13 +12384,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12392,7 +12398,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12415,20 +12421,16 @@
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>106</v>
+        <v>543</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N90" t="s" s="2">
         <v>544</v>
       </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12452,29 +12454,31 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X90" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12492,13 +12496,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>532</v>
+        <v>77</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12506,7 +12510,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12529,17 +12533,15 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>549</v>
+        <v>266</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>550</v>
+        <v>267</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -12576,17 +12578,19 @@
         <v>77</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB91" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>548</v>
+        <v>269</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12598,19 +12602,19 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>553</v>
+        <v>270</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>554</v>
+        <v>77</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12620,18 +12624,16 @@
       <c r="A92" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="B92" t="s" s="2">
-        <v>555</v>
-      </c>
+      <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>77</v>
@@ -12643,16 +12645,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>556</v>
+        <v>131</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>550</v>
+        <v>272</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>551</v>
+        <v>273</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12690,43 +12692,43 @@
         <v>77</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>553</v>
+        <v>270</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>554</v>
+        <v>77</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12734,7 +12736,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12754,19 +12756,23 @@
         <v>77</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>230</v>
+        <v>502</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>231</v>
+        <v>544</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12814,7 +12820,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>233</v>
+        <v>505</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12826,19 +12832,19 @@
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>234</v>
+        <v>506</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>77</v>
@@ -12846,45 +12852,47 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>236</v>
+        <v>552</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="Q94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12904,55 +12912,55 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>239</v>
+        <v>516</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>234</v>
+        <v>517</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>77</v>
+        <v>518</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>77</v>
@@ -12960,11 +12968,9 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12973,7 +12979,7 @@
         <v>78</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>77</v>
@@ -12982,19 +12988,21 @@
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>560</v>
+        <v>266</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>77</v>
       </c>
@@ -13042,31 +13050,31 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>239</v>
+        <v>523</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>524</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>77</v>
@@ -13074,7 +13082,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13097,16 +13105,18 @@
         <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>564</v>
+        <v>100</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13130,13 +13140,11 @@
         <v>77</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>77</v>
+        <v>563</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>77</v>
@@ -13154,7 +13162,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13163,7 +13171,7 @@
         <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>98</v>
@@ -13172,13 +13180,13 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>77</v>
@@ -13186,7 +13194,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13209,16 +13217,20 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>564</v>
+        <v>106</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13242,13 +13254,11 @@
         <v>77</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>77</v>
+        <v>563</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>77</v>
@@ -13266,7 +13276,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13284,13 +13294,13 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>77</v>
@@ -13298,10 +13308,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>548</v>
+        <v>474</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>77</v>
@@ -13323,16 +13333,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>499</v>
+        <v>569</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13382,7 +13392,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>548</v>
+        <v>474</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13394,19 +13404,19 @@
         <v>142</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>578</v>
+        <v>471</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>579</v>
+        <v>472</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>580</v>
+        <v>473</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>77</v>
@@ -13414,7 +13424,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>581</v>
+        <v>487</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13425,7 +13435,7 @@
         <v>78</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>77</v>
@@ -13437,17 +13447,15 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>582</v>
+        <v>266</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>583</v>
+        <v>267</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>77</v>
@@ -13496,33 +13504,951 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AF99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG99" t="s" s="2">
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F107" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI99" t="s" s="2">
+      <c r="G107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI107" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1128,7 +1128,7 @@
     <t>lineComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_Dosage_LineComment}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_LineComment}
 </t>
   </si>
   <si>
@@ -1141,7 +1141,7 @@
     <t>dosageComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_Dosage_DosageComment}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
     <t>routeComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRoute_RouteComment}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RouteComment}
 </t>
   </si>
   <si>
@@ -1319,7 +1319,7 @@
     <t>methodComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageMethod_MethodComment}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_MethodComment}
 </t>
   </si>
   <si>
@@ -1589,7 +1589,7 @@
     <t>rateComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRate_RateComment}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -569,7 +569,7 @@
   </si>
   <si>
     <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.
-このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダーセット、またはその他の定義。</t>
+このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
   </si>
   <si>
     <t>Event.instantiates</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="497">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1151,6 +1151,19 @@
     <t>用法コメントを格納するための拡張</t>
   </si>
   <si>
+    <t>rateComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
+</t>
+  </si>
+  <si>
+    <t>投与速度コメント</t>
+  </si>
+  <si>
+    <t>投与速度コメントを格納するための拡張</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.modifierExtension</t>
   </si>
   <si>
@@ -1538,8 +1551,8 @@
     <t>MedicationAdministration.dosage.rate[x]</t>
   </si>
   <si>
-    <t>Ratio
-Quantity</t>
+    <t xml:space="preserve">Ratio
+</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1578,307 +1591,6 @@
   </si>
   <si>
     <t>RTO</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].extension</t>
-  </si>
-  <si>
-    <t>rateComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
-</t>
-  </si>
-  <si>
-    <t>投与速度コメント</t>
-  </si>
-  <si>
-    <t>投与速度コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
-</t>
-  </si>
-  <si>
-    <t>投与量</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>Ratio.numerator</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>暗示された精度については常に尊重すべきである。貨幣計算では制度に関する独自のルールがある（会計についての標準的な教科書を参照すること）。</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - 値の解釈法</t>
-  </si>
-  <si>
-    <t>実際の値が計測して示された値よりも大きいのか小さいのかなど、値がどのように解釈され、表現されるのかを示している。たとえば、もし、comparatorエレメントが"&lt;"であれば、実際の値は示された値よりも小さい(&lt;)。</t>
-  </si>
-  <si>
-    <t>FHIRの文字列は1MB以上の大きさとなってなはらない(SHALL NOT)。</t>
-  </si>
-  <si>
-    <t>計測法に制限があって値が&lt;5ug/L や &gt;400mg/L として示されるような場合でも値を扱えるようなフレームワークが必要である。</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.unit</t>
-  </si>
-  <si>
-    <t>投与量の単位</t>
-  </si>
-  <si>
-    <t>投与量の単位。</t>
-  </si>
-  <si>
-    <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.system</t>
-  </si>
-  <si>
-    <t>コード化された単位表現を規定するシステム</t>
-  </si>
-  <si>
-    <t>単位をコード化して表現するシステムについてのID。</t>
-  </si>
-  <si>
-    <t>以下参照。 http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
-    <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].numerator.code</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)されるが、ローカルコード等を利用することも可能とする</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>単位時間</t>
-  </si>
-  <si>
-    <t>Ratio.denominator</t>
-  </si>
-  <si>
-    <t>.denominator</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.value</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.unit</t>
-  </si>
-  <si>
-    <t>単位時間の単位</t>
-  </si>
-  <si>
-    <t>単位時間の単位。UCUMを使用する。</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.system</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。固定値。</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].denominator.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].value</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].comparator</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x].code</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -2205,7 +1917,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN107"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2214,7 +1926,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.16796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -7256,11 +6968,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7273,26 +6987,22 @@
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7340,7 +7050,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7349,7 +7059,7 @@
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>137</v>
@@ -7358,7 +7068,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7372,39 +7082,43 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>277</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7452,25 +7166,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>355</v>
+        <v>129</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7507,7 +7221,7 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>357</v>
@@ -7515,9 +7229,7 @@
       <c r="L47" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7542,11 +7254,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7582,13 +7296,13 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7596,7 +7310,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7622,13 +7336,13 @@
         <v>197</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>200</v>
+        <v>363</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7658,7 +7372,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7676,7 +7390,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7694,13 +7408,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7708,7 +7422,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7731,15 +7445,17 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7764,13 +7480,11 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7788,7 +7502,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>269</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7800,19 +7514,19 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7820,18 +7534,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7843,17 +7557,15 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7890,31 +7602,31 @@
         <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
@@ -7934,13 +7646,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7959,15 +7669,17 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8004,16 +7716,16 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>274</v>
@@ -8034,7 +7746,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8048,9 +7760,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8068,7 +7782,7 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>377</v>
@@ -8079,12 +7793,8 @@
       <c r="L52" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8132,7 +7842,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8144,19 +7854,19 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8164,7 +7874,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8175,7 +7885,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -8187,19 +7897,19 @@
         <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>266</v>
+        <v>381</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8248,13 +7958,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -8266,13 +7976,13 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8280,7 +7990,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8300,22 +8010,22 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8340,13 +8050,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8364,7 +8074,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8382,13 +8092,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8396,7 +8106,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8419,16 +8129,20 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>267</v>
+        <v>398</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8452,13 +8166,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8476,7 +8190,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8488,19 +8202,19 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8508,18 +8222,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8531,17 +8245,15 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8578,31 +8290,31 @@
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
@@ -8622,13 +8334,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8647,15 +8357,17 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>404</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8692,16 +8404,16 @@
         <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>274</v>
@@ -8722,7 +8434,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8736,9 +8448,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8756,23 +8470,19 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8808,17 +8518,19 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8830,19 +8542,19 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8850,11 +8562,9 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8863,7 +8573,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8875,19 +8585,19 @@
         <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8912,29 +8622,29 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8952,13 +8662,13 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8966,9 +8676,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8986,19 +8698,23 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>266</v>
+        <v>381</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>267</v>
+        <v>414</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -9022,13 +8738,11 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -9046,31 +8760,31 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -9078,18 +8792,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -9101,17 +8815,15 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -9148,31 +8860,31 @@
         <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
@@ -9192,18 +8904,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -9212,29 +8924,27 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
+        <v>273</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>77</v>
@@ -9264,43 +8974,43 @@
         <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>423</v>
+        <v>274</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>424</v>
+        <v>270</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9308,7 +9018,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9316,7 +9026,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>86</v>
@@ -9331,24 +9041,26 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>77</v>
@@ -9390,7 +9102,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9408,13 +9120,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9422,7 +9134,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9445,18 +9157,18 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9504,7 +9216,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9522,13 +9234,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9536,7 +9248,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9559,17 +9271,17 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9618,7 +9330,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9636,13 +9348,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9650,7 +9362,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9673,19 +9385,17 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>448</v>
+        <v>266</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9734,7 +9444,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9752,13 +9462,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9766,11 +9476,9 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9791,19 +9499,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>377</v>
+        <v>452</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9828,11 +9536,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y67" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9850,13 +9560,13 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>382</v>
+        <v>457</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
@@ -9868,13 +9578,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>383</v>
+        <v>458</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9882,9 +9592,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9902,19 +9614,23 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>266</v>
+        <v>381</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9938,13 +9654,11 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9962,31 +9676,31 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9994,18 +9708,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -10017,17 +9731,15 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10064,31 +9776,31 @@
         <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
@@ -10108,18 +9820,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -10128,29 +9840,27 @@
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>419</v>
+        <v>273</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>77</v>
@@ -10180,43 +9890,43 @@
         <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>423</v>
+        <v>274</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>424</v>
+        <v>270</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10224,7 +9934,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10232,7 +9942,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>86</v>
@@ -10247,24 +9957,26 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>77</v>
@@ -10306,7 +10018,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10324,13 +10036,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10338,7 +10050,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10361,18 +10073,18 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10420,7 +10132,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10438,13 +10150,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10452,7 +10164,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10475,17 +10187,17 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10534,7 +10246,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10552,13 +10264,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10566,7 +10278,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10589,19 +10301,17 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>448</v>
+        <v>266</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10650,7 +10360,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10668,13 +10378,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10682,7 +10392,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10705,19 +10415,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>266</v>
+        <v>452</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10766,7 +10476,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10784,13 +10494,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10798,7 +10508,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10818,21 +10528,23 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10880,7 +10592,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>466</v>
+        <v>394</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10889,22 +10601,22 @@
         <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>471</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>473</v>
+        <v>396</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10912,7 +10624,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10935,16 +10647,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10982,17 +10694,19 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB77" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11001,22 +10715,22 @@
         <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11024,11 +10738,9 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11049,16 +10761,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11096,19 +10808,17 @@
         <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11117,22 +10827,22 @@
         <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>485</v>
+        <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>129</v>
+        <v>484</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -11140,9 +10850,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
       </c>
@@ -11163,15 +10875,17 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>266</v>
+        <v>486</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>267</v>
+        <v>487</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11220,7 +10934,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>269</v>
+        <v>478</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11229,22 +10943,22 @@
         <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>270</v>
+        <v>490</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11252,11 +10966,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11275,16 +10989,16 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>131</v>
+        <v>492</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>272</v>
+        <v>493</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>273</v>
+        <v>494</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>163</v>
+        <v>495</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11322,19 +11036,19 @@
         <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>274</v>
+        <v>491</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11346,13 +11060,13 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>270</v>
+        <v>496</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11361,3094 +11075,6 @@
         <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="Q86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X88" s="2"/>
-      <c r="Y88" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X89" s="2"/>
-      <c r="Y89" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="Q94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X96" s="2"/>
-      <c r="Y96" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X97" s="2"/>
-      <c r="Y97" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="Q103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN107" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -1551,8 +1551,8 @@
     <t>MedicationAdministration.dosage.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
-</t>
+    <t>Ratio
+Quantity</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1591,6 +1591,19 @@
   </si>
   <si>
     <t>RTO</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>投与速度(量/時間)を指定する</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1917,7 +1930,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10966,9 +10979,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>77</v>
       </c>
@@ -10977,7 +10992,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -10995,10 +11010,10 @@
         <v>493</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11048,33 +11063,147 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI80" t="s" s="2">
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1115,7 +1115,7 @@
     <t>line</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Line}
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t>投与速度(量/時間)を指定する</t>
+    <t>投与速度(流量)を指定する単位は流量を表す単位（e.g. 量/時間)を指定する</t>
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -547,7 +547,7 @@
   </si>
   <si>
     <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバーからサーバーに伝播される間、一定のままである。</t>
+ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -647,7 +647,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>example</t>
@@ -777,12 +777,12 @@
 </t>
   </si>
   <si>
-    <t>Encounter or Episode of Care administered as part of　エンカウンター、または一部として実施されるケアエピソード</t>
+    <t>Encounter or Episode of Care administered as part of　Encounter、または一部として実施されるケアエピソード</t>
   </si>
   <si>
     <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.
 投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。
-受診情報や入院情報を表すエンカウンターへの参照。</t>
+受診情報や入院情報を表すEncounterへの参照。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1080,7 +1080,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。 
-*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
+*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1305,7 +1305,7 @@
     <t>投与方法</t>
   </si>
   <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
   </si>
   <si>
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
@@ -1518,7 +1518,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.dose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1112,6 +1112,19 @@
     <t>MedicationAdministration.dosage.extension</t>
   </si>
   <si>
+    <t>dosageComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
+</t>
+  </si>
+  <si>
+    <t>用法コメント</t>
+  </si>
+  <si>
+    <t>用法コメントを格納するための拡張</t>
+  </si>
+  <si>
     <t>line</t>
   </si>
   <si>
@@ -1136,19 +1149,6 @@
   </si>
   <si>
     <t>ラインコメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>dosageComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
-</t>
-  </si>
-  <si>
-    <t>用法コメント</t>
-  </si>
-  <si>
-    <t>用法コメントを格納するための拡張</t>
   </si>
   <si>
     <t>rateComment</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="513">
   <si>
     <t>Property</t>
   </si>
@@ -1125,6 +1125,19 @@
     <t>用法コメントを格納するための拡張</t>
   </si>
   <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Device}
+</t>
+  </si>
+  <si>
+    <t>投与装置</t>
+  </si>
+  <si>
+    <t>投与装置を格納する拡張</t>
+  </si>
+  <si>
     <t>line</t>
   </si>
   <si>
@@ -1206,6 +1219,80 @@
     <t>RXR-2 Administration Site / RXR-6 Administration Site Modifier</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.site.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.site.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>siteComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_SiteComment}
+</t>
+  </si>
+  <si>
+    <t>投与部位コメント</t>
+  </si>
+  <si>
+    <t>投与部位コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.site.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.site.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.route</t>
   </si>
   <si>
@@ -1231,9 +1318,6 @@
     <t>MedicationAdministration.dosage.route.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>routeComment</t>
   </si>
   <si>
@@ -1250,53 +1334,7 @@
     <t>MedicationAdministration.dosage.route.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>MedicationAdministration.dosage.route.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method</t>
@@ -1930,7 +1968,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7095,11 +7133,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7112,26 +7152,22 @@
         <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7179,7 +7215,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7188,7 +7224,7 @@
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>137</v>
@@ -7197,7 +7233,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7211,39 +7247,43 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7291,25 +7331,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7346,7 +7386,7 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>361</v>
@@ -7354,9 +7394,7 @@
       <c r="L48" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7381,11 +7419,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7421,13 +7461,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7435,7 +7475,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7461,13 +7501,13 @@
         <v>197</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7497,7 +7537,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7515,7 +7555,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7533,13 +7573,13 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7547,7 +7587,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7659,7 +7699,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7732,7 +7772,7 @@
         <v>134</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
@@ -7773,10 +7813,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>77</v>
@@ -7798,13 +7838,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7887,7 +7927,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7910,19 +7950,19 @@
         <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -7971,7 +8011,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7989,13 +8029,13 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8003,7 +8043,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8029,16 +8069,16 @@
         <v>266</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8087,7 +8127,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8105,13 +8145,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8119,7 +8159,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8145,17 +8185,15 @@
         <v>197</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8179,13 +8217,11 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8203,7 +8239,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8221,13 +8257,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8235,7 +8271,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8347,7 +8383,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8420,7 +8456,7 @@
         <v>134</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>77</v>
@@ -8461,10 +8497,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>77</v>
@@ -8486,13 +8522,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8575,7 +8611,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8598,19 +8634,19 @@
         <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8647,17 +8683,19 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8675,13 +8713,13 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8689,11 +8727,9 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8714,19 +8750,19 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>381</v>
+        <v>266</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8751,11 +8787,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8773,13 +8811,13 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
@@ -8791,13 +8829,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8805,7 +8843,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8828,16 +8866,20 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>267</v>
+        <v>410</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8861,13 +8903,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8885,7 +8927,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>269</v>
+        <v>409</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8897,19 +8939,19 @@
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>270</v>
+        <v>415</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8917,18 +8959,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8940,17 +8982,15 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8987,31 +9027,31 @@
         <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
@@ -9031,18 +9071,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9051,29 +9091,27 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>422</v>
+        <v>272</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>423</v>
+        <v>273</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>77</v>
@@ -9103,43 +9141,43 @@
         <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>427</v>
+        <v>274</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>428</v>
+        <v>270</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9147,9 +9185,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9158,7 +9198,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9167,20 +9207,18 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>266</v>
+        <v>420</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9229,31 +9267,31 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>434</v>
+        <v>274</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9261,7 +9299,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9272,7 +9310,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9284,17 +9322,19 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>106</v>
+        <v>379</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9331,25 +9371,23 @@
         <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
@@ -9361,13 +9399,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9375,9 +9413,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="C66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9398,17 +9438,19 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9433,13 +9475,11 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9457,13 +9497,13 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
@@ -9475,13 +9515,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>449</v>
+        <v>385</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9489,7 +9529,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9509,23 +9549,19 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>452</v>
+        <v>266</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>453</v>
+        <v>267</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9573,7 +9609,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>457</v>
+        <v>269</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9585,19 +9621,19 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>458</v>
+        <v>270</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9605,20 +9641,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9627,23 +9661,21 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>381</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>461</v>
+        <v>272</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>462</v>
+        <v>273</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9667,29 +9699,31 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>386</v>
+        <v>274</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9701,19 +9735,19 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>387</v>
+        <v>270</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9721,7 +9755,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9729,7 +9763,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>86</v>
@@ -9741,25 +9775,29 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>267</v>
+        <v>434</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>77</v>
@@ -9801,7 +9839,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>269</v>
+        <v>439</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9813,19 +9851,19 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9833,18 +9871,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9853,19 +9891,19 @@
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>273</v>
+        <v>444</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>163</v>
+        <v>445</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9903,43 +9941,43 @@
         <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>274</v>
+        <v>446</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>270</v>
+        <v>447</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9947,7 +9985,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9955,7 +9993,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>86</v>
@@ -9970,26 +10008,24 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>77</v>
@@ -10031,7 +10067,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10049,13 +10085,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10063,7 +10099,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10089,15 +10125,15 @@
         <v>266</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10145,7 +10181,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10163,13 +10199,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10177,7 +10213,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10200,17 +10236,19 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>106</v>
+        <v>464</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10259,7 +10297,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10277,13 +10315,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10291,9 +10329,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10314,17 +10354,19 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10349,13 +10391,11 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10373,13 +10413,13 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
@@ -10391,13 +10431,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>449</v>
+        <v>385</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10405,7 +10445,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10425,23 +10465,19 @@
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>452</v>
+        <v>266</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>453</v>
+        <v>267</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10489,7 +10525,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>457</v>
+        <v>269</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10501,19 +10537,19 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>458</v>
+        <v>270</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10521,18 +10557,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10541,23 +10577,21 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>466</v>
+        <v>272</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>467</v>
+        <v>273</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10593,43 +10627,43 @@
         <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>394</v>
+        <v>274</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>395</v>
+        <v>270</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10637,7 +10671,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10645,7 +10679,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>86</v>
@@ -10657,27 +10691,29 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>471</v>
+        <v>100</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>77</v>
@@ -10719,7 +10755,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10728,22 +10764,22 @@
         <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>475</v>
+        <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10751,7 +10787,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10771,19 +10807,19 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>479</v>
+        <v>266</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10821,17 +10857,19 @@
         <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB78" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10849,13 +10887,13 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10863,11 +10901,9 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10885,21 +10921,21 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>486</v>
+        <v>106</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10947,7 +10983,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -10956,22 +10992,22 @@
         <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>489</v>
+        <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>129</v>
+        <v>455</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10979,11 +11015,9 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11001,21 +11035,21 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>492</v>
+        <v>266</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11063,7 +11097,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11072,22 +11106,22 @@
         <v>86</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>475</v>
+        <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11095,7 +11129,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11106,7 +11140,7 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
@@ -11115,21 +11149,23 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11177,13 +11213,13 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
@@ -11195,15 +11231,703 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AB84" s="2"/>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="517">
   <si>
     <t>Property</t>
   </si>
@@ -1226,6 +1226,19 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {bodySite}
+</t>
+  </si>
+  <si>
+    <t>Target anatomic location or structure</t>
+  </si>
+  <si>
+    <t>Record details about the anatomical location of a specimen or body part. This resource may be used when a coded concept does not provide the necessary detail needed for the use case.</t>
   </si>
   <si>
     <t>siteComment</t>
@@ -1968,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7927,9 +7940,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7947,7 +7962,7 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>379</v>
@@ -7958,12 +7973,8 @@
       <c r="L53" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8011,7 +8022,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8023,19 +8034,19 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8043,7 +8054,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8054,7 +8065,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8066,19 +8077,19 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8127,13 +8138,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8145,13 +8156,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8159,7 +8170,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8179,21 +8190,23 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8217,11 +8230,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8239,7 +8254,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8257,13 +8272,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8271,7 +8286,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8294,15 +8309,17 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8327,13 +8344,11 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8351,7 +8366,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8363,19 +8378,19 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8383,18 +8398,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8406,17 +8421,15 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8453,31 +8466,31 @@
         <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
@@ -8497,13 +8510,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8522,15 +8533,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>404</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8567,16 +8580,16 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>274</v>
@@ -8597,7 +8610,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8611,9 +8624,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8631,23 +8646,19 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8695,7 +8706,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8707,19 +8718,19 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8727,7 +8738,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8738,7 +8749,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8750,19 +8761,19 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8811,13 +8822,13 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
@@ -8829,13 +8840,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8843,7 +8854,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8863,22 +8874,22 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8903,13 +8914,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8927,7 +8938,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8945,13 +8956,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8959,7 +8970,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8982,16 +8993,20 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>267</v>
+        <v>414</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9015,13 +9030,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9039,7 +9054,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>269</v>
+        <v>413</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9051,19 +9066,19 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>270</v>
+        <v>419</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9071,18 +9086,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9094,17 +9109,15 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9141,31 +9154,31 @@
         <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
@@ -9185,13 +9198,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9210,15 +9221,17 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>420</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>421</v>
+        <v>272</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9255,16 +9268,16 @@
         <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>274</v>
@@ -9285,7 +9298,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9299,9 +9312,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9319,23 +9334,19 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9371,17 +9382,19 @@
         <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AB65" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9393,19 +9406,19 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9413,11 +9426,9 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9426,7 +9437,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9438,19 +9449,19 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9475,29 +9486,29 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="AB66" s="2"/>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9515,13 +9526,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9529,9 +9540,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9549,19 +9562,23 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>267</v>
+        <v>430</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9585,13 +9602,11 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9609,31 +9624,31 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9641,18 +9656,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9664,17 +9679,15 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9711,31 +9724,31 @@
         <v>77</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
@@ -9755,18 +9768,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9775,29 +9788,27 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>434</v>
+        <v>272</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>435</v>
+        <v>273</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>77</v>
@@ -9827,43 +9838,43 @@
         <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>439</v>
+        <v>274</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9871,7 +9882,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9879,7 +9890,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>86</v>
@@ -9894,24 +9905,26 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>77</v>
@@ -9953,7 +9966,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9971,13 +9984,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9985,7 +9998,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10008,18 +10021,18 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10067,7 +10080,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10085,13 +10098,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10099,7 +10112,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10122,17 +10135,17 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10181,7 +10194,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10199,13 +10212,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10213,7 +10226,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10236,19 +10249,17 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>464</v>
+        <v>266</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10297,7 +10308,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10315,13 +10326,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10329,11 +10340,9 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10354,19 +10363,19 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10391,11 +10400,13 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y74" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10413,13 +10424,13 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>384</v>
+        <v>473</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
@@ -10431,13 +10442,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>385</v>
+        <v>474</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10445,9 +10456,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10465,19 +10478,23 @@
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>267</v>
+        <v>477</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10501,13 +10518,11 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10525,31 +10540,31 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10557,18 +10572,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10580,17 +10595,15 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10627,31 +10640,31 @@
         <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
@@ -10671,18 +10684,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10691,29 +10704,27 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>434</v>
+        <v>272</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>435</v>
+        <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>77</v>
@@ -10743,43 +10754,43 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>439</v>
+        <v>274</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10787,7 +10798,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10795,7 +10806,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>86</v>
@@ -10810,24 +10821,26 @@
         <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>77</v>
+        <v>480</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>77</v>
@@ -10869,7 +10882,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10887,13 +10900,13 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10901,7 +10914,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10924,18 +10937,18 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10983,7 +10996,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11001,13 +11014,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11015,7 +11028,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11038,17 +11051,17 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11097,7 +11110,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11115,13 +11128,13 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11129,7 +11142,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11152,19 +11165,17 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>464</v>
+        <v>266</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11213,7 +11224,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11231,13 +11242,13 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11245,7 +11256,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11268,19 +11279,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>266</v>
+        <v>468</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11329,7 +11340,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>392</v>
+        <v>473</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11347,13 +11358,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11361,7 +11372,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11381,21 +11392,23 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11443,7 +11456,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>482</v>
+        <v>396</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11452,22 +11465,22 @@
         <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>487</v>
+        <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>488</v>
+        <v>397</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>489</v>
+        <v>398</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11475,7 +11488,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11498,16 +11511,16 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11545,17 +11558,19 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB84" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11564,22 +11579,22 @@
         <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>491</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11587,11 +11602,9 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11612,16 +11625,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11659,19 +11672,17 @@
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB85" s="2"/>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11680,22 +11691,22 @@
         <v>86</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>501</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>129</v>
+        <v>500</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11703,10 +11714,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>77</v>
@@ -11728,16 +11739,16 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11787,7 +11798,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11799,19 +11810,19 @@
         <v>142</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>489</v>
+        <v>129</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11819,9 +11830,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11830,7 +11843,7 @@
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11848,10 +11861,10 @@
         <v>509</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11901,33 +11914,147 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI87" t="s" s="2">
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN87" t="s" s="2">
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1603,7 +1603,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity</t>
+Quantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1210,7 +1210,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1316,7 +1316,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1415,7 +1415,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding.id</t>
@@ -1551,7 +1551,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -2014,7 +2014,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -543,23 +543,269 @@
 </t>
   </si>
   <si>
-    <t>External identifier 外部識別子</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationAdministration.instantiates</t>
@@ -612,9 +858,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>患者への投与状況</t>
   </si>
   <si>
@@ -634,10 +877,6 @@
   </si>
   <si>
     <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason administration not performed　実施されていない理由</t>
@@ -873,32 +1112,7 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1225,9 +1439,6 @@
     <t>MedicationAdministration.dosage.site.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>bodySite</t>
   </si>
   <si>
@@ -1394,10 +1605,6 @@
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
   </si>
   <si>
     <t>unitDigit1</t>
@@ -1981,7 +2188,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2013,7 +2220,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3754,7 +3961,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>79</v>
@@ -3816,16 +4023,14 @@
         <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>166</v>
@@ -3843,13 +4048,13 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3860,18 +4065,20 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3880,18 +4087,20 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3940,7 +4149,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3955,13 +4164,13 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3983,7 +4192,7 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3992,7 +4201,7 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>180</v>
@@ -4052,22 +4261,22 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>184</v>
@@ -4088,26 +4297,26 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>186</v>
@@ -4116,7 +4325,7 @@
         <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4142,55 +4351,55 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="X19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AF19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4198,7 +4407,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4209,30 +4418,32 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4256,13 +4467,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4280,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4295,16 +4506,16 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4312,7 +4523,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4332,19 +4543,23 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4368,13 +4583,13 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -4392,7 +4607,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4410,13 +4625,13 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4424,7 +4639,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4447,30 +4662,32 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4494,20 +4711,22 @@
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4519,16 +4738,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4536,11 +4755,9 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4561,16 +4778,16 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4584,7 +4801,7 @@
         <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>77</v>
@@ -4620,10 +4837,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4635,16 +4852,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4652,7 +4869,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4660,7 +4877,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>86</v>
@@ -4675,17 +4892,15 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4734,10 +4949,10 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>86</v>
@@ -4749,16 +4964,16 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4766,7 +4981,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4786,19 +5001,19 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4848,7 +5063,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4863,16 +5078,16 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4880,9 +5095,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4903,7 +5120,7 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>245</v>
@@ -4912,7 +5129,7 @@
         <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4962,7 +5179,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4977,13 +5194,13 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4994,7 +5211,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5002,7 +5219,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -5014,20 +5231,18 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5076,10 +5291,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -5088,19 +5303,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5108,11 +5323,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5128,18 +5343,20 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5176,19 +5393,19 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5200,19 +5417,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5220,7 +5437,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5237,22 +5454,26 @@
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5276,13 +5497,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5300,7 +5521,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5312,19 +5533,19 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5332,18 +5553,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -5352,21 +5573,23 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5390,13 +5613,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5414,31 +5637,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5446,55 +5669,55 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5530,31 +5753,31 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5562,7 +5785,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5570,7 +5793,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5582,18 +5805,20 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5606,7 +5831,7 @@
         <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>77</v>
@@ -5618,13 +5843,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5642,7 +5867,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5657,16 +5882,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5674,7 +5899,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5682,7 +5907,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5697,13 +5922,13 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5754,10 +5979,10 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5769,16 +5994,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5786,7 +6011,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5797,7 +6022,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5806,18 +6031,20 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5842,13 +6069,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5866,13 +6093,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5881,16 +6108,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5898,7 +6125,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5918,20 +6145,18 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5980,7 +6205,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5995,24 +6220,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6023,7 +6248,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6032,23 +6257,19 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6096,13 +6317,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -6111,16 +6332,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6128,7 +6349,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6136,31 +6357,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6186,13 +6407,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6210,13 +6431,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6225,16 +6446,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6242,7 +6463,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6265,16 +6486,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6300,13 +6521,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6324,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6339,16 +6560,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6356,7 +6577,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6379,13 +6600,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6412,13 +6633,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6436,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6448,13 +6669,13 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6468,7 +6689,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6476,7 +6697,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>86</v>
@@ -6488,18 +6709,20 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6536,22 +6759,20 @@
         <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>86</v>
@@ -6560,19 +6781,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6580,18 +6801,20 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6600,18 +6823,20 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6648,41 +6873,43 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6690,20 +6917,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6712,18 +6937,20 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6772,31 +6999,31 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6804,11 +7031,9 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6817,7 +7042,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6829,15 +7054,17 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6886,31 +7113,31 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6918,11 +7145,9 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6943,15 +7168,17 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7000,7 +7227,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7009,19 +7236,19 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7032,20 +7259,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -7054,18 +7279,20 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7114,31 +7341,31 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7146,11 +7373,9 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7168,16 +7393,16 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7228,7 +7453,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7237,22 +7462,22 @@
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7260,43 +7485,39 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7344,25 +7565,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7376,18 +7597,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7399,15 +7620,17 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>361</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7456,25 +7679,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7488,41 +7711,43 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7546,11 +7771,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7568,31 +7795,31 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>369</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7600,7 +7827,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7623,13 +7850,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7656,13 +7883,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7680,7 +7907,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7692,13 +7919,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7712,18 +7939,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7732,20 +7959,18 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>272</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7782,37 +8007,37 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7826,11 +8051,9 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7851,13 +8074,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>375</v>
+        <v>201</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7884,13 +8107,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7908,7 +8131,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7920,19 +8143,19 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7940,11 +8163,9 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7965,15 +8186,17 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8022,7 +8245,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>274</v>
+        <v>371</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8034,27 +8257,27 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8065,7 +8288,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8074,22 +8297,22 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8138,13 +8361,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8153,16 +8376,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8170,7 +8393,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8181,7 +8404,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8190,23 +8413,21 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>266</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8254,13 +8475,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -8272,13 +8493,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8286,7 +8507,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8297,7 +8518,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8309,16 +8530,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>197</v>
+        <v>396</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8344,11 +8565,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8366,13 +8589,13 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
@@ -8381,16 +8604,16 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8398,7 +8621,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8421,13 +8644,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>267</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>268</v>
+        <v>404</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8478,7 +8701,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>269</v>
+        <v>402</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8490,13 +8713,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>270</v>
+        <v>406</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8510,18 +8733,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8533,17 +8756,15 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8580,37 +8801,37 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8624,11 +8845,9 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8649,13 +8868,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>133</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8694,19 +8913,17 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8738,9 +8955,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8758,23 +8977,19 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8822,7 +9037,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8831,22 +9046,22 @@
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8854,9 +9069,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8865,7 +9082,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8874,23 +9091,19 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>266</v>
+        <v>414</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8938,31 +9151,31 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8970,9 +9183,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8981,7 +9196,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8993,20 +9208,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>197</v>
+        <v>418</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9030,13 +9241,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9054,31 +9265,31 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>413</v>
+        <v>189</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9086,9 +9297,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9097,7 +9310,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9109,13 +9322,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>266</v>
+        <v>422</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>267</v>
+        <v>423</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>268</v>
+        <v>424</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9166,25 +9379,25 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9198,11 +9411,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="C64" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9221,17 +9436,15 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9268,19 +9481,19 @@
         <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9289,7 +9502,7 @@
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>137</v>
@@ -9298,7 +9511,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9312,13 +9525,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9331,22 +9542,26 @@
         <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>424</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>425</v>
+        <v>347</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9394,7 +9609,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9412,7 +9627,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9426,7 +9641,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9437,7 +9652,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9446,23 +9661,19 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9498,23 +9709,25 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AB66" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
@@ -9526,13 +9739,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9540,11 +9753,9 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9562,23 +9773,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9606,31 +9815,31 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
@@ -9642,13 +9851,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9656,7 +9865,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9679,13 +9888,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9736,7 +9945,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9754,7 +9963,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9768,7 +9977,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9794,10 +10003,10 @@
         <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>163</v>
@@ -9841,7 +10050,7 @@
         <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
@@ -9850,7 +10059,7 @@
         <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9868,7 +10077,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9882,18 +10091,20 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9902,29 +10113,25 @@
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>77</v>
@@ -9966,31 +10173,31 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>443</v>
+        <v>189</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9998,9 +10205,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10009,7 +10218,7 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10018,20 +10227,18 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>266</v>
+        <v>448</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10080,31 +10287,31 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>450</v>
+        <v>189</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10112,7 +10319,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10123,7 +10330,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10135,15 +10342,17 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
         <v>456</v>
       </c>
@@ -10200,7 +10409,7 @@
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
@@ -10249,7 +10458,7 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>461</v>
@@ -10257,9 +10466,11 @@
       <c r="L73" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M73" s="2"/>
+      <c r="M73" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10308,7 +10519,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10326,13 +10537,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10340,7 +10551,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10360,10 +10571,10 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>468</v>
+        <v>201</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>469</v>
@@ -10372,11 +10583,9 @@
         <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10400,13 +10609,11 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10424,7 +10631,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10442,13 +10649,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10456,11 +10663,9 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10478,23 +10683,19 @@
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>477</v>
+        <v>181</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10518,11 +10719,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X75" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y75" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10540,31 +10743,31 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>388</v>
+        <v>183</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10572,18 +10775,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10595,15 +10798,17 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10640,37 +10845,37 @@
         <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10684,11 +10889,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="C77" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10707,17 +10914,15 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>131</v>
+        <v>477</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>272</v>
+        <v>478</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10754,19 +10959,19 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10784,7 +10989,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10798,7 +11003,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10806,10 +11011,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10821,26 +11026,26 @@
         <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>100</v>
+        <v>452</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>77</v>
@@ -10882,13 +11087,13 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
@@ -10900,13 +11105,13 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10914,7 +11119,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10937,18 +11142,20 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10996,7 +11203,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11014,13 +11221,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11028,7 +11235,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11048,20 +11255,22 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11086,13 +11295,13 @@
         <v>77</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>77</v>
@@ -11110,7 +11319,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11128,13 +11337,13 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11142,7 +11351,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11162,21 +11371,19 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>462</v>
+        <v>182</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11224,7 +11431,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11236,19 +11443,19 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>465</v>
+        <v>184</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11256,18 +11463,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
@@ -11276,23 +11483,21 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>469</v>
+        <v>186</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>470</v>
+        <v>187</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11328,43 +11533,43 @@
         <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>473</v>
+        <v>189</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>474</v>
+        <v>184</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11372,9 +11577,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="C83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11383,7 +11590,7 @@
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
@@ -11392,23 +11599,19 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>266</v>
+        <v>493</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11456,31 +11659,31 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11488,7 +11691,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11499,7 +11702,7 @@
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11508,21 +11711,23 @@
         <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11558,43 +11763,41 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>491</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11602,9 +11805,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11622,21 +11827,23 @@
         <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11660,35 +11867,35 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB85" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
@@ -11700,13 +11907,13 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11714,11 +11921,9 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11739,17 +11944,15 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>502</v>
+        <v>180</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11798,7 +12001,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>494</v>
+        <v>183</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11807,22 +12010,22 @@
         <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>506</v>
+        <v>184</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11830,20 +12033,18 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11855,16 +12056,16 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>508</v>
+        <v>131</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>509</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>509</v>
+        <v>187</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>510</v>
+        <v>163</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11902,43 +12103,43 @@
         <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>494</v>
+        <v>189</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>491</v>
+        <v>137</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>492</v>
+        <v>184</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -11946,7 +12147,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11954,10 +12155,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -11966,27 +12167,29 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>512</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>77</v>
+        <v>510</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>77</v>
@@ -12034,7 +12237,7 @@
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>77</v>
@@ -12046,15 +12249,2077 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="M89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X93" s="2"/>
+      <c r="Y93" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AB103" s="2"/>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN106" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1526,7 +1526,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -259,6 +259,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>患者への注射薬剤投与記録</t>
@@ -2547,13 +2551,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2619,10 +2623,10 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>79</v>
@@ -2636,10 +2640,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2650,7 +2654,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2659,19 +2663,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2721,13 +2725,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2753,10 +2757,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2767,7 +2771,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2776,16 +2780,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2836,19 +2840,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2868,10 +2872,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2882,28 +2886,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2953,19 +2957,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2985,10 +2989,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2999,7 +3003,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -3011,16 +3015,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3046,13 +3050,13 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>79</v>
@@ -3070,19 +3074,19 @@
         <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -3102,21 +3106,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -3128,16 +3132,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3187,25 +3191,25 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>79</v>
@@ -3219,14 +3223,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3245,16 +3249,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3304,7 +3308,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3322,7 +3326,7 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -3336,10 +3340,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3362,13 +3366,13 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3407,17 +3411,17 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3429,7 +3433,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3449,13 +3453,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
@@ -3465,7 +3469,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -3477,13 +3481,13 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3534,7 +3538,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3543,10 +3547,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3566,13 +3570,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3582,7 +3586,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3594,13 +3598,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3651,7 +3655,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3660,10 +3664,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3683,13 +3687,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3699,7 +3703,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3711,13 +3715,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3768,7 +3772,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3777,10 +3781,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3800,13 +3804,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3828,13 +3832,13 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3885,7 +3889,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3894,10 +3898,10 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3917,13 +3921,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>79</v>
@@ -3945,13 +3949,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4002,7 +4006,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -4014,7 +4018,7 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -4034,14 +4038,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4054,25 +4058,25 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -4121,7 +4125,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4133,13 +4137,13 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -4153,10 +4157,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4164,7 +4168,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
@@ -4179,16 +4183,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4226,17 +4230,17 @@
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4248,16 +4252,16 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4268,23 +4272,23 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -4296,16 +4300,16 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4355,7 +4359,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4367,16 +4371,16 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4387,10 +4391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4401,7 +4405,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -4413,13 +4417,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4470,13 +4474,13 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -4488,7 +4492,7 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4502,14 +4506,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4528,16 +4532,16 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4575,19 +4579,19 @@
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4599,13 +4603,13 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4619,10 +4623,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4633,31 +4637,31 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4682,13 +4686,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4706,31 +4710,31 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4738,10 +4742,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4752,7 +4756,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4761,22 +4765,22 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4801,13 +4805,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4825,31 +4829,31 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4857,10 +4861,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4868,10 +4872,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4880,35 +4884,35 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>79</v>
@@ -4944,31 +4948,31 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4976,10 +4980,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4987,10 +4991,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4999,19 +5003,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5025,7 +5029,7 @@
         <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>79</v>
@@ -5061,31 +5065,31 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -5093,10 +5097,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5107,7 +5111,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -5116,16 +5120,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5176,31 +5180,31 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5208,10 +5212,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5222,7 +5226,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -5231,19 +5235,19 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5293,31 +5297,31 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5325,13 +5329,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>79</v>
@@ -5353,16 +5357,16 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5412,7 +5416,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5424,16 +5428,16 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5444,10 +5448,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5458,7 +5462,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5470,13 +5474,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5527,13 +5531,13 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
@@ -5545,7 +5549,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5559,14 +5563,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5585,16 +5589,16 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5632,19 +5636,19 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5656,13 +5660,13 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5676,10 +5680,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5690,31 +5694,31 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5739,13 +5743,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5763,31 +5767,31 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5795,10 +5799,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5809,7 +5813,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5818,22 +5822,22 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5858,13 +5862,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5882,31 +5886,31 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5914,10 +5918,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5925,10 +5929,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5937,35 +5941,35 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>79</v>
@@ -6001,31 +6005,31 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -6033,10 +6037,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6044,10 +6048,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -6056,19 +6060,19 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6082,7 +6086,7 @@
         <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>79</v>
@@ -6118,31 +6122,31 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6150,10 +6154,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6164,7 +6168,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -6173,16 +6177,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6233,31 +6237,31 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6265,10 +6269,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6279,7 +6283,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6288,19 +6292,19 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6350,31 +6354,31 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -6382,10 +6386,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6405,16 +6409,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6465,7 +6469,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6477,13 +6481,13 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6497,10 +6501,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6520,16 +6524,16 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6580,7 +6584,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6592,13 +6596,13 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6612,10 +6616,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6623,31 +6627,31 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6673,13 +6677,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6697,31 +6701,31 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6729,10 +6733,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6755,16 +6759,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6790,13 +6794,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6814,7 +6818,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6826,19 +6830,19 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6846,10 +6850,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6860,7 +6864,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6872,13 +6876,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6905,13 +6909,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6929,25 +6933,25 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6961,10 +6965,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6972,10 +6976,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6984,19 +6988,19 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7034,41 +7038,41 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -7076,23 +7080,23 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -7101,19 +7105,19 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7163,31 +7167,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7195,10 +7199,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7206,10 +7210,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7218,19 +7222,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7280,31 +7284,31 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7312,10 +7316,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7326,7 +7330,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7338,16 +7342,16 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7397,31 +7401,31 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7429,10 +7433,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7455,16 +7459,16 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7514,7 +7518,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7526,16 +7530,16 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7546,10 +7550,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7557,10 +7561,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7569,19 +7573,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7631,31 +7635,31 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7663,10 +7667,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7686,16 +7690,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7746,7 +7750,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7758,19 +7762,19 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7778,10 +7782,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7792,7 +7796,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7804,13 +7808,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7861,13 +7865,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7879,7 +7883,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7893,14 +7897,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7919,16 +7923,16 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7978,7 +7982,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7990,13 +7994,13 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -8010,14 +8014,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8030,25 +8034,25 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8097,7 +8101,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8109,13 +8113,13 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8129,10 +8133,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8143,7 +8147,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8155,13 +8159,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8188,13 +8192,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -8212,25 +8216,25 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8244,10 +8248,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8255,10 +8259,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8267,16 +8271,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8327,25 +8331,25 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8359,10 +8363,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8385,13 +8389,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8418,13 +8422,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8442,7 +8446,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8454,19 +8458,19 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8474,10 +8478,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8500,16 +8504,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8559,7 +8563,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8571,30 +8575,30 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8605,7 +8609,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8617,19 +8621,19 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8678,31 +8682,31 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8710,10 +8714,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8736,16 +8740,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8795,7 +8799,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8807,19 +8811,19 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8827,10 +8831,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8853,16 +8857,16 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8912,7 +8916,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8924,13 +8928,13 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8944,10 +8948,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8958,7 +8962,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8970,13 +8974,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9027,25 +9031,25 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -9059,10 +9063,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9073,7 +9077,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9085,13 +9089,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9142,13 +9146,13 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -9160,7 +9164,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -9174,10 +9178,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9200,13 +9204,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9245,17 +9249,17 @@
         <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9267,7 +9271,7 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9287,13 +9291,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="B60" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="C60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>79</v>
@@ -9315,13 +9319,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9372,7 +9376,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9381,10 +9385,10 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9404,13 +9408,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>79</v>
@@ -9432,13 +9436,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9489,7 +9493,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9498,10 +9502,10 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9521,13 +9525,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>79</v>
@@ -9549,13 +9553,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9606,7 +9610,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9615,10 +9619,10 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9638,13 +9642,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>79</v>
@@ -9666,13 +9670,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9723,7 +9727,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9732,10 +9736,10 @@
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9755,13 +9759,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>79</v>
@@ -9783,13 +9787,13 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9840,7 +9844,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9849,10 +9853,10 @@
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9872,14 +9876,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9892,25 +9896,25 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9959,7 +9963,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9971,13 +9975,13 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9991,10 +9995,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10005,7 +10009,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -10017,13 +10021,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10074,25 +10078,25 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -10106,10 +10110,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10120,7 +10124,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -10132,16 +10136,16 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10167,11 +10171,11 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10189,31 +10193,31 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10221,10 +10225,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10235,7 +10239,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10247,13 +10251,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10304,13 +10308,13 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
@@ -10322,7 +10326,7 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10336,14 +10340,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10362,16 +10366,16 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10409,19 +10413,19 @@
         <v>79</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10433,13 +10437,13 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10453,13 +10457,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="B70" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="C70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>79</v>
@@ -10481,13 +10485,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10538,7 +10542,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10550,7 +10554,7 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10570,13 +10574,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>79</v>
@@ -10598,13 +10602,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10655,7 +10659,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10667,7 +10671,7 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10687,10 +10691,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10710,22 +10714,22 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10774,7 +10778,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10786,19 +10790,19 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10806,10 +10810,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10820,7 +10824,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10829,22 +10833,22 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10893,31 +10897,31 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10925,10 +10929,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10939,7 +10943,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10951,16 +10955,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10986,11 +10990,11 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -11008,31 +11012,31 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11040,10 +11044,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11054,7 +11058,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -11066,13 +11070,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11123,13 +11127,13 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
@@ -11141,7 +11145,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11155,14 +11159,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11181,16 +11185,16 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11228,19 +11232,19 @@
         <v>79</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11252,13 +11256,13 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11272,13 +11276,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="B77" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="C77" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>79</v>
@@ -11300,13 +11304,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11357,7 +11361,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11369,7 +11373,7 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11389,10 +11393,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11412,22 +11416,22 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11476,7 +11480,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11488,19 +11492,19 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11508,10 +11512,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11522,7 +11526,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11531,22 +11535,22 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11595,31 +11599,31 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11627,10 +11631,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11641,7 +11645,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11653,19 +11657,19 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11690,13 +11694,13 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11714,31 +11718,31 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11746,10 +11750,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11760,7 +11764,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11772,13 +11776,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11829,13 +11833,13 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
@@ -11847,7 +11851,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11861,14 +11865,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11887,16 +11891,16 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11934,19 +11938,19 @@
         <v>79</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11958,13 +11962,13 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11978,13 +11982,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="B83" t="s" s="2">
-        <v>524</v>
-      </c>
       <c r="C83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>79</v>
@@ -12006,13 +12010,13 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12063,7 +12067,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12075,7 +12079,7 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -12095,10 +12099,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12118,22 +12122,22 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12170,17 +12174,17 @@
         <v>79</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12192,19 +12196,19 @@
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12212,13 +12216,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="B85" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="C85" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>79</v>
@@ -12228,7 +12232,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12237,22 +12241,22 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12277,11 +12281,11 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12299,7 +12303,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12311,19 +12315,19 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12331,10 +12335,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12345,7 +12349,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12357,13 +12361,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12414,13 +12418,13 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
@@ -12432,7 +12436,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12446,14 +12450,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12472,16 +12476,16 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12519,19 +12523,19 @@
         <v>79</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12543,13 +12547,13 @@
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12563,10 +12567,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12574,10 +12578,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12586,29 +12590,29 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>79</v>
@@ -12650,31 +12654,31 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12682,10 +12686,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12696,7 +12700,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12705,19 +12709,19 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12767,31 +12771,31 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12799,10 +12803,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12813,7 +12817,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12822,20 +12826,20 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12884,31 +12888,31 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12916,10 +12920,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12930,7 +12934,7 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -12939,20 +12943,20 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13001,31 +13005,31 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13033,10 +13037,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13047,7 +13051,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -13056,22 +13060,22 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13120,31 +13124,31 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13152,13 +13156,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>79</v>
@@ -13168,7 +13172,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -13177,22 +13181,22 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13217,11 +13221,11 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -13239,7 +13243,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13251,19 +13255,19 @@
         <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13271,10 +13275,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13285,7 +13289,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
@@ -13297,13 +13301,13 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13354,13 +13358,13 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>79</v>
@@ -13372,7 +13376,7 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13386,14 +13390,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13412,16 +13416,16 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13459,19 +13463,19 @@
         <v>79</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13483,13 +13487,13 @@
         <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13503,10 +13507,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13514,10 +13518,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13526,29 +13530,29 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>79</v>
@@ -13590,31 +13594,31 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13622,10 +13626,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13636,7 +13640,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -13645,19 +13649,19 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13707,31 +13711,31 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>79</v>
@@ -13739,10 +13743,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13753,7 +13757,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>79</v>
@@ -13762,20 +13766,20 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -13824,31 +13828,31 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -13856,10 +13860,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13870,7 +13874,7 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>79</v>
@@ -13879,20 +13883,20 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -13941,31 +13945,31 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -13973,10 +13977,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13987,7 +13991,7 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>79</v>
@@ -13996,22 +14000,22 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -14060,31 +14064,31 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14092,10 +14096,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14106,7 +14110,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>79</v>
@@ -14115,22 +14119,22 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>79</v>
@@ -14179,31 +14183,31 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14211,10 +14215,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14225,7 +14229,7 @@
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>79</v>
@@ -14237,16 +14241,16 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14296,31 +14300,31 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>79</v>
@@ -14328,10 +14332,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14342,7 +14346,7 @@
         <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>79</v>
@@ -14354,16 +14358,16 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14401,41 +14405,41 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC103" s="2"/>
       <c r="AD103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>79</v>
@@ -14443,13 +14447,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>79</v>
@@ -14459,7 +14463,7 @@
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>79</v>
@@ -14471,16 +14475,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14530,31 +14534,31 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>79</v>
@@ -14562,13 +14566,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>79</v>
@@ -14578,7 +14582,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>79</v>
@@ -14590,16 +14594,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14649,31 +14653,31 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>79</v>
@@ -14681,10 +14685,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14707,16 +14711,16 @@
         <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14766,7 +14770,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14778,13 +14782,13 @@
         <v>79</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="645">
   <si>
     <t>Property</t>
   </si>
@@ -268,7 +268,7 @@
     <t>患者への注射薬剤投与記録</t>
   </si>
   <si>
-    <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
+    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
   </si>
   <si>
     <t>Event</t>
@@ -290,13 +290,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID</t>
+  </si>
+  <si>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -309,16 +309,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>「リソースに関するメタデータ」</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -329,13 +329,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールセット</t>
+  </si>
+  <si>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -348,19 +348,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
+  </si>
+  <si>
+    <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -380,13 +380,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+  </si>
+  <si>
+    <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -406,13 +406,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -444,8 +444,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:requestDepartment</t>
@@ -468,6 +468,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>MedicationAdministration.extension:requestAuthoredOn</t>
   </si>
   <si>
@@ -541,14 +545,13 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -613,10 +616,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -631,10 +634,13 @@
     <t>MedicationAdministration.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -649,28 +655,32 @@
     <t>MedicationAdministration.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>Role.code or implied by context</t>
@@ -686,22 +696,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -725,10 +735,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -783,10 +793,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -808,13 +818,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -838,7 +848,7 @@
     <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。</t>
   </si>
   <si>
     <t>MedicationAdministration.identifier:requestIdentifier.id</t>
@@ -856,10 +866,10 @@
     <t>MedicationAdministration.identifier:requestIdentifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
@@ -868,13 +878,13 @@
     <t>MedicationAdministration.identifier:requestIdentifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationAdministration.identifier:requestIdentifier.period</t>
@@ -930,7 +940,7 @@
 【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>この要素は修飾子としてラベル付けされています。なぜなら、ステータスには、リソースが現在無効であることを示すコードが含まれているためです。</t>
   </si>
   <si>
     <t>患者への投与状況</t>
@@ -967,7 +977,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+    <t>"医薬品投与が取り消された理由を示すコードのセット"</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
@@ -994,7 +1004,7 @@
  (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
   </si>
   <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
+    <t>薬剤の投与が予想される場所を記述するコード化された概念。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
@@ -1190,7 +1200,19 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1200,11 +1222,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1213,13 +1235,13 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>Type of performance</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in administering the medication.</t>
+    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
+  </si>
+  <si>
+    <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
+  </si>
+  <si>
+    <t>「薬物管理を行った個人の役割を説明するコード」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1238,10 +1260,10 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration.</t>
+    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+  </si>
+  <si>
+    <t>「薬剤投与を行った人物または物品を示す」</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1260,7 +1282,7 @@
 投薬が実施された理由を示すコード</t>
   </si>
   <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
+    <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1391,8 +1413,8 @@
 投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-mad-1:SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+mad-1:「用量、投与回数、投与速度[x] のうち少なくとも1つを有するものとする」と訳すことができます。 {dose.exists() or rate.exists()}</t>
   </si>
   <si>
     <t>component-&gt;SubstanceAdministrationEvent</t>
@@ -1542,10 +1564,10 @@
 </t>
   </si>
   <si>
-    <t>Target anatomic location or structure</t>
-  </si>
-  <si>
-    <t>Record details about the anatomical location of a specimen or body part. This resource may be used when a coded concept does not provide the necessary detail needed for the use case.</t>
+    <t>ターゲットの解剖学的位置または構造</t>
+  </si>
+  <si>
+    <t>標本または身体部位の解剖学的位置に関する詳細を記録します。 このリソースは、コード化された概念がユースケースに必要な詳細を提供しない場合に使用できます。</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.site.extension:siteComment</t>
@@ -1571,16 +1593,16 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1595,16 +1617,16 @@
     <t>MedicationAdministration.dosage.site.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1675,7 +1697,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>「薬剤が投与される方法を記述する暗号化された概念。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1751,16 +1773,16 @@
     <t>MedicationAdministration.dosage.method.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.30</t>
@@ -1781,13 +1803,13 @@
     <t>MedicationAdministration.dosage.method.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1805,13 +1827,13 @@
     <t>MedicationAdministration.dosage.method.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1829,13 +1851,13 @@
     <t>MedicationAdministration.dosage.method.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1857,16 +1879,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1949,8 +1971,8 @@
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1997,11 +2019,11 @@
     <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+    <t>比率データタイプは、関係を数量と共通単位を使用して適切に表現できない場合にのみ、2つの数値の関係を表現するために使用する必要があります。分母値が「1」に固定されていることが知られている場合、比率ではなく数量を使用する必要があります。 / The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
     <t>RTO</t>
@@ -2020,7 +2042,7 @@
     <t>投与速度(流量)を指定する単位は流量を表す単位（e.g. 量/時間)を指定する</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -2037,7 +2059,7 @@
 投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
   </si>
   <si>
-    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+    <t>この要請のすべてのバージョンの起源が含まれているわけではない可能性があります。ただし、「関連性」または重要と見なされるものに限定されます。それに含まれる証跡には、このリソースの現在のバージョンに関連するものは含まれません。 （そのプロバイナンスが「関連性のある」変更である場合、後の更新の一部として追加する必要があります。その時までは、このバージョンを指すプロバイナンスとして直接クエリできます。All Provenancesは、この要求の過去のバージョンを主題として持つ必要があります。</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -2380,7 +2402,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3550,7 +3572,7 @@
         <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3570,13 +3592,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3598,13 +3620,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3667,7 +3689,7 @@
         <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3687,13 +3709,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3715,13 +3737,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3784,7 +3806,7 @@
         <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3804,13 +3826,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3832,13 +3854,13 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3901,7 +3923,7 @@
         <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3921,13 +3943,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>79</v>
@@ -3949,13 +3971,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4038,14 +4060,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4067,16 +4089,16 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -4125,7 +4147,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4157,10 +4179,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4183,16 +4205,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4230,7 +4252,7 @@
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
@@ -4240,7 +4262,7 @@
         <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4255,13 +4277,13 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4272,13 +4294,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>79</v>
@@ -4300,16 +4322,16 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4359,7 +4381,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4374,13 +4396,13 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4391,10 +4413,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4417,13 +4439,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4474,7 +4496,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4492,7 +4514,7 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4506,14 +4528,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4535,13 +4557,13 @@
         <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4582,7 +4604,7 @@
         <v>136</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>79</v>
@@ -4591,7 +4613,7 @@
         <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4603,13 +4625,13 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4623,10 +4645,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4652,16 +4674,16 @@
         <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4686,13 +4708,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4710,7 +4732,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4722,13 +4744,13 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4742,10 +4764,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4768,19 +4790,19 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4805,13 +4827,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4829,7 +4851,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4841,19 +4863,19 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4861,10 +4883,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4890,29 +4912,29 @@
         <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>79</v>
@@ -4948,7 +4970,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4960,19 +4982,19 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4980,10 +5002,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5006,16 +5028,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5029,7 +5051,7 @@
         <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>79</v>
@@ -5065,7 +5087,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5077,19 +5099,19 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -5097,10 +5119,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5123,13 +5145,13 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5180,7 +5202,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5192,19 +5214,19 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5212,10 +5234,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5238,16 +5260,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5297,7 +5319,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5309,19 +5331,19 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5329,13 +5351,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>79</v>
@@ -5357,16 +5379,16 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5416,7 +5438,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5431,13 +5453,13 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5448,10 +5470,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5474,13 +5496,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5531,7 +5553,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5549,7 +5571,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5563,14 +5585,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5592,13 +5614,13 @@
         <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5639,7 +5661,7 @@
         <v>136</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
@@ -5648,7 +5670,7 @@
         <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5660,13 +5682,13 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5680,10 +5702,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5709,16 +5731,16 @@
         <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5743,13 +5765,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5767,7 +5789,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5779,13 +5801,13 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5799,10 +5821,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5825,19 +5847,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5862,13 +5884,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5886,7 +5908,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5898,19 +5920,19 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5918,10 +5940,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5947,29 +5969,29 @@
         <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>79</v>
@@ -6005,7 +6027,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6017,19 +6039,19 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -6037,10 +6059,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6063,16 +6085,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6086,7 +6108,7 @@
         <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>79</v>
@@ -6122,7 +6144,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6134,19 +6156,19 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6154,10 +6176,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6180,13 +6202,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6237,7 +6259,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6249,19 +6271,19 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6269,10 +6291,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6295,16 +6317,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6354,7 +6376,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6366,19 +6388,19 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -6386,10 +6408,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6415,10 +6437,10 @@
         <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6469,7 +6491,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6484,10 +6506,10 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6501,10 +6523,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6527,13 +6549,13 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6584,7 +6606,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6599,10 +6621,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6616,10 +6638,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6645,13 +6667,13 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6677,13 +6699,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6701,7 +6723,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>88</v>
@@ -6716,16 +6738,16 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6733,10 +6755,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6759,16 +6781,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6794,13 +6816,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6818,7 +6840,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6833,16 +6855,16 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6850,10 +6872,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6876,13 +6898,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6912,28 +6934,28 @@
         <v>112</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6951,7 +6973,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6965,10 +6987,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6991,16 +7013,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7038,17 +7060,17 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>88</v>
@@ -7063,16 +7085,16 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -7080,13 +7102,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>79</v>
@@ -7108,16 +7130,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7167,7 +7189,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -7182,16 +7204,16 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7199,10 +7221,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7225,16 +7247,16 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7284,7 +7306,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>88</v>
@@ -7299,16 +7321,16 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7316,10 +7338,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7342,16 +7364,16 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7401,7 +7423,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7416,16 +7438,16 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7433,10 +7455,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7459,16 +7481,16 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7518,7 +7540,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7536,10 +7558,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7550,10 +7572,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7576,16 +7598,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7635,7 +7657,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7650,16 +7672,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7667,10 +7689,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7693,13 +7715,13 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7750,7 +7772,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7765,16 +7787,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7782,10 +7804,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7808,13 +7830,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>190</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>191</v>
+        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7865,7 +7887,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7883,7 +7905,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7897,14 +7919,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7926,13 +7948,13 @@
         <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>196</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>197</v>
+        <v>377</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7982,7 +8004,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8000,7 +8022,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -8014,14 +8036,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8043,16 +8065,16 @@
         <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8101,7 +8123,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8133,10 +8155,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8159,13 +8181,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8192,13 +8214,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -8216,7 +8238,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8231,10 +8253,10 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8248,10 +8270,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8274,13 +8296,13 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8331,7 +8353,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>88</v>
@@ -8346,10 +8368,10 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8363,10 +8385,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8389,13 +8411,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8422,13 +8444,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8446,7 +8468,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8461,16 +8483,16 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8478,10 +8500,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8504,16 +8526,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8563,7 +8585,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8578,27 +8600,27 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8621,19 +8643,19 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8682,7 +8704,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8697,16 +8719,16 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8714,10 +8736,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8740,16 +8762,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8799,7 +8821,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8817,13 +8839,13 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8831,10 +8853,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8857,16 +8879,16 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8916,7 +8938,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8931,10 +8953,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8948,10 +8970,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8974,13 +8996,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9031,7 +9053,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9043,13 +9065,13 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -9063,10 +9085,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9089,13 +9111,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>190</v>
+        <v>373</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>191</v>
+        <v>374</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9146,7 +9168,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9164,7 +9186,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -9178,10 +9200,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9259,7 +9281,7 @@
         <v>137</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9291,13 +9313,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>79</v>
@@ -9319,13 +9341,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9376,7 +9398,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9388,7 +9410,7 @@
         <v>145</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9408,13 +9430,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>79</v>
@@ -9436,13 +9458,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9493,7 +9515,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9505,7 +9527,7 @@
         <v>145</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9525,13 +9547,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>79</v>
@@ -9553,13 +9575,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9610,7 +9632,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9622,7 +9644,7 @@
         <v>145</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9642,13 +9664,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>79</v>
@@ -9670,13 +9692,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9727,7 +9749,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9739,7 +9761,7 @@
         <v>145</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9759,13 +9781,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>79</v>
@@ -9787,13 +9809,13 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9844,7 +9866,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9856,7 +9878,7 @@
         <v>145</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9876,14 +9898,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9905,16 +9927,16 @@
         <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9963,7 +9985,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9995,10 +10017,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10021,13 +10043,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10078,7 +10100,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10096,7 +10118,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -10110,10 +10132,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10136,16 +10158,16 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10175,7 +10197,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10193,7 +10215,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10211,13 +10233,13 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10225,10 +10247,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10251,13 +10273,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10308,7 +10330,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10326,7 +10348,7 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10340,14 +10362,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10369,13 +10391,13 @@
         <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10416,7 +10438,7 @@
         <v>136</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>79</v>
@@ -10425,7 +10447,7 @@
         <v>137</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10437,13 +10459,13 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10457,13 +10479,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>79</v>
@@ -10485,13 +10507,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10542,7 +10564,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10554,7 +10576,7 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10574,13 +10596,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>79</v>
@@ -10602,13 +10624,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10659,7 +10681,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10671,7 +10693,7 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10691,10 +10713,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10717,19 +10739,19 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10778,7 +10800,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10790,19 +10812,19 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10810,10 +10832,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10836,19 +10858,19 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10897,7 +10919,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10909,19 +10931,19 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10929,10 +10951,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10955,16 +10977,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10994,7 +11016,7 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -11012,7 +11034,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11030,13 +11052,13 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11044,10 +11066,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11070,13 +11092,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11127,7 +11149,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11145,7 +11167,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11159,14 +11181,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11188,13 +11210,13 @@
         <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11235,7 +11257,7 @@
         <v>136</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>79</v>
@@ -11244,7 +11266,7 @@
         <v>137</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11256,13 +11278,13 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11276,13 +11298,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>79</v>
@@ -11304,13 +11326,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11361,7 +11383,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11373,7 +11395,7 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11393,10 +11415,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11419,19 +11441,19 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11480,7 +11502,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11492,19 +11514,19 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11512,10 +11534,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11538,19 +11560,19 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11599,7 +11621,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11611,19 +11633,19 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11631,10 +11653,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11657,19 +11679,19 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11694,13 +11716,13 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11718,7 +11740,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11736,13 +11758,13 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11750,10 +11772,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11776,13 +11798,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11833,7 +11855,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11851,7 +11873,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11865,14 +11887,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11894,13 +11916,13 @@
         <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11941,7 +11963,7 @@
         <v>136</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>79</v>
@@ -11950,7 +11972,7 @@
         <v>137</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11962,13 +11984,13 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11982,13 +12004,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>79</v>
@@ -12010,13 +12032,13 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12067,7 +12089,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12079,7 +12101,7 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -12099,10 +12121,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12125,19 +12147,19 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12174,7 +12196,7 @@
         <v>79</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
@@ -12184,7 +12206,7 @@
         <v>137</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12196,19 +12218,19 @@
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12216,13 +12238,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>79</v>
@@ -12244,19 +12266,19 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12285,7 +12307,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12303,7 +12325,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12315,19 +12337,19 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12335,10 +12357,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12361,13 +12383,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12418,7 +12440,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12436,7 +12458,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12450,14 +12472,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12479,13 +12501,13 @@
         <v>133</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12526,7 +12548,7 @@
         <v>136</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>79</v>
@@ -12535,7 +12557,7 @@
         <v>137</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12547,13 +12569,13 @@
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12567,10 +12589,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12596,23 +12618,23 @@
         <v>102</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>79</v>
@@ -12654,7 +12676,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12666,19 +12688,19 @@
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12686,10 +12708,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12712,16 +12734,16 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12771,7 +12793,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12783,19 +12805,19 @@
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12803,10 +12825,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12832,14 +12854,14 @@
         <v>108</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12888,7 +12910,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12900,19 +12922,19 @@
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12920,10 +12942,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12946,17 +12968,17 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13005,7 +13027,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13017,19 +13039,19 @@
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13037,10 +13059,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13063,19 +13085,19 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13124,7 +13146,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13136,19 +13158,19 @@
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13156,13 +13178,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>79</v>
@@ -13184,19 +13206,19 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13225,7 +13247,7 @@
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -13243,7 +13265,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13255,19 +13277,19 @@
         <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13275,10 +13297,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13301,13 +13323,13 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13358,7 +13380,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13376,7 +13398,7 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13390,14 +13412,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13419,13 +13441,13 @@
         <v>133</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13466,7 +13488,7 @@
         <v>136</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>79</v>
@@ -13475,7 +13497,7 @@
         <v>137</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13487,13 +13509,13 @@
         <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13507,10 +13529,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13536,23 +13558,23 @@
         <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>79</v>
@@ -13594,7 +13616,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13606,19 +13628,19 @@
         <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13626,10 +13648,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13652,16 +13674,16 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13711,7 +13733,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13723,19 +13745,19 @@
         <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>79</v>
@@ -13743,10 +13765,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13772,14 +13794,14 @@
         <v>108</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -13828,7 +13850,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13840,19 +13862,19 @@
         <v>79</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -13860,10 +13882,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13886,17 +13908,17 @@
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -13945,7 +13967,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -13957,19 +13979,19 @@
         <v>79</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -13977,10 +13999,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14003,19 +14025,19 @@
         <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -14064,7 +14086,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14076,19 +14098,19 @@
         <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14096,10 +14118,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14122,19 +14144,19 @@
         <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>79</v>
@@ -14183,7 +14205,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14195,19 +14217,19 @@
         <v>79</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14215,10 +14237,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14241,16 +14263,16 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14300,7 +14322,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14312,19 +14334,19 @@
         <v>145</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>79</v>
@@ -14332,10 +14354,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14358,16 +14380,16 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14405,17 +14427,17 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AC103" s="2"/>
       <c r="AD103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14433,13 +14455,13 @@
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>79</v>
@@ -14447,13 +14469,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B104" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="B104" t="s" s="2">
-        <v>613</v>
-      </c>
       <c r="C104" t="s" s="2">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>79</v>
@@ -14475,16 +14497,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14534,7 +14556,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14546,13 +14568,13 @@
         <v>145</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>79</v>
@@ -14566,13 +14588,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>79</v>
@@ -14594,16 +14616,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14653,7 +14675,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14665,19 +14687,19 @@
         <v>145</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>79</v>
@@ -14685,10 +14707,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14711,16 +14733,16 @@
         <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14770,7 +14792,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14788,7 +14810,7 @@
         <v>79</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -1016,7 +1016,7 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
 </t>
   </si>
   <si>
@@ -1038,13 +1038,6 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -1055,16 +1048,6 @@
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]:medicationReference</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1998,6 +1981,13 @@
   <si>
     <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.
 レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>.rateQuantity</t>
@@ -2369,7 +2359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO106"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7060,14 +7050,16 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>319</v>
@@ -7085,16 +7077,16 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -7102,14 +7094,12 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7130,16 +7120,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7189,7 +7179,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -7204,16 +7194,16 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7221,10 +7211,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7232,7 +7222,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -7244,19 +7234,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7306,10 +7296,10 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>88</v>
@@ -7321,16 +7311,16 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7338,10 +7328,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7352,7 +7342,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7364,16 +7354,16 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7423,13 +7413,13 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
@@ -7438,16 +7428,16 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7466,10 +7456,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7478,7 +7468,7 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>351</v>
@@ -7490,7 +7480,7 @@
         <v>353</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7543,10 +7533,10 @@
         <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7555,16 +7545,16 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7572,10 +7562,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7583,10 +7573,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7598,17 +7588,15 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7657,13 +7645,13 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -7672,16 +7660,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7689,10 +7677,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7703,7 +7691,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7712,16 +7700,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7772,31 +7760,31 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>193</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>194</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7804,21 +7792,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7830,15 +7818,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7887,19 +7877,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7919,14 +7909,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7939,24 +7929,26 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -8004,7 +7996,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8022,7 +8014,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -8043,39 +8035,35 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8099,13 +8087,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -8123,25 +8111,25 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>131</v>
+        <v>384</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8155,10 +8143,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8166,7 +8154,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -8178,16 +8166,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>216</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8214,13 +8202,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -8238,10 +8226,10 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
@@ -8253,10 +8241,10 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8270,10 +8258,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8281,10 +8269,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8293,10 +8281,10 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>216</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>392</v>
@@ -8329,13 +8317,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8353,13 +8341,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -8368,16 +8356,16 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8385,10 +8373,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8411,15 +8399,17 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>216</v>
+        <v>400</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8444,31 +8434,31 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8483,27 +8473,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8514,7 +8504,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8526,18 +8516,20 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8585,13 +8577,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8600,27 +8592,27 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8631,7 +8623,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8643,20 +8635,18 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8704,13 +8694,13 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8719,16 +8709,16 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8736,10 +8726,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8762,16 +8752,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>337</v>
+        <v>427</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8821,7 +8811,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8836,16 +8826,16 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8853,10 +8843,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8867,7 +8857,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8879,17 +8869,15 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N56" t="s" s="2">
         <v>432</v>
       </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8938,22 +8926,22 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>434</v>
@@ -8996,13 +8984,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>365</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9053,7 +9041,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>435</v>
+        <v>193</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9065,13 +9053,13 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>439</v>
+        <v>194</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -9085,10 +9073,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9099,7 +9087,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9111,13 +9099,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>134</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9156,37 +9144,35 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -9200,12 +9186,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9226,13 +9214,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>439</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9271,14 +9259,16 @@
         <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>201</v>
@@ -9290,10 +9280,10 @@
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9316,7 +9306,7 @@
         <v>442</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>443</v>
@@ -9433,7 +9423,7 @@
         <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>448</v>
@@ -9550,7 +9540,7 @@
         <v>452</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>453</v>
@@ -9667,7 +9657,7 @@
         <v>457</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>458</v>
@@ -9784,13 +9774,11 @@
         <v>462</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9803,22 +9791,26 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>464</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9866,7 +9858,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9875,16 +9867,16 @@
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9898,46 +9890,42 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>380</v>
+        <v>464</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9985,25 +9973,25 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>131</v>
+        <v>466</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -10017,10 +10005,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10043,15 +10031,17 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10076,13 +10066,11 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10100,7 +10088,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10118,13 +10106,13 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10132,10 +10120,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10158,17 +10146,15 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>473</v>
+        <v>191</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10193,11 +10179,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10215,7 +10203,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>472</v>
+        <v>193</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10227,19 +10215,19 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>477</v>
+        <v>194</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10247,21 +10235,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10273,15 +10261,17 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10318,31 +10308,31 @@
         <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10362,14 +10352,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="D69" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10388,17 +10380,15 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>478</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>197</v>
+        <v>479</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10435,16 +10425,16 @@
         <v>79</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>201</v>
@@ -10465,7 +10455,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10482,7 +10472,7 @@
         <v>481</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>482</v>
@@ -10599,11 +10589,9 @@
         <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10621,19 +10609,23 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10681,7 +10673,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10693,19 +10685,19 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10713,10 +10705,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10727,7 +10719,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10739,19 +10731,19 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10800,13 +10792,13 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
@@ -10818,13 +10810,13 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10832,10 +10824,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10855,23 +10847,21 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10895,13 +10885,11 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -10919,7 +10907,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10931,19 +10919,19 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10951,10 +10939,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10977,17 +10965,15 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>509</v>
+        <v>191</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11012,11 +10998,13 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y74" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z74" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -11034,7 +11022,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11046,19 +11034,19 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>512</v>
+        <v>194</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11066,21 +11054,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -11092,15 +11080,17 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11137,31 +11127,31 @@
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11181,14 +11171,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="D76" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11207,17 +11199,15 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>197</v>
+        <v>514</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11254,16 +11244,16 @@
         <v>79</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>201</v>
@@ -11284,7 +11274,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11301,11 +11291,9 @@
         <v>516</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11323,19 +11311,23 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11383,7 +11375,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11395,19 +11387,19 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11415,10 +11407,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11429,7 +11421,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11441,19 +11433,19 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11502,13 +11494,13 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
@@ -11520,13 +11512,13 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11534,10 +11526,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11557,22 +11549,22 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11597,13 +11589,13 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -11621,7 +11613,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11633,19 +11625,19 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11653,10 +11645,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11679,20 +11671,16 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>524</v>
+        <v>191</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11716,13 +11704,13 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11740,7 +11728,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>523</v>
+        <v>193</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11752,19 +11740,19 @@
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>529</v>
+        <v>194</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11772,21 +11760,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11798,15 +11786,17 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11843,31 +11833,31 @@
         <v>79</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11887,14 +11877,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11913,17 +11905,15 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>133</v>
+        <v>530</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>197</v>
+        <v>531</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11960,16 +11950,16 @@
         <v>79</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>201</v>
@@ -11990,7 +11980,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -12007,11 +11997,9 @@
         <v>533</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>79</v>
       </c>
@@ -12029,19 +12017,23 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>535</v>
+        <v>487</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>536</v>
+        <v>488</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
       </c>
@@ -12077,19 +12069,17 @@
         <v>79</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="AC83" s="2"/>
       <c r="AD83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12101,19 +12091,19 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -12121,12 +12111,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12135,7 +12127,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -12147,19 +12139,19 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12184,29 +12176,29 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AC84" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12224,13 +12216,13 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12238,14 +12230,12 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12263,23 +12253,19 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>541</v>
+        <v>191</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12303,11 +12289,13 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y85" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z85" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12325,31 +12313,31 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>497</v>
+        <v>193</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>498</v>
+        <v>194</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12357,21 +12345,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12383,15 +12371,17 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12428,31 +12418,31 @@
         <v>79</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
@@ -12472,21 +12462,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12495,27 +12485,29 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>197</v>
+        <v>547</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>198</v>
+        <v>548</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>79</v>
@@ -12545,43 +12537,43 @@
         <v>79</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>201</v>
+        <v>552</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>194</v>
+        <v>553</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12589,10 +12581,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12600,7 +12592,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>88</v>
@@ -12615,26 +12607,24 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>79</v>
@@ -12676,7 +12666,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12694,13 +12684,13 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12708,10 +12698,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12734,18 +12724,18 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12793,7 +12783,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12811,13 +12801,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12825,10 +12815,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12851,17 +12841,17 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12910,7 +12900,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12928,13 +12918,13 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12942,10 +12932,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12968,17 +12958,19 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>190</v>
+        <v>581</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O91" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13027,7 +13019,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13045,13 +13037,13 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13059,12 +13051,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="D92" t="s" s="2">
         <v>79</v>
       </c>
@@ -13085,19 +13079,19 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>586</v>
+        <v>487</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13122,13 +13116,11 @@
         <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>79</v>
@@ -13146,13 +13138,13 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>591</v>
+        <v>492</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
@@ -13164,13 +13156,13 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>592</v>
+        <v>493</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>593</v>
+        <v>494</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13181,11 +13173,9 @@
         <v>594</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13203,23 +13193,19 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>596</v>
+        <v>191</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13243,11 +13229,13 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y93" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z93" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -13265,31 +13253,31 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>497</v>
+        <v>193</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>498</v>
+        <v>194</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13297,21 +13285,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
@@ -13323,15 +13311,17 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>79</v>
@@ -13368,31 +13358,31 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -13412,21 +13402,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -13435,27 +13425,29 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>197</v>
+        <v>547</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>198</v>
+        <v>548</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>79</v>
@@ -13485,43 +13477,43 @@
         <v>79</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>201</v>
+        <v>552</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>194</v>
+        <v>553</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13529,10 +13521,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13540,7 +13532,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>88</v>
@@ -13555,26 +13547,24 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>79</v>
@@ -13616,7 +13606,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13634,13 +13624,13 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13648,10 +13638,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13674,18 +13664,18 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13733,7 +13723,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13751,13 +13741,13 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>79</v>
@@ -13765,10 +13755,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13791,17 +13781,17 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -13850,7 +13840,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13868,13 +13858,13 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -13882,10 +13872,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13908,17 +13898,19 @@
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>190</v>
+        <v>581</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O99" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -13967,7 +13959,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -13985,13 +13977,13 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -13999,10 +13991,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14025,19 +14017,19 @@
         <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>586</v>
+        <v>190</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -14086,7 +14078,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>591</v>
+        <v>500</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14104,13 +14096,13 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>592</v>
+        <v>501</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>593</v>
+        <v>502</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14141,23 +14133,21 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>190</v>
+        <v>608</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O101" t="s" s="2">
         <v>611</v>
       </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>79</v>
       </c>
@@ -14205,7 +14195,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>505</v>
+        <v>607</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14214,22 +14204,22 @@
         <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>212</v>
+        <v>612</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>506</v>
+        <v>613</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>507</v>
+        <v>614</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14237,10 +14227,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14263,16 +14253,16 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14310,19 +14300,17 @@
         <v>79</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14331,22 +14319,22 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>617</v>
+        <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>79</v>
@@ -14354,12 +14342,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>79</v>
       </c>
@@ -14380,16 +14370,16 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14427,17 +14417,19 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AC103" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14446,22 +14438,22 @@
         <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>100</v>
+        <v>629</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>626</v>
+        <v>131</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>79</v>
@@ -14469,13 +14461,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>79</v>
@@ -14497,16 +14489,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14556,7 +14548,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14568,19 +14560,19 @@
         <v>145</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>131</v>
+        <v>614</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>79</v>
@@ -14588,14 +14580,12 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>79</v>
       </c>
@@ -14604,7 +14594,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>79</v>
@@ -14616,16 +14606,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14675,150 +14665,33 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>617</v>
+        <v>100</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>619</v>
+        <v>79</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO106" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="587">
   <si>
     <t>Property</t>
   </si>
@@ -621,9 +621,6 @@
     <t>urn:oid:1.2.392.100495.20.3.81</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -646,9 +643,6 @@
   </si>
   <si>
     <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -930,19 +924,14 @@
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
+    <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>
-    <t>Who received medication　投与対象患者</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.
-投与を受ける患者</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+    <t>「誰が薬を受け取りましたか？」(dare ga kusuri o uketorimashita ka?)</t>
+  </si>
+  <si>
+    <t>薬を受け取る人、動物、またはグループ。 (Kusuri wo uketoru hito, doubutsu, matawa guruupu.)</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -960,16 +949,14 @@
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
-    <t>Encounter or Episode of Care administered as part of　Encounter、または一部として実施されるケアエピソード</t>
-  </si>
-  <si>
-    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.
-投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。
-受診情報や入院情報を表すEncounterへの参照。</t>
+    <t>「エピソード・オブ・ケア」は、「エンカウンター」として提供されます。</t>
+  </si>
+  <si>
+    <t>「薬剤投与が行われた患者と医療提供者の間での訪問、入院、またはその他の接触。」</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -991,11 +978,10 @@
 </t>
   </si>
   <si>
-    <t>Additional information to support administration　投与をサポートする追加情報</t>
-  </si>
-  <si>
-    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.
-薬の投与をサポートする追加情報（たとえば、患者の身長や体重）。</t>
+    <t>「管理をサポートするための追加情報」</t>
+  </si>
+  <si>
+    <t>薬の投与を補助する追加情報（例えば、患者の身長や体重）。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
@@ -1008,15 +994,10 @@
 Period</t>
   </si>
   <si>
-    <t>Start and end time of administration　開始時間と終了時間</t>
-  </si>
-  <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.
-投与が行われた（または「notGiven」属性がtrueの場合は行われなかった）特定の日時または時間間隔。錠剤を飲み込むなど、多くの管理では、dateTimeの使用がより適切である。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-投与実施日時であり、JP Coreでは必須である。</t>
+    <t>「管理の開始時刻と終了時刻」(Kanri no kaishi jikoku to shūryō jikoku)</t>
+  </si>
+  <si>
+    <t>「与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。」</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1038,11 +1019,10 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration and what they did　投薬を実施した人</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration and how they were involved.
-投薬およびそれに関与した人</t>
+    <t>「薬剤投与を行ったのは誰で、何をしたのか？」</t>
+  </si>
+  <si>
+    <t>「薬の投与を行った人や物、および彼らがどのように関与したかを示す。」</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -1116,7 +1096,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1135,11 +1115,10 @@
     <t>MedicationAdministration.reasonCode</t>
   </si>
   <si>
-    <t>Reason administration performed　投薬が実施された理由</t>
-  </si>
-  <si>
-    <t>A code indicating why the medication was given.
-投薬が実施された理由を示すコード</t>
+    <t>理由に基づく行政処理 (Riyuu ni motozuku gyousei shori)</t>
+  </si>
+  <si>
+    <t>与えられた薬を説明するコード。</t>
   </si>
   <si>
     <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
@@ -1160,19 +1139,17 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common)
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
 </t>
   </si>
   <si>
-    <t>Condition or observation that supports why the medication was administered　薬が投与された理由を裏付ける状態または観察</t>
-  </si>
-  <si>
-    <t>Condition or observation that supports why the medication was administered.
-薬が投与された理由を裏付ける状態または観察</t>
-  </si>
-  <si>
-    <t>This is a reference to a condition that is the reason for the medication request.  If only a code exists, use reasonCode.
-これは、投薬要求の理由である状態への参照。コードのみが存在する場合は、reasonCodeを使用する。</t>
+    <t>「薬が投与された理由を支持する状態または観察」</t>
+  </si>
+  <si>
+    <t>薬剤が投与された理由を支持する状態または観察。</t>
+  </si>
+  <si>
+    <t>「これは、薬剤依頼の理由となる状態に関する参照です。もしコードしか存在しない場合は、reasonCodeを使用してください。」</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1194,19 +1171,13 @@
 </t>
   </si>
   <si>
-    <t>Request administration performed against　実施された元の投与依頼情報</t>
-  </si>
-  <si>
-    <t>The original request, instruction or authority to perform the administration.
-投与を実行する元になった投与指示や権限への参照情報。</t>
-  </si>
-  <si>
-    <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.
-これは、orderまたはinstance-orderのいずれかであるMedicationRequestへの参照。インテントが他の値である場合は、MedicationRequestsを参照しないこと。</t>
-  </si>
-  <si>
-    <t>これは、インテント（意図）がorderまたはinstance-orderのいずれかであるMedicationRequestへの参照である。
-インテントが他の値である場合は、MedicationRequestsを参照しないこと。</t>
+    <t>"リクエスト管理対象として実行してください。" (Rikuesuto kanri taishou toshite jikkou shite kudasai.)</t>
+  </si>
+  <si>
+    <t>「管理を実行するための元の要求、指示、または権限。」</t>
+  </si>
+  <si>
+    <t>「これは、意図がオーダーまたはインスタンスオーダーであるMedicationRequestへの参照であり、意図が他の値であるMedicationRequestへの参照ではありません。」</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1225,11 +1196,10 @@
 </t>
   </si>
   <si>
-    <t>Device used to administer　投与に使用されるデバイス</t>
-  </si>
-  <si>
-    <t>The device used in administering the medication to the patient.  For example, a particular infusion pump.
-患者に薬を投与する際に使用されるデバイスへの参照。たとえば、特定の輸液ポンプ。</t>
+    <t>「投与するための装置」(touyo suru tame no souchi)</t>
+  </si>
+  <si>
+    <t>患者に薬剤を投与するのに使われる装置。例えば、特定の注入ポンプ。</t>
   </si>
   <si>
     <t>device-&gt;Access  OR device-&gt;AssignedDevice</t>
@@ -1245,16 +1215,10 @@
 </t>
   </si>
   <si>
-    <t>Information about the administration　投与に関する備考情報</t>
-  </si>
-  <si>
-    <t>Extra information about the medication administration that is not conveyed by the other attributes.
-他の属性では伝えられない投薬管理に関する追加情報。</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
-構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。 
-*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
+    <t>「行政に関する情報」(Gyōsei ni kansuru jōhō)</t>
+  </si>
+  <si>
+    <t>「他の属性では伝えられない薬剤投与に関する追加情報」</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1864,36 +1828,10 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
     <t>RXA-12-Administered Per (Time Unit)</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x]:rateRatio</t>
-  </si>
-  <si>
-    <t>rateRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
-</t>
-  </si>
-  <si>
-    <t>単位時間内での薬剤の容量</t>
-  </si>
-  <si>
-    <t>比率データタイプは、関係を数量と共通単位を使用して適切に表現できない場合にのみ、2つの数値の関係を表現するために使用する必要があります。分母値が「1」に固定されていることが知られている場合、比率ではなく数量を使用する必要があります。 / The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]:rateQuantity</t>
@@ -2236,7 +2174,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO104"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2254,7 +2192,7 @@
     <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="193.69921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2262,7 +2200,7 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -2273,7 +2211,7 @@
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -4675,43 +4613,43 @@
         <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4729,13 +4667,13 @@
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4743,10 +4681,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4772,13 +4710,13 @@
         <v>149</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4792,7 +4730,7 @@
         <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>38</v>
@@ -4828,7 +4766,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4846,13 +4784,13 @@
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4860,10 +4798,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4886,13 +4824,13 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4943,7 +4881,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4961,13 +4899,13 @@
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4975,10 +4913,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5001,16 +4939,16 @@
         <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5060,7 +4998,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -5078,13 +5016,13 @@
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>38</v>
@@ -5092,13 +5030,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>38</v>
@@ -5123,13 +5061,13 @@
         <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5211,7 +5149,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>148</v>
@@ -5326,7 +5264,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>155</v>
@@ -5443,7 +5381,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>162</v>
@@ -5562,7 +5500,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>174</v>
@@ -5681,7 +5619,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>186</v>
@@ -5710,10 +5648,10 @@
         <v>61</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>189</v>
@@ -5726,49 +5664,49 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5786,13 +5724,13 @@
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5800,10 +5738,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5829,13 +5767,13 @@
         <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5849,7 +5787,7 @@
         <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>38</v>
@@ -5885,7 +5823,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5903,13 +5841,13 @@
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5917,10 +5855,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5943,13 +5881,13 @@
         <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6000,7 +5938,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -6018,13 +5956,13 @@
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -6032,10 +5970,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6058,16 +5996,16 @@
         <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6117,7 +6055,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -6135,13 +6073,13 @@
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>38</v>
@@ -6149,10 +6087,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6178,10 +6116,10 @@
         <v>61</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6232,7 +6170,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6247,10 +6185,10 @@
         <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -6264,10 +6202,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6290,13 +6228,13 @@
         <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6347,7 +6285,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6362,10 +6300,10 @@
         <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -6379,10 +6317,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6408,13 +6346,13 @@
         <v>67</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6443,10 +6381,10 @@
         <v>167</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
@@ -6464,7 +6402,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>47</v>
@@ -6479,16 +6417,16 @@
         <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -6496,10 +6434,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6525,13 +6463,13 @@
         <v>175</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6557,14 +6495,14 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
       </c>
@@ -6581,7 +6519,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6596,16 +6534,16 @@
         <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6613,10 +6551,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6642,10 +6580,10 @@
         <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6675,10 +6613,10 @@
         <v>71</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -6696,7 +6634,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6714,7 +6652,7 @@
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6728,10 +6666,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6754,16 +6692,16 @@
         <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6813,7 +6751,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>47</v>
@@ -6828,16 +6766,16 @@
         <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6845,10 +6783,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6871,17 +6809,15 @@
         <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>291</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6930,7 +6866,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>47</v>
@@ -6945,16 +6881,16 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6962,10 +6898,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6988,17 +6924,15 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -7047,7 +6981,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7062,16 +6996,16 @@
         <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -7079,10 +7013,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7105,17 +7039,15 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -7164,7 +7096,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7182,10 +7114,10 @@
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -7196,10 +7128,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7222,17 +7154,15 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -7281,7 +7211,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>47</v>
@@ -7296,16 +7226,16 @@
         <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -7313,10 +7243,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7339,13 +7269,13 @@
         <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7396,7 +7326,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7411,16 +7341,16 @@
         <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7428,10 +7358,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7457,10 +7387,10 @@
         <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7543,10 +7473,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7572,10 +7502,10 @@
         <v>92</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>130</v>
@@ -7660,14 +7590,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7689,10 +7619,10 @@
         <v>92</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>130</v>
@@ -7747,7 +7677,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7779,10 +7709,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7808,10 +7738,10 @@
         <v>175</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7838,13 +7768,13 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -7862,7 +7792,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7877,10 +7807,10 @@
         <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7894,10 +7824,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7920,13 +7850,13 @@
         <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7977,7 +7907,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>47</v>
@@ -7992,10 +7922,10 @@
         <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -8009,10 +7939,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8038,10 +7968,10 @@
         <v>175</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8068,13 +7998,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -8092,7 +8022,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8107,16 +8037,16 @@
         <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -8124,10 +8054,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8150,16 +8080,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8209,7 +8139,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8224,27 +8154,27 @@
         <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8267,20 +8197,18 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>38</v>
       </c>
@@ -8328,7 +8256,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8343,16 +8271,16 @@
         <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8360,10 +8288,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8386,17 +8314,15 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8445,7 +8371,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8463,13 +8389,13 @@
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>38</v>
@@ -8477,10 +8403,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8503,17 +8429,15 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8562,7 +8486,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8577,10 +8501,10 @@
         <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8594,10 +8518,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8620,13 +8544,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8677,7 +8601,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8689,13 +8613,13 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8709,10 +8633,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8738,10 +8662,10 @@
         <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8824,10 +8748,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8937,13 +8861,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>38</v>
@@ -8965,13 +8889,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9054,13 +8978,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>38</v>
@@ -9082,13 +9006,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9171,13 +9095,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>38</v>
@@ -9199,13 +9123,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9288,13 +9212,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>38</v>
@@ -9316,13 +9240,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9405,13 +9329,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>38</v>
@@ -9433,13 +9357,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9522,14 +9446,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9551,10 +9475,10 @@
         <v>92</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>130</v>
@@ -9609,7 +9533,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9641,10 +9565,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9670,10 +9594,10 @@
         <v>149</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9724,7 +9648,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9742,7 +9666,7 @@
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -9756,10 +9680,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9785,13 +9709,13 @@
         <v>175</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9821,7 +9745,7 @@
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9839,7 +9763,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9857,13 +9781,13 @@
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>38</v>
@@ -9871,10 +9795,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9986,10 +9910,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10103,13 +10027,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>38</v>
@@ -10131,13 +10055,13 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10220,13 +10144,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>38</v>
@@ -10248,13 +10172,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10337,10 +10261,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10363,19 +10287,19 @@
         <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10424,7 +10348,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10442,13 +10366,13 @@
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10456,10 +10380,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10485,16 +10409,16 @@
         <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -10543,7 +10467,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10561,13 +10485,13 @@
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>38</v>
@@ -10575,10 +10499,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10604,13 +10528,13 @@
         <v>175</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10640,7 +10564,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>38</v>
@@ -10658,7 +10582,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10676,13 +10600,13 @@
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>38</v>
@@ -10690,10 +10614,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10805,10 +10729,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10922,13 +10846,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>38</v>
@@ -10950,13 +10874,13 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11039,10 +10963,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11065,19 +10989,19 @@
         <v>48</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -11126,7 +11050,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11144,13 +11068,13 @@
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>38</v>
@@ -11158,10 +11082,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11187,16 +11111,16 @@
         <v>149</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -11245,7 +11169,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11263,13 +11187,13 @@
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
@@ -11277,10 +11201,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11306,16 +11230,16 @@
         <v>175</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>38</v>
@@ -11340,13 +11264,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -11364,7 +11288,7 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11382,13 +11306,13 @@
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>
@@ -11396,10 +11320,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11511,10 +11435,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11628,13 +11552,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>38</v>
@@ -11656,13 +11580,13 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11745,10 +11669,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11771,19 +11695,19 @@
         <v>48</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11830,7 +11754,7 @@
         <v>96</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11848,13 +11772,13 @@
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>38</v>
@@ -11862,13 +11786,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>38</v>
@@ -11890,19 +11814,19 @@
         <v>48</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>38</v>
@@ -11931,7 +11855,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>38</v>
@@ -11949,7 +11873,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -11967,13 +11891,13 @@
         <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>38</v>
@@ -11981,10 +11905,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12096,10 +12020,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12213,10 +12137,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12242,23 +12166,23 @@
         <v>61</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>38</v>
@@ -12300,7 +12224,7 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12318,13 +12242,13 @@
         <v>38</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>38</v>
@@ -12332,10 +12256,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12361,13 +12285,13 @@
         <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12417,7 +12341,7 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12435,13 +12359,13 @@
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>38</v>
@@ -12449,10 +12373,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12478,14 +12402,14 @@
         <v>67</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -12534,7 +12458,7 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12552,13 +12476,13 @@
         <v>38</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>38</v>
@@ -12566,10 +12490,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12595,14 +12519,14 @@
         <v>149</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
@@ -12651,7 +12575,7 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12669,13 +12593,13 @@
         <v>38</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>38</v>
@@ -12683,10 +12607,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12709,19 +12633,19 @@
         <v>48</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>38</v>
@@ -12770,7 +12694,7 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -12788,13 +12712,13 @@
         <v>38</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>38</v>
@@ -12802,13 +12726,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>38</v>
@@ -12830,19 +12754,19 @@
         <v>48</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>38</v>
@@ -12871,7 +12795,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>38</v>
@@ -12889,7 +12813,7 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12907,13 +12831,13 @@
         <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>38</v>
@@ -12921,10 +12845,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13036,10 +12960,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13153,10 +13077,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13182,23 +13106,23 @@
         <v>61</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>38</v>
@@ -13240,7 +13164,7 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -13258,13 +13182,13 @@
         <v>38</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>38</v>
@@ -13272,10 +13196,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13301,13 +13225,13 @@
         <v>149</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13357,7 +13281,7 @@
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
@@ -13375,13 +13299,13 @@
         <v>38</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>38</v>
@@ -13389,10 +13313,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13418,14 +13342,14 @@
         <v>67</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>38</v>
@@ -13474,7 +13398,7 @@
         <v>38</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13492,13 +13416,13 @@
         <v>38</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>38</v>
@@ -13506,10 +13430,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13535,14 +13459,14 @@
         <v>149</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>38</v>
@@ -13591,7 +13515,7 @@
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13609,13 +13533,13 @@
         <v>38</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>38</v>
@@ -13623,10 +13547,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13649,19 +13573,19 @@
         <v>48</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>38</v>
@@ -13710,7 +13634,7 @@
         <v>38</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -13728,13 +13652,13 @@
         <v>38</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>38</v>
@@ -13742,10 +13666,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13771,16 +13695,16 @@
         <v>149</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>38</v>
@@ -13829,7 +13753,7 @@
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -13847,13 +13771,13 @@
         <v>38</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>38</v>
@@ -13861,10 +13785,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13887,16 +13811,16 @@
         <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13946,7 +13870,7 @@
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -13958,19 +13882,19 @@
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>38</v>
@@ -13978,10 +13902,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14004,16 +13928,16 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14051,17 +13975,17 @@
         <v>38</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AC101" s="2"/>
       <c r="AD101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>580</v>
+        <v>96</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14079,13 +14003,13 @@
         <v>38</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>38</v>
@@ -14093,13 +14017,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>38</v>
@@ -14121,16 +14045,16 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14180,7 +14104,7 @@
         <v>38</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
@@ -14192,19 +14116,19 @@
         <v>104</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>90</v>
+        <v>567</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>38</v>
@@ -14212,14 +14136,12 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
         <v>38</v>
       </c>
@@ -14228,7 +14150,7 @@
         <v>39</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>38</v>
@@ -14240,16 +14162,16 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14299,150 +14221,33 @@
         <v>38</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>571</v>
+        <v>59</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>573</v>
+        <v>38</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO104" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="588">
   <si>
     <t>Property</t>
   </si>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
+  </si>
+  <si>
+    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2321,13 +2325,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -2341,10 +2345,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2355,7 +2359,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2364,19 +2368,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2426,13 +2430,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2458,10 +2462,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2472,7 +2476,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2481,16 +2485,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2541,19 +2545,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2573,10 +2577,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2587,28 +2591,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2658,19 +2662,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2690,10 +2694,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2704,7 +2708,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2716,16 +2720,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2751,13 +2755,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2775,19 +2779,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2807,21 +2811,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2833,16 +2837,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2892,25 +2896,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2924,14 +2928,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2950,16 +2954,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3009,7 +3013,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -3027,7 +3031,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -3041,10 +3045,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3067,13 +3071,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3112,17 +3116,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3134,7 +3138,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -3154,13 +3158,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -3170,7 +3174,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -3182,13 +3186,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3239,7 +3243,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3248,10 +3252,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3271,13 +3275,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -3287,7 +3291,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -3299,13 +3303,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3356,7 +3360,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3365,10 +3369,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -3388,13 +3392,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -3404,7 +3408,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3416,13 +3420,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3473,7 +3477,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3482,10 +3486,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3505,13 +3509,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
@@ -3533,13 +3537,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3590,7 +3594,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3599,10 +3603,10 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3622,13 +3626,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>38</v>
@@ -3650,13 +3654,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3707,7 +3711,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3719,7 +3723,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3739,14 +3743,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3759,25 +3763,25 @@
         <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3826,7 +3830,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3838,13 +3842,13 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3858,10 +3862,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3869,7 +3873,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -3884,16 +3888,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3931,17 +3935,17 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3953,16 +3957,16 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3973,23 +3977,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -4001,16 +4005,16 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4060,7 +4064,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -4072,16 +4076,16 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>38</v>
@@ -4092,10 +4096,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4106,7 +4110,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -4118,13 +4122,13 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4175,13 +4179,13 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
@@ -4193,7 +4197,7 @@
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -4207,14 +4211,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4233,16 +4237,16 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4280,19 +4284,19 @@
         <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4304,13 +4308,13 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
@@ -4324,10 +4328,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4338,31 +4342,31 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -4387,13 +4391,13 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -4411,31 +4415,31 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -4443,10 +4447,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4457,7 +4461,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -4466,22 +4470,22 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -4506,13 +4510,13 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>38</v>
@@ -4530,31 +4534,31 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4562,10 +4566,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4573,10 +4577,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4585,29 +4589,29 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>38</v>
@@ -4649,31 +4653,31 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4681,10 +4685,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4692,10 +4696,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4704,19 +4708,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4766,31 +4770,31 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4798,10 +4802,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4812,7 +4816,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4821,16 +4825,16 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4881,31 +4885,31 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4913,10 +4917,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4927,7 +4931,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4936,19 +4940,19 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4998,31 +5002,31 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>38</v>
@@ -5030,13 +5034,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>38</v>
@@ -5058,16 +5062,16 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5117,7 +5121,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -5129,16 +5133,16 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>38</v>
@@ -5149,10 +5153,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5163,7 +5167,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -5175,13 +5179,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5232,13 +5236,13 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
@@ -5250,7 +5254,7 @@
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -5264,14 +5268,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5290,16 +5294,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5337,19 +5341,19 @@
         <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5361,13 +5365,13 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -5381,10 +5385,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5395,31 +5399,31 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5444,13 +5448,13 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
@@ -5468,31 +5472,31 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5500,10 +5504,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5514,7 +5518,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5523,22 +5527,22 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5563,13 +5567,13 @@
         <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>38</v>
@@ -5587,31 +5591,31 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5619,10 +5623,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5630,10 +5634,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5642,29 +5646,29 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>38</v>
@@ -5706,31 +5710,31 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5738,10 +5742,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5749,10 +5753,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5761,19 +5765,19 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5823,31 +5827,31 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5855,10 +5859,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5869,7 +5873,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5878,16 +5882,16 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5938,31 +5942,31 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5970,10 +5974,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5984,7 +5988,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5993,19 +5997,19 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6055,31 +6059,31 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>38</v>
@@ -6087,10 +6091,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6110,16 +6114,16 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6170,7 +6174,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6182,13 +6186,13 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -6202,10 +6206,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6225,16 +6229,16 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6285,7 +6289,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6297,13 +6301,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -6317,10 +6321,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6328,31 +6332,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6378,13 +6382,13 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
@@ -6402,31 +6406,31 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -6434,10 +6438,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6460,16 +6464,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6495,13 +6499,13 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6519,7 +6523,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6531,19 +6535,19 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6551,10 +6555,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6565,7 +6569,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6577,13 +6581,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6610,13 +6614,13 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -6634,25 +6638,25 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6666,10 +6670,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6677,10 +6681,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6689,19 +6693,19 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6751,31 +6755,31 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6783,10 +6787,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6794,10 +6798,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6806,16 +6810,16 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6866,31 +6870,31 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6898,10 +6902,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6912,7 +6916,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6924,13 +6928,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6981,31 +6985,31 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -7013,10 +7017,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7039,13 +7043,13 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7096,7 +7100,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7108,16 +7112,16 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -7128,10 +7132,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7139,10 +7143,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -7151,16 +7155,16 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7211,31 +7215,31 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -7243,10 +7247,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7266,16 +7270,16 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7326,7 +7330,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7338,19 +7342,19 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7358,10 +7362,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7372,7 +7376,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7384,13 +7388,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7441,13 +7445,13 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
@@ -7459,7 +7463,7 @@
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -7473,14 +7477,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7499,16 +7503,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7558,7 +7562,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7570,13 +7574,13 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7590,14 +7594,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7610,25 +7614,25 @@
         <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7677,7 +7681,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7689,13 +7693,13 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7709,10 +7713,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7723,7 +7727,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7735,13 +7739,13 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7768,13 +7772,13 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -7792,25 +7796,25 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7824,10 +7828,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7835,10 +7839,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7847,16 +7851,16 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7907,25 +7911,25 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7939,10 +7943,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7965,13 +7969,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7998,13 +8002,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -8022,7 +8026,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8034,19 +8038,19 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -8054,10 +8058,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8080,16 +8084,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8139,7 +8143,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8151,30 +8155,30 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8185,7 +8189,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -8197,16 +8201,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8256,31 +8260,31 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8288,10 +8292,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8314,13 +8318,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8371,7 +8375,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8383,19 +8387,19 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>38</v>
@@ -8403,10 +8407,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8429,13 +8433,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8486,7 +8490,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8498,13 +8502,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8518,10 +8522,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8532,7 +8536,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8544,13 +8548,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8601,25 +8605,25 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8633,10 +8637,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8647,7 +8651,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8659,13 +8663,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8716,13 +8720,13 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
@@ -8734,7 +8738,7 @@
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8748,10 +8752,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8774,13 +8778,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8819,17 +8823,17 @@
         <v>38</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8841,7 +8845,7 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8861,13 +8865,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="B58" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="C58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>38</v>
@@ -8889,13 +8893,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8946,7 +8950,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8955,10 +8959,10 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8978,13 +8982,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>38</v>
@@ -9006,13 +9010,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9063,7 +9067,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9072,10 +9076,10 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -9095,13 +9099,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>38</v>
@@ -9123,13 +9127,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9180,7 +9184,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9189,10 +9193,10 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -9212,13 +9216,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>38</v>
@@ -9240,13 +9244,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9297,7 +9301,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9306,10 +9310,10 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -9329,13 +9333,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>38</v>
@@ -9357,13 +9361,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9414,7 +9418,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9423,10 +9427,10 @@
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -9446,14 +9450,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9466,25 +9470,25 @@
         <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -9533,7 +9537,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9545,13 +9549,13 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9565,10 +9569,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9579,7 +9583,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9591,13 +9595,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9648,25 +9652,25 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -9680,10 +9684,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9694,7 +9698,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9706,16 +9710,16 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9741,11 +9745,11 @@
         <v>38</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9763,31 +9767,31 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>38</v>
@@ -9795,10 +9799,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9809,7 +9813,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9821,13 +9825,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9878,13 +9882,13 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
@@ -9896,7 +9900,7 @@
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
@@ -9910,14 +9914,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9936,16 +9940,16 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9983,19 +9987,19 @@
         <v>38</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10007,13 +10011,13 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -10027,13 +10031,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="C68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>38</v>
@@ -10055,13 +10059,13 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10112,7 +10116,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10124,7 +10128,7 @@
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -10144,13 +10148,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>38</v>
@@ -10172,13 +10176,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10229,7 +10233,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10241,7 +10245,7 @@
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
@@ -10261,10 +10265,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10284,22 +10288,22 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10348,7 +10352,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10360,19 +10364,19 @@
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10380,10 +10384,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10394,7 +10398,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -10403,22 +10407,22 @@
         <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -10467,31 +10471,31 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>38</v>
@@ -10499,10 +10503,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10513,7 +10517,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>38</v>
@@ -10525,16 +10529,16 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10560,11 +10564,11 @@
         <v>38</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>38</v>
@@ -10582,31 +10586,31 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>38</v>
@@ -10614,10 +10618,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10628,7 +10632,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -10640,13 +10644,13 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10697,13 +10701,13 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
@@ -10715,7 +10719,7 @@
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>38</v>
@@ -10729,14 +10733,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10755,16 +10759,16 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10802,19 +10806,19 @@
         <v>38</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10826,13 +10830,13 @@
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>38</v>
@@ -10846,13 +10850,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="B75" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="C75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>38</v>
@@ -10874,13 +10878,13 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10931,7 +10935,7 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -10943,7 +10947,7 @@
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
@@ -10963,10 +10967,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10986,22 +10990,22 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -11050,7 +11054,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11062,19 +11066,19 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>38</v>
@@ -11082,10 +11086,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11096,7 +11100,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -11105,22 +11109,22 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -11169,31 +11173,31 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
@@ -11201,10 +11205,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11215,7 +11219,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>38</v>
@@ -11227,19 +11231,19 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>38</v>
@@ -11264,13 +11268,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -11288,31 +11292,31 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>
@@ -11320,10 +11324,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11334,7 +11338,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -11346,13 +11350,13 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11403,13 +11407,13 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
@@ -11421,7 +11425,7 @@
         <v>38</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>38</v>
@@ -11435,14 +11439,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11461,16 +11465,16 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11508,19 +11512,19 @@
         <v>38</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11532,13 +11536,13 @@
         <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>38</v>
@@ -11552,13 +11556,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="B81" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="C81" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>38</v>
@@ -11580,13 +11584,13 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11637,7 +11641,7 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11649,7 +11653,7 @@
         <v>38</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>38</v>
@@ -11669,10 +11673,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11692,22 +11696,22 @@
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11744,17 +11748,17 @@
         <v>38</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11766,19 +11770,19 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>38</v>
@@ -11786,13 +11790,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="B83" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="C83" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>38</v>
@@ -11802,7 +11806,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>38</v>
@@ -11811,22 +11815,22 @@
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>38</v>
@@ -11851,11 +11855,11 @@
         <v>38</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>38</v>
@@ -11873,7 +11877,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -11885,19 +11889,19 @@
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>38</v>
@@ -11905,10 +11909,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11919,7 +11923,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>38</v>
@@ -11931,13 +11935,13 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11988,13 +11992,13 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>38</v>
@@ -12006,7 +12010,7 @@
         <v>38</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>38</v>
@@ -12020,14 +12024,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12046,16 +12050,16 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12093,19 +12097,19 @@
         <v>38</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12117,13 +12121,13 @@
         <v>38</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>38</v>
@@ -12137,10 +12141,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12148,10 +12152,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>38</v>
@@ -12160,29 +12164,29 @@
         <v>38</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>38</v>
@@ -12224,31 +12228,31 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>38</v>
@@ -12256,10 +12260,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12270,7 +12274,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>38</v>
@@ -12279,19 +12283,19 @@
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12341,31 +12345,31 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>38</v>
@@ -12373,10 +12377,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12387,7 +12391,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>38</v>
@@ -12396,20 +12400,20 @@
         <v>38</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -12458,31 +12462,31 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>38</v>
@@ -12490,10 +12494,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12504,7 +12508,7 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>38</v>
@@ -12513,20 +12517,20 @@
         <v>38</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
@@ -12575,31 +12579,31 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>38</v>
@@ -12607,10 +12611,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12621,7 +12625,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>38</v>
@@ -12630,22 +12634,22 @@
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>38</v>
@@ -12694,31 +12698,31 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>38</v>
@@ -12726,13 +12730,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>38</v>
@@ -12742,7 +12746,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>38</v>
@@ -12751,22 +12755,22 @@
         <v>38</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>38</v>
@@ -12791,11 +12795,11 @@
         <v>38</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>38</v>
@@ -12813,7 +12817,7 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12825,19 +12829,19 @@
         <v>38</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>38</v>
@@ -12845,10 +12849,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12859,7 +12863,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>38</v>
@@ -12871,13 +12875,13 @@
         <v>38</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12928,13 +12932,13 @@
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>38</v>
@@ -12946,7 +12950,7 @@
         <v>38</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>38</v>
@@ -12960,14 +12964,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12986,16 +12990,16 @@
         <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13033,19 +13037,19 @@
         <v>38</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13057,13 +13061,13 @@
         <v>38</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>38</v>
@@ -13077,10 +13081,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13088,10 +13092,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>38</v>
@@ -13100,29 +13104,29 @@
         <v>38</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>38</v>
@@ -13164,31 +13168,31 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>38</v>
@@ -13196,10 +13200,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13210,7 +13214,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>38</v>
@@ -13219,19 +13223,19 @@
         <v>38</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13281,31 +13285,31 @@
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>38</v>
@@ -13313,10 +13317,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13327,7 +13331,7 @@
         <v>39</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>38</v>
@@ -13336,20 +13340,20 @@
         <v>38</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>38</v>
@@ -13398,31 +13402,31 @@
         <v>38</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>38</v>
@@ -13430,10 +13434,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13444,7 +13448,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>38</v>
@@ -13453,20 +13457,20 @@
         <v>38</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>38</v>
@@ -13515,31 +13519,31 @@
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>38</v>
@@ -13547,10 +13551,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13561,7 +13565,7 @@
         <v>39</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>38</v>
@@ -13570,22 +13574,22 @@
         <v>38</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>38</v>
@@ -13634,31 +13638,31 @@
         <v>38</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>38</v>
@@ -13666,10 +13670,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13680,7 +13684,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>38</v>
@@ -13689,22 +13693,22 @@
         <v>38</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>38</v>
@@ -13753,31 +13757,31 @@
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>38</v>
@@ -13785,10 +13789,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13799,7 +13803,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>38</v>
@@ -13811,16 +13815,16 @@
         <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13870,31 +13874,31 @@
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>38</v>
@@ -13902,10 +13906,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13916,7 +13920,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>38</v>
@@ -13928,16 +13932,16 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13975,41 +13979,41 @@
         <v>38</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC101" s="2"/>
       <c r="AD101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>38</v>
@@ -14017,13 +14021,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>38</v>
@@ -14033,7 +14037,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>38</v>
@@ -14045,16 +14049,16 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14104,31 +14108,31 @@
         <v>38</v>
       </c>
       <c r="AF102" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>38</v>
@@ -14136,10 +14140,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14162,16 +14166,16 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14221,7 +14225,7 @@
         <v>38</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
@@ -14233,13 +14237,13 @@
         <v>38</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="596">
   <si>
     <t>Property</t>
   </si>
@@ -1832,10 +1832,36 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
     <t>RXA-12-Administered Per (Time Unit)</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x]:rateRatio</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
+</t>
+  </si>
+  <si>
+    <t>単位時間内での薬剤の容量</t>
+  </si>
+  <si>
+    <t>比率データタイプは、関係を数量と共通単位を使用して適切に表現できない場合にのみ、2つの数値の関係を表現するために使用する必要があります。分母値が「1」に固定されていることが知られている場合、比率ではなく数量を使用する必要があります。 / The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]:rateQuantity</t>
@@ -2178,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2215,7 +2241,7 @@
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -13986,7 +14012,7 @@
         <v>38</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>97</v>
+        <v>575</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>569</v>
@@ -14007,13 +14033,13 @@
         <v>38</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>38</v>
@@ -14021,13 +14047,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>569</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>38</v>
@@ -14049,16 +14075,16 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14120,19 +14146,19 @@
         <v>105</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>568</v>
+        <v>91</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>38</v>
@@ -14140,12 +14166,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>38</v>
       </c>
@@ -14154,7 +14182,7 @@
         <v>39</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>38</v>
@@ -14166,16 +14194,16 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14225,33 +14253,150 @@
         <v>38</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH103" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G104" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AI103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
+      <c r="H104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO103" t="s" s="2">
+      <c r="AK104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="595">
   <si>
     <t>Property</t>
   </si>
@@ -145,7 +145,7 @@
     <t>患者への注射薬剤投与記録</t>
   </si>
   <si>
-    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
+    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的なEncounter（診察、受診、入退院など）と結びつけます。</t>
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
@@ -536,7 +536,7 @@
     <t>MedicationAdministration.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -771,11 +771,10 @@
     <t>MedicationAdministration.instantiates</t>
   </si>
   <si>
-    <t>Instantiates protocol or definition　プロトコルや定義のインスタンス化</t>
-  </si>
-  <si>
-    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.
-このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
+    <t>プロトコルや定義のインスタンス化</t>
+  </si>
+  <si>
+    <t>このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
   </si>
   <si>
     <t>Event.instantiates</t>
@@ -791,11 +790,10 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event  親イベントへの参照</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular event is a component or step.
-この特定のイベントがコンポーネントまたはステップであるようなより大きな親イベント。</t>
+    <t>親イベントへの参照</t>
+  </si>
+  <si>
+    <t>この特定のイベントがコンポーネントまたはステップであるようなより大きな親イベント。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -810,8 +808,7 @@
     <t>completed | stopped</t>
   </si>
   <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
-通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
+    <t>通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
 【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
@@ -839,14 +836,10 @@
     <t>MedicationAdministration.statusReason</t>
   </si>
   <si>
-    <t>Reason administration not performed　実施されていない理由</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.　投与が実施されていない理由を示すコード</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+    <t>実施されていない理由</t>
+  </si>
+  <si>
+    <t>投与が実施されていない理由を示すコード</t>
   </si>
   <si>
     <t>example</t>
@@ -870,13 +863,10 @@
     <t>MedicationAdministration.category</t>
   </si>
   <si>
-    <t>Type of medication usage　薬が使用される区分</t>
-  </si>
-  <si>
-    <t>Indicates where the medication is expected to be consumed or administered.
-薬が消費または投与されると予想される場所区分(入院、外来、家庭等)を示す。
-inpatient | outpatient | community
- (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
+    <t>薬が使用される区分</t>
+  </si>
+  <si>
+    <t>薬剤の摂取または投与が予想される場所を示します。</t>
   </si>
   <si>
     <t>薬剤の投与が予想される場所を記述するコード化された概念。</t>
@@ -895,15 +885,13 @@
 </t>
   </si>
   <si>
-    <t>What medication was supplied　医薬品</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
-投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+    <t>医薬品</t>
+  </si>
+  <si>
+    <t>投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
 厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
  なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
@@ -1234,11 +1222,10 @@
     <t>MedicationAdministration.dosage</t>
   </si>
   <si>
-    <t>Details of how medication was taken　薬の服用方法の詳細</t>
-  </si>
-  <si>
-    <t>Describes the medication dosage information details e.g. dose, rate, site, route, etc.
-投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
+    <t>薬の服用方法の詳細</t>
+  </si>
+  <si>
+    <t>投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
@@ -1340,13 +1327,10 @@
     <t>MedicationAdministration.dosage.text</t>
   </si>
   <si>
-    <t>Free text dosage instructions e.g. SIG　フリーテキストの投与方法の説明　SIG:用法</t>
-  </si>
-  <si>
-    <t>Free text dosage can be used for cases where the dosage administered is too complex to code. When coded dosage is present, the free text dosage may still be present for display to humans.--The dosage instructions should reflect the dosage of the medication that was administered.
-フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。
+    <t>フリーテキストの投与方法の説明　SIG:用法</t>
+  </si>
+  <si>
+    <t>フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。
 投与量や用法のこの指示は、実際に投与される薬の投与量や用法を反映する必要がある。</t>
   </si>
   <si>
@@ -1356,15 +1340,13 @@
     <t>MedicationAdministration.dosage.site</t>
   </si>
   <si>
-    <t>Body site administered to　投与部位</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first entered the body.  For example, "left arm".
-薬が最初に体内に入った解剖学的部位のコード化された記述。たとえば、「左腕」。</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.
-ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
+    <t>投与部位</t>
+  </si>
+  <si>
+    <t>薬が最初に体内に入った解剖学的部位のコード化された記述。たとえば、「左腕」。</t>
+  </si>
+  <si>
+    <t>ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
@@ -1469,11 +1451,10 @@
     <t>MedicationAdministration.dosage.route</t>
   </si>
   <si>
-    <t>Path of substance into body　体への投与経路</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto the patient.  For example, topical, intravenous, etc.
-患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
+    <t>体への投与経路</t>
+  </si>
+  <si>
+    <t>患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
@@ -1789,11 +1770,10 @@
 </t>
   </si>
   <si>
-    <t>Amount of medication per dose　用量あたりの投薬量</t>
-  </si>
-  <si>
-    <t>The amount of the medication given at one administration event.   Use this value when the administration is essentially an instantaneous event such as a swallowing a tablet or giving an injection.
-1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
+    <t>用量あたりの投薬量</t>
+  </si>
+  <si>
+    <t>1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
@@ -1816,16 +1796,14 @@
 Quantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>Dose quantity per unit of time　単位時間あたりの用量</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient.  Typically, the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time, e.g. 500 ml per 2 hours.  Other examples:  200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.
-薬が患者に導入された、または導入される予定の速度を識別する。
+    <t>単位時間あたりの用量</t>
+  </si>
+  <si>
+    <t>薬が患者に導入された、または導入される予定の速度を識別する。
 通常、注入の速度。 1時間あたり100mlまたは100ml/時。単位時間あたりのレートとして表すこともできる。 2時間あたり500ml。その他の例：200mcg/分または200mcg/1分。 1リットル/8時間。</t>
   </si>
   <si>
-    <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.
-レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
+    <t>レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -1887,11 +1865,10 @@
 </t>
   </si>
   <si>
-    <t>A list of events of interest in the lifecycle　ライフサイクルで関心のあるイベントのリスト</t>
-  </si>
-  <si>
-    <t>A summary of the events of interest that have occurred, such as when the administration was verified.
-投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
+    <t>ライフサイクルで関心のあるイベントのリスト</t>
+  </si>
+  <si>
+    <t>投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
   </si>
   <si>
     <t>この要請のすべてのバージョンの起源が含まれているわけではない可能性があります。ただし、「関連性」または重要と見なされるものに限定されます。それに含まれる証跡には、このリソースの現在のバージョンに関連するものは含まれません。 （そのプロバイナンスが「関連性のある」変更である場合、後の更新の一部として追加する必要があります。その時までは、このバージョンを指すプロバイナンスとして直接クエリできます。All Provenancesは、この要求の過去のバージョンを主題として持つ必要があります。</t>
@@ -6498,9 +6475,7 @@
       <c r="M37" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6525,13 +6500,13 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6564,16 +6539,16 @@
         <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6581,10 +6556,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6610,10 +6585,10 @@
         <v>176</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6643,11 +6618,11 @@
         <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
       </c>
@@ -6664,7 +6639,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6682,7 +6657,7 @@
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6696,10 +6671,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6722,16 +6697,16 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6781,7 +6756,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>48</v>
@@ -6796,16 +6771,16 @@
         <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6813,10 +6788,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6839,13 +6814,13 @@
         <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6896,7 +6871,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>48</v>
@@ -6911,16 +6886,16 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6928,10 +6903,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6954,13 +6929,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7011,7 +6986,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7026,16 +7001,16 @@
         <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -7043,10 +7018,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7069,13 +7044,13 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7126,7 +7101,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7144,10 +7119,10 @@
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -7158,10 +7133,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7184,13 +7159,13 @@
         <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7241,7 +7216,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>48</v>
@@ -7256,16 +7231,16 @@
         <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -7273,10 +7248,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7299,13 +7274,13 @@
         <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7356,7 +7331,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7371,16 +7346,16 @@
         <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7388,10 +7363,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7417,10 +7392,10 @@
         <v>150</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7503,10 +7478,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7532,10 +7507,10 @@
         <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>131</v>
@@ -7620,14 +7595,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7649,10 +7624,10 @@
         <v>93</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>131</v>
@@ -7707,7 +7682,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7739,10 +7714,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7768,10 +7743,10 @@
         <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7798,14 +7773,14 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
       </c>
@@ -7822,7 +7797,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7837,10 +7812,10 @@
         <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7854,10 +7829,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7880,13 +7855,13 @@
         <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7937,7 +7912,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>48</v>
@@ -7952,10 +7927,10 @@
         <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7969,10 +7944,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7998,10 +7973,10 @@
         <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8028,14 +8003,14 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
       </c>
@@ -8052,7 +8027,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8067,16 +8042,16 @@
         <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -8084,10 +8059,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8110,16 +8085,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8169,7 +8144,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8184,27 +8159,27 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8227,16 +8202,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8286,7 +8261,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8301,16 +8276,16 @@
         <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8318,10 +8293,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8344,13 +8319,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8401,7 +8376,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8419,13 +8394,13 @@
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>38</v>
@@ -8433,10 +8408,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8459,13 +8434,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8516,7 +8491,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8531,10 +8506,10 @@
         <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8548,10 +8523,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8574,13 +8549,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8631,7 +8606,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8643,13 +8618,13 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8663,10 +8638,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8692,10 +8667,10 @@
         <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8778,10 +8753,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8891,13 +8866,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>38</v>
@@ -8919,13 +8894,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9008,13 +8983,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>38</v>
@@ -9036,13 +9011,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9125,13 +9100,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>38</v>
@@ -9153,13 +9128,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9242,13 +9217,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>38</v>
@@ -9270,13 +9245,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9359,13 +9334,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>38</v>
@@ -9387,13 +9362,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9476,14 +9451,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9505,10 +9480,10 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>131</v>
@@ -9563,7 +9538,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9595,10 +9570,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9624,10 +9599,10 @@
         <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9678,7 +9653,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9696,7 +9671,7 @@
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -9710,10 +9685,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9739,13 +9714,13 @@
         <v>176</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9775,7 +9750,7 @@
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9793,7 +9768,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9811,13 +9786,13 @@
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>38</v>
@@ -9825,10 +9800,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9940,10 +9915,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10057,13 +10032,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>38</v>
@@ -10085,13 +10060,13 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10174,13 +10149,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>38</v>
@@ -10202,13 +10177,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10291,10 +10266,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10317,19 +10292,19 @@
         <v>49</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10378,7 +10353,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10396,13 +10371,13 @@
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10410,10 +10385,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10439,16 +10414,16 @@
         <v>150</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -10497,7 +10472,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10515,13 +10490,13 @@
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>38</v>
@@ -10529,10 +10504,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10558,14 +10533,12 @@
         <v>176</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>38</v>
@@ -10594,7 +10567,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>38</v>
@@ -10612,7 +10585,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10630,13 +10603,13 @@
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>38</v>
@@ -10644,10 +10617,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10759,10 +10732,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10876,13 +10849,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>38</v>
@@ -10904,13 +10877,13 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10993,10 +10966,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11019,19 +10992,19 @@
         <v>49</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -11080,7 +11053,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11098,13 +11071,13 @@
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>38</v>
@@ -11112,10 +11085,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11141,16 +11114,16 @@
         <v>150</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -11199,7 +11172,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11217,13 +11190,13 @@
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
@@ -11231,10 +11204,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11260,16 +11233,16 @@
         <v>176</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>38</v>
@@ -11294,14 +11267,14 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
       </c>
@@ -11318,7 +11291,7 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11336,13 +11309,13 @@
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>
@@ -11350,10 +11323,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11465,10 +11438,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11582,13 +11555,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>38</v>
@@ -11610,13 +11583,13 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11699,10 +11672,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11725,19 +11698,19 @@
         <v>49</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11784,7 +11757,7 @@
         <v>97</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11802,13 +11775,13 @@
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>38</v>
@@ -11816,13 +11789,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>38</v>
@@ -11844,19 +11817,19 @@
         <v>49</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>38</v>
@@ -11885,7 +11858,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>38</v>
@@ -11903,7 +11876,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -11921,13 +11894,13 @@
         <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>38</v>
@@ -11935,10 +11908,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12050,10 +12023,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12167,10 +12140,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B86" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12196,65 +12169,65 @@
         <v>62</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF86" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12272,13 +12245,13 @@
         <v>38</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>38</v>
@@ -12286,10 +12259,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12315,13 +12288,13 @@
         <v>150</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12371,7 +12344,7 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12389,13 +12362,13 @@
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>38</v>
@@ -12403,10 +12376,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12432,14 +12405,14 @@
         <v>68</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -12488,7 +12461,7 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12506,13 +12479,13 @@
         <v>38</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>38</v>
@@ -12520,10 +12493,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12549,14 +12522,14 @@
         <v>150</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
@@ -12605,7 +12578,7 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12623,13 +12596,13 @@
         <v>38</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>38</v>
@@ -12637,10 +12610,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12663,19 +12636,19 @@
         <v>49</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>38</v>
@@ -12724,7 +12697,7 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -12742,13 +12715,13 @@
         <v>38</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>38</v>
@@ -12756,13 +12729,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>38</v>
@@ -12784,19 +12757,19 @@
         <v>49</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="N91" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O91" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>38</v>
@@ -12825,7 +12798,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>38</v>
@@ -12843,7 +12816,7 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12861,13 +12834,13 @@
         <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>38</v>
@@ -12875,10 +12848,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12990,10 +12963,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13107,10 +13080,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13136,23 +13109,23 @@
         <v>62</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>38</v>
@@ -13194,7 +13167,7 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -13212,13 +13185,13 @@
         <v>38</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>38</v>
@@ -13226,10 +13199,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13255,13 +13228,13 @@
         <v>150</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13311,7 +13284,7 @@
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
@@ -13329,13 +13302,13 @@
         <v>38</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>38</v>
@@ -13343,10 +13316,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13372,14 +13345,14 @@
         <v>68</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>38</v>
@@ -13428,7 +13401,7 @@
         <v>38</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13446,13 +13419,13 @@
         <v>38</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>38</v>
@@ -13460,10 +13433,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13489,14 +13462,14 @@
         <v>150</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>38</v>
@@ -13545,7 +13518,7 @@
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13563,13 +13536,13 @@
         <v>38</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>38</v>
@@ -13577,10 +13550,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13603,19 +13576,19 @@
         <v>49</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>38</v>
@@ -13664,7 +13637,7 @@
         <v>38</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -13682,13 +13655,13 @@
         <v>38</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>38</v>
@@ -13696,10 +13669,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13725,16 +13698,16 @@
         <v>150</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>38</v>
@@ -13783,7 +13756,7 @@
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -13801,13 +13774,13 @@
         <v>38</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>38</v>
@@ -13815,10 +13788,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13841,16 +13814,16 @@
         <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13900,7 +13873,7 @@
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -13912,19 +13885,19 @@
         <v>105</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL100" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AK100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL100" t="s" s="2">
+      <c r="AM100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>38</v>
@@ -13932,10 +13905,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13958,16 +13931,16 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14005,17 +13978,17 @@
         <v>38</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AC101" s="2"/>
       <c r="AD101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14033,13 +14006,13 @@
         <v>38</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>38</v>
@@ -14047,13 +14020,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C102" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>38</v>
@@ -14075,16 +14048,16 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14134,7 +14107,7 @@
         <v>38</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
@@ -14146,13 +14119,13 @@
         <v>105</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL102" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>38</v>
@@ -14166,13 +14139,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C103" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>38</v>
@@ -14194,16 +14167,16 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14253,7 +14226,7 @@
         <v>38</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
@@ -14265,19 +14238,19 @@
         <v>105</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL103" t="s" s="2">
+      <c r="AM103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>38</v>
@@ -14285,10 +14258,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14311,16 +14284,16 @@
         <v>38</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14370,7 +14343,7 @@
         <v>38</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14388,7 +14361,7 @@
         <v>38</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -149,7 +149,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -174,10 +174,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
-  </si>
-  <si>
-    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
+    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -190,7 +190,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースに関するメタデータ」</t>
+    <t>リソースに関するメタデータ</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -213,7 +213,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -232,7 +232,7 @@
     <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
   </si>
   <si>
-    <t>「リソースが書かれている基本言語。」</t>
+    <t>リソースが書かれている基本言語。</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -261,10 +261,10 @@
 </t>
   </si>
   <si>
-    <t>「人間の解釈のためのリソースのテキスト要約」</t>
-  </si>
-  <si>
-    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+    <t>人間の解釈のためのリソースのテキスト要約</t>
+  </si>
+  <si>
+    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -290,10 +290,10 @@
     <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
   </si>
   <si>
-    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
-  </si>
-  <si>
-    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
+    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
+  </si>
+  <si>
+    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -326,7 +326,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:requestDepartment</t>
@@ -429,7 +429,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -948,7 +948,7 @@
     <t>「エピソード・オブ・ケア」は、「エンカウンター」として提供されます。</t>
   </si>
   <si>
-    <t>「薬剤投与が行われた患者と医療提供者の間での訪問、入院、またはその他の接触。」</t>
+    <t>薬剤投与が行われた患者と医療提供者の間での訪問、入院、またはその他の接触。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -970,7 +970,7 @@
 </t>
   </si>
   <si>
-    <t>「管理をサポートするための追加情報」</t>
+    <t>管理をサポートするための追加情報</t>
   </si>
   <si>
     <t>薬の投与を補助する追加情報（例えば、患者の身長や体重）。</t>
@@ -989,7 +989,7 @@
     <t>「管理の開始時刻と終了時刻」(Kanri no kaishi jikoku to shūryō jikoku)</t>
   </si>
   <si>
-    <t>「与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。」</t>
+    <t>与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1011,10 +1011,10 @@
 </t>
   </si>
   <si>
-    <t>「薬剤投与を行ったのは誰で、何をしたのか？」</t>
-  </si>
-  <si>
-    <t>「薬の投与を行った人や物、および彼らがどのように関与したかを示す。」</t>
+    <t>薬剤投与を行ったのは誰で、何をしたのか？</t>
+  </si>
+  <si>
+    <t>薬の投与を行った人や物、および彼らがどのように関与したかを示す。</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -1044,7 +1044,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1054,11 +1054,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
-  </si>
-  <si>
-    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
+    <t>認識されなくても無視できない拡張機能</t>
+  </si>
+  <si>
+    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1073,7 +1073,7 @@
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
   </si>
   <si>
-    <t>「薬物管理を行った個人の役割を説明するコード」</t>
+    <t>薬物管理を行った個人の役割を説明するコード</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1095,7 +1095,7 @@
     <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
   </si>
   <si>
-    <t>「薬剤投与を行った人物または物品を示す」</t>
+    <t>薬剤投与を行った人物または物品を示す</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1113,7 +1113,7 @@
     <t>与えられた薬を説明するコード。</t>
   </si>
   <si>
-    <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
+    <t>薬剤投与が行われた理由を示すコードのセット。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1135,13 +1135,13 @@
 </t>
   </si>
   <si>
-    <t>「薬が投与された理由を支持する状態または観察」</t>
+    <t>薬が投与された理由を支持する状態または観察</t>
   </si>
   <si>
     <t>薬剤が投与された理由を支持する状態または観察。</t>
   </si>
   <si>
-    <t>「これは、薬剤依頼の理由となる状態に関する参照です。もしコードしか存在しない場合は、reasonCodeを使用してください。」</t>
+    <t>これは、薬剤依頼の理由となる状態に関する参照です。もしコードしか存在しない場合は、reasonCodeを使用してください。</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1166,10 +1166,10 @@
     <t>"リクエスト管理対象として実行してください。" (Rikuesuto kanri taishou toshite jikkou shite kudasai.)</t>
   </si>
   <si>
-    <t>「管理を実行するための元の要求、指示、または権限。」</t>
-  </si>
-  <si>
-    <t>「これは、意図がオーダーまたはインスタンスオーダーであるMedicationRequestへの参照であり、意図が他の値であるMedicationRequestへの参照ではありません。」</t>
+    <t>管理を実行するための元の要求、指示、または権限。</t>
+  </si>
+  <si>
+    <t>これは、意図がオーダーまたはインスタンスオーダーであるMedicationRequestへの参照であり、意図が他の値であるMedicationRequestへの参照ではありません。</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t>「投与するための装置」(touyo suru tame no souchi)</t>
+    <t>投与するための装置</t>
   </si>
   <si>
     <t>患者に薬剤を投与するのに使われる装置。例えば、特定の注入ポンプ。</t>
@@ -1210,7 +1210,7 @@
     <t>「行政に関する情報」(Gyōsei ni kansuru jōhō)</t>
   </si>
   <si>
-    <t>「他の属性では伝えられない薬剤投与に関する追加情報」</t>
+    <t>他の属性では伝えられない薬剤投与に関する追加情報</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1506,7 +1506,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>「薬剤が投与される方法を記述する暗号化された概念。」</t>
+    <t>薬剤が投与される方法を記述する暗号化された概念。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -382,7 +382,7 @@
     <t>実施場所</t>
   </si>
   <si>
-    <t>実施場所を格納するための拡張。
+    <t>実施場所を格納するための拡張。  
 実施場所を記述した  Locationリソースへの参照。</t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>依頼医</t>
   </si>
   <si>
-    <t>依頼医を格納するための拡張。
+    <t>依頼医を格納するための拡張。  
 依頼医を記述した Practitioner  リソースへの参照。</t>
   </si>
   <si>
@@ -451,8 +451,8 @@
     <t>外部から参照されるID</t>
   </si>
   <si>
-    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
-処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。  
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。  
 このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
@@ -808,7 +808,7 @@
     <t>completed | stopped</t>
   </si>
   <si>
-    <t>通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
+    <t>通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。  
 【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
@@ -891,13 +891,11 @@
     <t>投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
   </si>
   <si>
-    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。  
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。  
+なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。  
+ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。  
+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。  
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
@@ -1330,7 +1328,7 @@
     <t>フリーテキストの投与方法の説明　SIG:用法</t>
   </si>
   <si>
-    <t>フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。
+    <t>フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。  
 投与量や用法のこの指示は、実際に投与される薬の投与量や用法を反映する必要がある。</t>
   </si>
   <si>
@@ -1799,7 +1797,7 @@
     <t>単位時間あたりの用量</t>
   </si>
   <si>
-    <t>薬が患者に導入された、または導入される予定の速度を識別する。
+    <t>薬が患者に導入された、または導入される予定の速度を識別する。  
 通常、注入の速度。 1時間あたり100mlまたは100ml/時。単位時間あたりのレートとして表すこともできる。 2時間あたり500ml。その他の例：200mcg/分または200mcg/1分。 1リットル/8時間。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -229,7 +229,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -241,7 +241,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -287,7 +287,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -918,7 +918,7 @@
 </t>
   </si>
   <si>
-    <t>「誰が薬を受け取りましたか？」(dare ga kusuri o uketorimashita ka?)</t>
+    <t>「誰が薬を受け取りましたか？」</t>
   </si>
   <si>
     <t>薬を受け取る人、動物、またはグループ。 (Kusuri wo uketoru hito, doubutsu, matawa guruupu.)</t>
@@ -984,7 +984,7 @@
 Period</t>
   </si>
   <si>
-    <t>「管理の開始時刻と終了時刻」(Kanri no kaishi jikoku to shūryō jikoku)</t>
+    <t>「管理の開始時刻と終了時刻」</t>
   </si>
   <si>
     <t>与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。</t>
@@ -1065,7 +1065,7 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
+    <t>「パフォーマンスの種類」</t>
   </si>
   <si>
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
@@ -1090,7 +1090,7 @@
 </t>
   </si>
   <si>
-    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+    <t>「薬剤投与を行ったのは誰ですか？」</t>
   </si>
   <si>
     <t>薬剤投与を行った人物または物品を示す</t>
@@ -1205,7 +1205,7 @@
 </t>
   </si>
   <si>
-    <t>「行政に関する情報」(Gyōsei ni kansuru jōhō)</t>
+    <t>「行政に関する情報」</t>
   </si>
   <si>
     <t>他の属性では伝えられない薬剤投与に関する追加情報</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1495,10 +1495,10 @@
 </t>
   </si>
   <si>
-    <t>ターゲットの解剖学的位置または構造</t>
-  </si>
-  <si>
-    <t>標本または身体部位の解剖学的位置に関する詳細を記録します。 このリソースは、コード化された概念がユースケースに必要な詳細を提供しない場合に使用できます。</t>
+    <t>Target anatomic location or structure</t>
+  </si>
+  <si>
+    <t>Record details about the anatomical location of a specimen or body part. This resource may be used when a coded concept does not provide the necessary detail needed for the use case.</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.site.extension:siteComment</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -268,11 +268,11 @@
     <t>患者への注射薬剤投与記録</t>
   </si>
   <si>
-    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的なEncounter（診察、受診、入退院など）と結びつけます。</t>
+    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -297,10 +297,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -313,7 +313,7 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ</t>
+    <t>「リソースに関するメタデータ」</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -336,7 +336,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -352,10 +352,10 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -364,7 +364,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -384,10 +384,10 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト要約</t>
-  </si>
-  <si>
-    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -410,13 +410,13 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」</t>
-  </si>
-  <si>
-    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
-  </si>
-  <si>
-    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -449,7 +449,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:requestDepartment</t>
@@ -552,7 +552,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -659,7 +659,7 @@
     <t>MedicationAdministration.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -1041,7 +1041,7 @@
 </t>
   </si>
   <si>
-    <t>「誰が薬を受け取りましたか？」</t>
+    <t>「誰が薬を受け取りましたか？」(dare ga kusuri o uketorimashita ka?)</t>
   </si>
   <si>
     <t>薬を受け取る人、動物、またはグループ。 (Kusuri wo uketoru hito, doubutsu, matawa guruupu.)</t>
@@ -1069,7 +1069,7 @@
     <t>「エピソード・オブ・ケア」は、「エンカウンター」として提供されます。</t>
   </si>
   <si>
-    <t>薬剤投与が行われた患者と医療提供者の間での訪問、入院、またはその他の接触。</t>
+    <t>「薬剤投与が行われた患者と医療提供者の間での訪問、入院、またはその他の接触。」</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1091,7 +1091,7 @@
 </t>
   </si>
   <si>
-    <t>管理をサポートするための追加情報</t>
+    <t>「管理をサポートするための追加情報」</t>
   </si>
   <si>
     <t>薬の投与を補助する追加情報（例えば、患者の身長や体重）。</t>
@@ -1107,10 +1107,10 @@
 Period</t>
   </si>
   <si>
-    <t>「管理の開始時刻と終了時刻」</t>
-  </si>
-  <si>
-    <t>与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。</t>
+    <t>「管理の開始時刻と終了時刻」(Kanri no kaishi jikoku to shūryō jikoku)</t>
+  </si>
+  <si>
+    <t>「与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。」</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1132,10 +1132,10 @@
 </t>
   </si>
   <si>
-    <t>薬剤投与を行ったのは誰で、何をしたのか？</t>
-  </si>
-  <si>
-    <t>薬の投与を行った人や物、および彼らがどのように関与したかを示す。</t>
+    <t>「薬剤投与を行ったのは誰で、何をしたのか？」</t>
+  </si>
+  <si>
+    <t>「薬の投与を行った人や物、および彼らがどのように関与したかを示す。」</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -1165,7 +1165,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1175,11 +1175,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されなくても無視できない拡張機能</t>
-  </si>
-  <si>
-    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1188,13 +1188,13 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>「パフォーマンスの種類」</t>
+    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
   </si>
   <si>
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
   </si>
   <si>
-    <t>薬物管理を行った個人の役割を説明するコード</t>
+    <t>「薬物管理を行った個人の役割を説明するコード」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1213,10 +1213,10 @@
 </t>
   </si>
   <si>
-    <t>「薬剤投与を行ったのは誰ですか？」</t>
-  </si>
-  <si>
-    <t>薬剤投与を行った人物または物品を示す</t>
+    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+  </si>
+  <si>
+    <t>「薬剤投与を行った人物または物品を示す」</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1234,7 +1234,7 @@
     <t>与えられた薬を説明するコード。</t>
   </si>
   <si>
-    <t>薬剤投与が行われた理由を示すコードのセット。</t>
+    <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1256,13 +1256,13 @@
 </t>
   </si>
   <si>
-    <t>薬が投与された理由を支持する状態または観察</t>
+    <t>「薬が投与された理由を支持する状態または観察」</t>
   </si>
   <si>
     <t>薬剤が投与された理由を支持する状態または観察。</t>
   </si>
   <si>
-    <t>これは、薬剤依頼の理由となる状態に関する参照です。もしコードしか存在しない場合は、reasonCodeを使用してください。</t>
+    <t>「これは、薬剤依頼の理由となる状態に関する参照です。もしコードしか存在しない場合は、reasonCodeを使用してください。」</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1287,10 +1287,10 @@
     <t>"リクエスト管理対象として実行してください。" (Rikuesuto kanri taishou toshite jikkou shite kudasai.)</t>
   </si>
   <si>
-    <t>管理を実行するための元の要求、指示、または権限。</t>
-  </si>
-  <si>
-    <t>これは、意図がオーダーまたはインスタンスオーダーであるMedicationRequestへの参照であり、意図が他の値であるMedicationRequestへの参照ではありません。</t>
+    <t>「管理を実行するための元の要求、指示、または権限。」</t>
+  </si>
+  <si>
+    <t>「これは、意図がオーダーまたはインスタンスオーダーであるMedicationRequestへの参照であり、意図が他の値であるMedicationRequestへの参照ではありません。」</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1309,7 +1309,7 @@
 </t>
   </si>
   <si>
-    <t>投与するための装置</t>
+    <t>「投与するための装置」(touyo suru tame no souchi)</t>
   </si>
   <si>
     <t>患者に薬剤を投与するのに使われる装置。例えば、特定の注入ポンプ。</t>
@@ -1328,10 +1328,10 @@
 </t>
   </si>
   <si>
-    <t>「行政に関する情報」</t>
-  </si>
-  <si>
-    <t>他の属性では伝えられない薬剤投与に関する追加情報</t>
+    <t>「行政に関する情報」(Gyōsei ni kansuru jōhō)</t>
+  </si>
+  <si>
+    <t>「他の属性では伝えられない薬剤投与に関する追加情報」</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1627,7 +1627,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>薬剤が投与される方法を記述する暗号化された概念。</t>
+    <t>「薬剤が投与される方法を記述する暗号化された概念。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
